--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\Git\Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\450 DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0EFB6E-790F-46DF-9398-03AB8BF9F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E3BE94-3E87-4D33-B08B-0E778CBFDF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1856,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1976,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\450 DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E3BE94-3E87-4D33-B08B-0E778CBFDF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D976EA-DB72-4AF2-A1E1-1C62995B7E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,12 @@
   </si>
   <si>
     <t>2d</t>
+  </si>
+  <si>
+    <t>2 Sum</t>
+  </si>
+  <si>
+    <t>4 Sum</t>
   </si>
 </sst>
 </file>
@@ -1854,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2288,46 +2294,43 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
-      <c r="B42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>465</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>3</v>
@@ -2338,10 +2341,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2349,7 +2352,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>3</v>
@@ -2360,7 +2363,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>3</v>
@@ -2371,7 +2374,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>3</v>
@@ -2382,10 +2385,10 @@
         <v>41</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>464</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2393,7 +2396,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>3</v>
@@ -2404,45 +2407,45 @@
         <v>41</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21">
+      <c r="A54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="21">
+      <c r="A55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="21">
-      <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>3</v>
@@ -2452,8 +2455,8 @@
       <c r="A59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>56</v>
+      <c r="B59" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>3</v>
@@ -2464,7 +2467,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>3</v>
@@ -2474,8 +2477,8 @@
       <c r="A61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>58</v>
+      <c r="B61" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>3</v>
@@ -2486,7 +2489,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>3</v>
@@ -2497,7 +2500,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>3</v>
@@ -2508,7 +2511,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>3</v>
@@ -2519,7 +2522,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>3</v>
@@ -2530,7 +2533,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>3</v>
@@ -2541,7 +2544,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>3</v>
@@ -2552,7 +2555,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>3</v>
@@ -2563,7 +2566,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>3</v>
@@ -2574,7 +2577,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>3</v>
@@ -2585,7 +2588,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>3</v>
@@ -2596,7 +2599,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>3</v>
@@ -2607,7 +2610,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>3</v>
@@ -2618,7 +2621,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>3</v>
@@ -2629,7 +2632,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>3</v>
@@ -2640,7 +2643,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>3</v>
@@ -2651,7 +2654,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>3</v>
@@ -2662,7 +2665,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>3</v>
@@ -2673,7 +2676,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>3</v>
@@ -2684,7 +2687,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>3</v>
@@ -2695,7 +2698,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>3</v>
@@ -2706,7 +2709,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>3</v>
@@ -2717,7 +2720,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -2728,7 +2731,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>3</v>
@@ -2739,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>3</v>
@@ -2750,7 +2753,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>3</v>
@@ -2761,7 +2764,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>3</v>
@@ -2772,7 +2775,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>3</v>
@@ -2783,7 +2786,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>3</v>
@@ -2794,7 +2797,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -2805,7 +2808,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>3</v>
@@ -2816,7 +2819,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -2827,7 +2830,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -2838,7 +2841,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>3</v>
@@ -2849,7 +2852,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>3</v>
@@ -2860,7 +2863,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>3</v>
@@ -2871,7 +2874,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>3</v>
@@ -2882,45 +2885,45 @@
         <v>52</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="21">
+      <c r="A99" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="21">
+      <c r="A100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="21">
-      <c r="A100" s="7"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
-      <c r="A102" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A102" s="7"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>3</v>
@@ -2931,7 +2934,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>3</v>
@@ -2942,7 +2945,7 @@
         <v>96</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>3</v>
@@ -2953,7 +2956,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>3</v>
@@ -2964,7 +2967,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>3</v>
@@ -2975,7 +2978,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>3</v>
@@ -2986,7 +2989,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>3</v>
@@ -2997,7 +3000,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>3</v>
@@ -3008,7 +3011,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>3</v>
@@ -3019,7 +3022,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>3</v>
@@ -3030,7 +3033,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>3</v>
@@ -3041,7 +3044,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>3</v>
@@ -3052,7 +3055,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>3</v>
@@ -3063,7 +3066,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>3</v>
@@ -3074,7 +3077,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>3</v>
@@ -3085,7 +3088,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>3</v>
@@ -3096,7 +3099,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>3</v>
@@ -3107,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>3</v>
@@ -3118,7 +3121,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>3</v>
@@ -3129,7 +3132,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>3</v>
@@ -3140,7 +3143,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>3</v>
@@ -3151,7 +3154,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>3</v>
@@ -3162,7 +3165,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>3</v>
@@ -3173,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>3</v>
@@ -3184,7 +3187,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>3</v>
@@ -3195,7 +3198,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>3</v>
@@ -3206,7 +3209,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>3</v>
@@ -3217,7 +3220,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>3</v>
@@ -3228,7 +3231,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>3</v>
@@ -3239,7 +3242,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>3</v>
@@ -3250,7 +3253,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>3</v>
@@ -3261,7 +3264,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>3</v>
@@ -3272,7 +3275,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>3</v>
@@ -3283,44 +3286,44 @@
         <v>96</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="21">
+      <c r="A137" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="21">
+      <c r="A138" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="6"/>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>3</v>
@@ -3331,7 +3334,7 @@
         <v>133</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>3</v>
@@ -3342,7 +3345,7 @@
         <v>133</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>3</v>
@@ -3353,7 +3356,7 @@
         <v>133</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>3</v>
@@ -3364,7 +3367,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>3</v>
@@ -3375,7 +3378,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>3</v>
@@ -3386,7 +3389,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>3</v>
@@ -3397,7 +3400,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>3</v>
@@ -3408,7 +3411,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>3</v>
@@ -3419,7 +3422,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>3</v>
@@ -3430,7 +3433,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>3</v>
@@ -3441,7 +3444,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>3</v>
@@ -3452,7 +3455,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>3</v>
@@ -3463,7 +3466,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>3</v>
@@ -3474,7 +3477,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>3</v>
@@ -3485,7 +3488,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>3</v>
@@ -3496,7 +3499,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>3</v>
@@ -3507,7 +3510,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>3</v>
@@ -3518,7 +3521,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>3</v>
@@ -3529,7 +3532,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>3</v>
@@ -3540,7 +3543,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>3</v>
@@ -3551,7 +3554,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>3</v>
@@ -3562,7 +3565,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>3</v>
@@ -3572,8 +3575,8 @@
       <c r="A164" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>159</v>
+      <c r="B164" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>3</v>
@@ -3583,8 +3586,8 @@
       <c r="A165" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>160</v>
+      <c r="B165" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>3</v>
@@ -3594,8 +3597,8 @@
       <c r="A166" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="5" t="s">
-        <v>161</v>
+      <c r="B166" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>3</v>
@@ -3605,8 +3608,8 @@
       <c r="A167" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>162</v>
+      <c r="B167" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>3</v>
@@ -3617,7 +3620,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>3</v>
@@ -3628,7 +3631,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>3</v>
@@ -3639,7 +3642,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>3</v>
@@ -3650,7 +3653,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>3</v>
@@ -3661,7 +3664,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>3</v>
@@ -3672,7 +3675,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>3</v>
@@ -3683,44 +3686,44 @@
         <v>133</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="21">
+      <c r="A175" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="21">
+      <c r="A176" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="21">
-      <c r="B176" s="6"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C177" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
-      <c r="A178" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>3</v>
@@ -3731,7 +3734,7 @@
         <v>170</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>3</v>
@@ -3742,7 +3745,7 @@
         <v>170</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>3</v>
@@ -3753,7 +3756,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>3</v>
@@ -3764,7 +3767,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>3</v>
@@ -3775,7 +3778,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>3</v>
@@ -3786,7 +3789,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>3</v>
@@ -3797,7 +3800,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>3</v>
@@ -3808,7 +3811,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>3</v>
@@ -3819,7 +3822,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>3</v>
@@ -3830,7 +3833,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>3</v>
@@ -3841,7 +3844,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>3</v>
@@ -3852,7 +3855,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>3</v>
@@ -3863,7 +3866,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3874,7 +3877,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3885,7 +3888,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3896,7 +3899,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3907,7 +3910,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3918,7 +3921,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3929,7 +3932,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3940,7 +3943,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3951,7 +3954,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3962,7 +3965,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -3973,7 +3976,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -3984,7 +3987,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -3995,7 +3998,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -4006,7 +4009,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -4017,7 +4020,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -4028,7 +4031,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -4039,7 +4042,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -4050,7 +4053,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>3</v>
@@ -4061,7 +4064,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>3</v>
@@ -4072,50 +4075,50 @@
         <v>170</v>
       </c>
       <c r="B211" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="21">
+      <c r="A212" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="21">
+      <c r="A213" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="7"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="3"/>
-    </row>
-    <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="7"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A214" s="7"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3" ht="21">
-      <c r="A215" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A215" s="7"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>3</v>
@@ -4126,7 +4129,7 @@
         <v>206</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>3</v>
@@ -4137,7 +4140,7 @@
         <v>206</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>3</v>
@@ -4148,7 +4151,7 @@
         <v>206</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>3</v>
@@ -4158,8 +4161,8 @@
       <c r="A220" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B220" s="8" t="s">
-        <v>213</v>
+      <c r="B220" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>3</v>
@@ -4170,7 +4173,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>3</v>
@@ -4180,8 +4183,8 @@
       <c r="A222" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B222" s="5" t="s">
-        <v>215</v>
+      <c r="B222" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4192,7 +4195,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
@@ -4203,7 +4206,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>3</v>
@@ -4214,7 +4217,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>3</v>
@@ -4225,7 +4228,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
@@ -4236,7 +4239,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>3</v>
@@ -4247,7 +4250,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>3</v>
@@ -4258,7 +4261,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4269,7 +4272,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4280,7 +4283,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4291,7 +4294,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4302,7 +4305,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>3</v>
@@ -4313,7 +4316,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3</v>
@@ -4324,48 +4327,48 @@
         <v>206</v>
       </c>
       <c r="B235" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="21">
+      <c r="A236" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="21">
+      <c r="A237" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C235" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="21">
-      <c r="B236" s="6"/>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:3" ht="21">
-      <c r="B237" s="6"/>
-      <c r="C237" s="3"/>
+      <c r="C237" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B238" s="6"/>
+      <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3" ht="21">
-      <c r="A239" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B239" s="6"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>3</v>
@@ -4376,7 +4379,7 @@
         <v>229</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>3</v>
@@ -4387,7 +4390,7 @@
         <v>229</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>3</v>
@@ -4398,7 +4401,7 @@
         <v>229</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>3</v>
@@ -4409,7 +4412,7 @@
         <v>229</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>3</v>
@@ -4420,7 +4423,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>3</v>
@@ -4431,7 +4434,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4442,7 +4445,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
@@ -4453,7 +4456,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>3</v>
@@ -4464,7 +4467,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>3</v>
@@ -4475,7 +4478,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
@@ -4486,7 +4489,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>3</v>
@@ -4497,7 +4500,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>3</v>
@@ -4508,7 +4511,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4519,7 +4522,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4530,7 +4533,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4541,7 +4544,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4552,7 +4555,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4563,7 +4566,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4574,7 +4577,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4585,7 +4588,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4596,7 +4599,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4607,7 +4610,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4618,7 +4621,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4629,7 +4632,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4640,7 +4643,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4651,7 +4654,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4662,7 +4665,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4673,7 +4676,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>3</v>
@@ -4684,7 +4687,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4695,7 +4698,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>3</v>
@@ -4706,7 +4709,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>3</v>
@@ -4717,48 +4720,48 @@
         <v>229</v>
       </c>
       <c r="B272" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="21">
+      <c r="A273" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="21">
+      <c r="A274" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C272" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="21">
-      <c r="B273" s="6"/>
-      <c r="C273" s="3"/>
-    </row>
-    <row r="274" spans="1:3" ht="21">
-      <c r="B274" s="6"/>
-      <c r="C274" s="3"/>
+      <c r="C274" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B275" s="6"/>
+      <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" ht="21">
-      <c r="A276" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B276" s="6"/>
+      <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>3</v>
@@ -4769,7 +4772,7 @@
         <v>264</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>3</v>
@@ -4780,7 +4783,7 @@
         <v>264</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>3</v>
@@ -4791,7 +4794,7 @@
         <v>264</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>3</v>
@@ -4802,7 +4805,7 @@
         <v>264</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>3</v>
@@ -4813,7 +4816,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>3</v>
@@ -4824,7 +4827,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4835,7 +4838,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
@@ -4846,7 +4849,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>3</v>
@@ -4857,7 +4860,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>3</v>
@@ -4868,7 +4871,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
@@ -4879,7 +4882,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>3</v>
@@ -4890,7 +4893,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>3</v>
@@ -4901,7 +4904,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4912,7 +4915,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>3</v>
@@ -4923,7 +4926,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>3</v>
@@ -4934,48 +4937,48 @@
         <v>264</v>
       </c>
       <c r="B293" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="21">
+      <c r="A294" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="21">
+      <c r="A295" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B295" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C293" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="21">
-      <c r="B294" s="6"/>
-      <c r="C294" s="3"/>
-    </row>
-    <row r="295" spans="1:3" ht="21">
-      <c r="B295" s="6"/>
-      <c r="C295" s="3"/>
+      <c r="C295" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B296" s="6"/>
+      <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" ht="21">
-      <c r="A297" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B297" s="6"/>
+      <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>3</v>
@@ -4986,7 +4989,7 @@
         <v>284</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>3</v>
@@ -4997,7 +5000,7 @@
         <v>284</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>3</v>
@@ -5008,7 +5011,7 @@
         <v>284</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>3</v>
@@ -5019,7 +5022,7 @@
         <v>284</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>3</v>
@@ -5030,7 +5033,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>3</v>
@@ -5041,7 +5044,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>3</v>
@@ -5052,7 +5055,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>3</v>
@@ -5063,7 +5066,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>3</v>
@@ -5074,7 +5077,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>3</v>
@@ -5085,7 +5088,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -5095,8 +5098,8 @@
       <c r="A309" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B309" s="8" t="s">
-        <v>298</v>
+      <c r="B309" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -5107,7 +5110,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -5117,8 +5120,8 @@
       <c r="A311" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B311" s="5" t="s">
-        <v>300</v>
+      <c r="B311" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -5129,7 +5132,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -5140,7 +5143,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -5151,7 +5154,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -5162,7 +5165,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -5173,7 +5176,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>3</v>
@@ -5184,7 +5187,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>3</v>
@@ -5195,7 +5198,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5206,7 +5209,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>3</v>
@@ -5217,7 +5220,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5228,7 +5231,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5239,7 +5242,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5250,7 +5253,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5261,7 +5264,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5272,7 +5275,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5283,7 +5286,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5294,7 +5297,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5305,7 +5308,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5316,7 +5319,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5327,7 +5330,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5338,7 +5341,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>3</v>
@@ -5349,7 +5352,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>3</v>
@@ -5360,48 +5363,48 @@
         <v>284</v>
       </c>
       <c r="B333" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="21">
+      <c r="A334" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="21">
+      <c r="A335" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B335" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="21">
-      <c r="B334" s="6"/>
-      <c r="C334" s="3"/>
-    </row>
-    <row r="335" spans="1:3" ht="21">
-      <c r="B335" s="6"/>
-      <c r="C335" s="3"/>
+      <c r="C335" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B336" s="6"/>
+      <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" ht="21">
-      <c r="A337" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B337" s="6"/>
+      <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>3</v>
@@ -5412,7 +5415,7 @@
         <v>323</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>3</v>
@@ -5423,7 +5426,7 @@
         <v>323</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>3</v>
@@ -5434,7 +5437,7 @@
         <v>323</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>3</v>
@@ -5445,7 +5448,7 @@
         <v>323</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>3</v>
@@ -5456,7 +5459,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>3</v>
@@ -5466,8 +5469,8 @@
       <c r="A344" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B344" s="8" t="s">
-        <v>332</v>
+      <c r="B344" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5478,7 +5481,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
@@ -5488,8 +5491,8 @@
       <c r="A346" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B346" s="5" t="s">
-        <v>334</v>
+      <c r="B346" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>3</v>
@@ -5500,7 +5503,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>3</v>
@@ -5511,7 +5514,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5522,7 +5525,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5533,7 +5536,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5544,7 +5547,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>3</v>
@@ -5555,7 +5558,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>3</v>
@@ -5566,48 +5569,48 @@
         <v>323</v>
       </c>
       <c r="B353" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="21">
+      <c r="A354" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="21">
+      <c r="A355" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B355" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C353" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="21">
-      <c r="B354" s="6"/>
-      <c r="C354" s="3"/>
-    </row>
-    <row r="355" spans="1:3" ht="21">
-      <c r="B355" s="6"/>
-      <c r="C355" s="3"/>
+      <c r="C355" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="356" spans="1:3" ht="21">
-      <c r="A356" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B356" s="6"/>
+      <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3" ht="21">
-      <c r="A357" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B357" s="6"/>
+      <c r="C357" s="3"/>
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>3</v>
@@ -5618,7 +5621,7 @@
         <v>342</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>3</v>
@@ -5629,7 +5632,7 @@
         <v>342</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>3</v>
@@ -5640,7 +5643,7 @@
         <v>342</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>3</v>
@@ -5651,7 +5654,7 @@
         <v>342</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>3</v>
@@ -5662,7 +5665,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>3</v>
@@ -5673,7 +5676,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>3</v>
@@ -5684,7 +5687,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
@@ -5695,7 +5698,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>3</v>
@@ -5706,7 +5709,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>3</v>
@@ -5717,7 +5720,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5728,7 +5731,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5739,7 +5742,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5750,7 +5753,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5761,7 +5764,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5772,7 +5775,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5783,7 +5786,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5794,7 +5797,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5805,7 +5808,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5816,7 +5819,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5827,7 +5830,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5838,7 +5841,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5849,7 +5852,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5860,7 +5863,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5871,7 +5874,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5882,7 +5885,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5893,7 +5896,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5904,7 +5907,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5915,7 +5918,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5926,7 +5929,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5937,7 +5940,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5948,7 +5951,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5959,7 +5962,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5970,7 +5973,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -5981,7 +5984,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -5992,7 +5995,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -6003,7 +6006,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -6014,7 +6017,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -6025,7 +6028,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -6036,7 +6039,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>3</v>
@@ -6047,7 +6050,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>3</v>
@@ -6058,48 +6061,48 @@
         <v>342</v>
       </c>
       <c r="B399" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="21">
+      <c r="A400" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="21">
+      <c r="A401" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B401" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C399" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
-      <c r="B400" s="6"/>
-      <c r="C400" s="3"/>
-    </row>
-    <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="6"/>
-      <c r="C401" s="3"/>
+      <c r="C401" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B402" s="6"/>
+      <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B403" s="6"/>
+      <c r="C403" s="3"/>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>3</v>
@@ -6110,7 +6113,7 @@
         <v>386</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>3</v>
@@ -6121,7 +6124,7 @@
         <v>386</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>3</v>
@@ -6132,48 +6135,48 @@
         <v>386</v>
       </c>
       <c r="B407" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="21">
+      <c r="A408" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="21">
+      <c r="A409" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B409" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="21">
-      <c r="B408" s="6"/>
-      <c r="C408" s="3"/>
-    </row>
-    <row r="409" spans="1:3" ht="21">
-      <c r="B409" s="6"/>
-      <c r="C409" s="3"/>
+      <c r="C409" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="410" spans="1:3" ht="21">
-      <c r="A410" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B410" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B410" s="6"/>
+      <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3" ht="21">
-      <c r="A411" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B411" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B411" s="6"/>
+      <c r="C411" s="3"/>
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>3</v>
@@ -6184,7 +6187,7 @@
         <v>392</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>3</v>
@@ -6195,7 +6198,7 @@
         <v>392</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>3</v>
@@ -6206,7 +6209,7 @@
         <v>392</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>3</v>
@@ -6217,7 +6220,7 @@
         <v>392</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>3</v>
@@ -6228,7 +6231,7 @@
         <v>392</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>3</v>
@@ -6239,7 +6242,7 @@
         <v>392</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6250,7 +6253,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
@@ -6261,7 +6264,7 @@
         <v>392</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>3</v>
@@ -6272,7 +6275,7 @@
         <v>392</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>3</v>
@@ -6283,7 +6286,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6294,7 +6297,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6305,7 +6308,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6316,7 +6319,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6327,7 +6330,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6338,7 +6341,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6349,7 +6352,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6360,7 +6363,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6371,7 +6374,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6382,7 +6385,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6393,7 +6396,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6404,7 +6407,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6415,7 +6418,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6426,7 +6429,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6437,7 +6440,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6448,7 +6451,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6459,7 +6462,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6470,7 +6473,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6481,7 +6484,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6492,7 +6495,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6503,7 +6506,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6514,7 +6517,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6525,7 +6528,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6536,7 +6539,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6547,7 +6550,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6558,7 +6561,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6569,7 +6572,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6580,7 +6583,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6591,7 +6594,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6602,7 +6605,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6613,7 +6616,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6624,7 +6627,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6635,7 +6638,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6646,7 +6649,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6657,7 +6660,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6668,7 +6671,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6679,7 +6682,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6690,7 +6693,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6701,7 +6704,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6712,7 +6715,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6723,7 +6726,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6734,7 +6737,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6745,7 +6748,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6756,7 +6759,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6767,7 +6770,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6778,7 +6781,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>3</v>
@@ -6789,7 +6792,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>3</v>
@@ -6800,49 +6803,49 @@
         <v>392</v>
       </c>
       <c r="B469" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="21">
+      <c r="A470" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="21">
+      <c r="A471" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B471" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C469" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="21">
-      <c r="B470" s="6"/>
-      <c r="C470" s="3"/>
-    </row>
-    <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="7"/>
-      <c r="B471" s="6"/>
-      <c r="C471" s="3"/>
+      <c r="C471" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B472" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B472" s="6"/>
+      <c r="C472" s="3"/>
     </row>
     <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B473" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A473" s="7"/>
+      <c r="B473" s="6"/>
+      <c r="C473" s="3"/>
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>3</v>
@@ -6853,7 +6856,7 @@
         <v>452</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>3</v>
@@ -6864,7 +6867,7 @@
         <v>452</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>3</v>
@@ -6875,7 +6878,7 @@
         <v>452</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>3</v>
@@ -6886,7 +6889,7 @@
         <v>452</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>3</v>
@@ -6897,7 +6900,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>3</v>
@@ -6908,7 +6911,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>3</v>
@@ -6919,9 +6922,31 @@
         <v>452</v>
       </c>
       <c r="B481" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="21">
+      <c r="A482" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="21">
+      <c r="A483" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B483" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C481" s="3" t="s">
+      <c r="C483" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6963,415 +6988,415 @@
     <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B46" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B47" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B48" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B49" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B50" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B51" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B52" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B53" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B54" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B55" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B58" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B59" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B60" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B62" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B63" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B64" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B65" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B66" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B67" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B68" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B69" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B70" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B71" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B73" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B74" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B75" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B76" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B77" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B78" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B79" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B80" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B81" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B82" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B83" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B84" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B85" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B86" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B87" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B88" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B89" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B90" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B91" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B92" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B93" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B94" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B95" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B96" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B97" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B98" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B99" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B100" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B103" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B104" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B105" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B106" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B108" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B109" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B110" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B111" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B112" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B113" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B115" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B116" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B117" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B118" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B119" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B120" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B122" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B123" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B124" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B125" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B126" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B127" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B128" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B129" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B130" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B131" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B132" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B133" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B134" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B135" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B136" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B137" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B138" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B107" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B114" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B141" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B142" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B143" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B144" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B145" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B146" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B147" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B148" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B149" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B150" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B151" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B152" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B153" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B154" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B155" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B156" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B157" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B158" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B159" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B160" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B161" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B162" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B163" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B164" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B165" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B168" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B169" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B170" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B171" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B172" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B173" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B174" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B175" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B176" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B179" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B180" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B181" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B182" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B183" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B184" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B185" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B186" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B187" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B188" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B189" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B190" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B191" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B192" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B193" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B194" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B195" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B196" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B197" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B198" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B199" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B200" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B201" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B202" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B203" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B204" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B205" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B206" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B207" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B208" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B209" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B210" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B211" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B212" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B213" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B216" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B217" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B218" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B219" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B220" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B221" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B222" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B223" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B224" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B225" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B226" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B227" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B228" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B229" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B230" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B231" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B232" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B233" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B234" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B235" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B236" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B237" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B240" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B241" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B242" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B243" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B244" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B245" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B246" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B247" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B248" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B249" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B250" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B251" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B252" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B253" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B254" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B255" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B256" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B257" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B258" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B259" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B260" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B261" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B262" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B263" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B264" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B265" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B266" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B267" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B268" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B269" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B270" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B271" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B272" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B273" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B274" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B277" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B278" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B279" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B280" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B281" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B282" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B283" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B284" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B285" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B286" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B287" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B288" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B289" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B290" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B291" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B292" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B293" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B294" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B295" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B298" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B299" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B300" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B301" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B302" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B303" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B304" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B305" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B306" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B307" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B308" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B309" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B310" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B311" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B312" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B313" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B314" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B315" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B316" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B317" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B318" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B319" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B320" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B321" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B322" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B323" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B324" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B325" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B326" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B327" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B328" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B329" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B330" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B331" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B332" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B333" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B334" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B335" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B359" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B360" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B361" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B362" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B363" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B364" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B365" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B366" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B367" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B368" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B369" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B370" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B371" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B372" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B373" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B374" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B375" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B376" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B377" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B378" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B379" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B380" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B381" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B382" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B383" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B384" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B385" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B386" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B387" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B388" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B389" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B390" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B391" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B392" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B393" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B394" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B395" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B396" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B398" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B397" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B399" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B400" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B401" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B404" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B405" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B406" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B407" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B408" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B409" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B412" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B413" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B414" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B415" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B416" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B417" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B418" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B419" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B420" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B421" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B422" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B423" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B424" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B425" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B426" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B427" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B430" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B431" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B432" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B433" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B434" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B435" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B436" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B437" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B438" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B439" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B440" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B441" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B442" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B443" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B444" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B445" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B446" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B447" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B448" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B449" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B450" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B451" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B453" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B452" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B454" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B455" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B456" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B457" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B458" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B459" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B460" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B461" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B462" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B463" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B464" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B471" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B470" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B469" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B468" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B467" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B466" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B465" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B474" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B475" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B476" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B477" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B478" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B479" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B480" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B483" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B481" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B482" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B358" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\450 DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D976EA-DB72-4AF2-A1E1-1C62995B7E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE49C92-B36D-4663-B937-B698BA7D35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1428,10 +1428,13 @@
     <t>2d</t>
   </si>
   <si>
-    <t>2 Sum</t>
-  </si>
-  <si>
-    <t>4 Sum</t>
+    <t>Longest Common Sequence from Striver</t>
+  </si>
+  <si>
+    <t>2 Sum from Striver</t>
+  </si>
+  <si>
+    <t>4 Sum from Striver</t>
   </si>
 </sst>
 </file>
@@ -1860,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C483"/>
+  <dimension ref="A1:C485"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2298,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>465</v>
@@ -2309,16 +2312,22 @@
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="4"/>
@@ -2326,33 +2335,21 @@
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>465</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>3</v>
@@ -2363,10 +2360,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
@@ -2374,7 +2371,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>3</v>
@@ -2385,7 +2382,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>3</v>
@@ -2396,7 +2393,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>3</v>
@@ -2407,10 +2404,10 @@
         <v>41</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>464</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="21">
@@ -2418,7 +2415,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>3</v>
@@ -2429,45 +2426,45 @@
         <v>41</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="21">
+      <c r="A56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="21">
+      <c r="A57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="4"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" ht="21">
-      <c r="A58" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
-      <c r="A59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>3</v>
@@ -2477,8 +2474,8 @@
       <c r="A61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>56</v>
+      <c r="B61" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>3</v>
@@ -2489,7 +2486,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>3</v>
@@ -2499,8 +2496,8 @@
       <c r="A63" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>58</v>
+      <c r="B63" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>3</v>
@@ -2511,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>3</v>
@@ -2522,7 +2519,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>3</v>
@@ -2533,7 +2530,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>3</v>
@@ -2544,7 +2541,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>3</v>
@@ -2555,7 +2552,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>3</v>
@@ -2566,7 +2563,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>3</v>
@@ -2577,7 +2574,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>3</v>
@@ -2588,7 +2585,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>3</v>
@@ -2599,7 +2596,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>3</v>
@@ -2610,7 +2607,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>3</v>
@@ -2621,7 +2618,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>3</v>
@@ -2632,7 +2629,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>3</v>
@@ -2643,7 +2640,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>3</v>
@@ -2654,7 +2651,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>3</v>
@@ -2665,7 +2662,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>3</v>
@@ -2676,7 +2673,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>3</v>
@@ -2687,7 +2684,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>3</v>
@@ -2698,7 +2695,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>3</v>
@@ -2709,7 +2706,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>3</v>
@@ -2720,7 +2717,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -2731,7 +2728,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>3</v>
@@ -2742,7 +2739,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>3</v>
@@ -2753,7 +2750,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>3</v>
@@ -2764,7 +2761,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>3</v>
@@ -2775,7 +2772,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>3</v>
@@ -2786,7 +2783,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>3</v>
@@ -2797,7 +2794,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -2808,7 +2805,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>3</v>
@@ -2819,7 +2816,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -2830,7 +2827,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -2841,7 +2838,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>3</v>
@@ -2852,7 +2849,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>3</v>
@@ -2863,7 +2860,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>3</v>
@@ -2874,7 +2871,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>3</v>
@@ -2885,7 +2882,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>3</v>
@@ -2896,7 +2893,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>3</v>
@@ -2907,45 +2904,45 @@
         <v>52</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="21">
+      <c r="A101" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="21">
+      <c r="A102" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="21">
-      <c r="A102" s="7"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" ht="21">
-      <c r="A103" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
-      <c r="A104" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A104" s="7"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>3</v>
@@ -2956,7 +2953,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>3</v>
@@ -2967,7 +2964,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>3</v>
@@ -2978,7 +2975,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>3</v>
@@ -2989,7 +2986,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>3</v>
@@ -3000,7 +2997,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>3</v>
@@ -3011,7 +3008,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>3</v>
@@ -3022,7 +3019,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>3</v>
@@ -3033,7 +3030,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>3</v>
@@ -3044,7 +3041,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>3</v>
@@ -3055,7 +3052,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>3</v>
@@ -3066,7 +3063,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>3</v>
@@ -3077,7 +3074,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>3</v>
@@ -3088,7 +3085,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>3</v>
@@ -3099,7 +3096,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>3</v>
@@ -3110,7 +3107,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>3</v>
@@ -3121,7 +3118,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>3</v>
@@ -3132,7 +3129,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>3</v>
@@ -3143,7 +3140,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>3</v>
@@ -3154,7 +3151,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>3</v>
@@ -3165,7 +3162,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>3</v>
@@ -3176,7 +3173,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>3</v>
@@ -3187,7 +3184,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>3</v>
@@ -3198,7 +3195,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>3</v>
@@ -3209,7 +3206,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>3</v>
@@ -3220,7 +3217,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>3</v>
@@ -3231,7 +3228,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>3</v>
@@ -3242,7 +3239,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>3</v>
@@ -3253,7 +3250,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>3</v>
@@ -3264,7 +3261,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>3</v>
@@ -3275,7 +3272,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>3</v>
@@ -3286,7 +3283,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>3</v>
@@ -3297,7 +3294,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>3</v>
@@ -3308,44 +3305,44 @@
         <v>96</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="21">
+      <c r="A139" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="21">
+      <c r="A140" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="21">
-      <c r="B140" s="6"/>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="1:3" ht="21">
-      <c r="A141" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C141" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
-      <c r="A142" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>3</v>
@@ -3356,7 +3353,7 @@
         <v>133</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>3</v>
@@ -3367,7 +3364,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>3</v>
@@ -3378,7 +3375,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>3</v>
@@ -3389,7 +3386,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>3</v>
@@ -3400,7 +3397,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>3</v>
@@ -3411,7 +3408,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>3</v>
@@ -3422,7 +3419,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>3</v>
@@ -3433,7 +3430,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>3</v>
@@ -3444,7 +3441,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>3</v>
@@ -3455,7 +3452,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>3</v>
@@ -3466,7 +3463,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>3</v>
@@ -3477,7 +3474,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>3</v>
@@ -3488,7 +3485,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>3</v>
@@ -3499,7 +3496,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>3</v>
@@ -3510,7 +3507,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>3</v>
@@ -3521,7 +3518,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>3</v>
@@ -3532,7 +3529,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>3</v>
@@ -3543,7 +3540,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>3</v>
@@ -3554,7 +3551,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>3</v>
@@ -3565,7 +3562,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>3</v>
@@ -3576,7 +3573,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>3</v>
@@ -3587,7 +3584,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>3</v>
@@ -3597,8 +3594,8 @@
       <c r="A166" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>159</v>
+      <c r="B166" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>3</v>
@@ -3608,8 +3605,8 @@
       <c r="A167" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>160</v>
+      <c r="B167" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>3</v>
@@ -3619,8 +3616,8 @@
       <c r="A168" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B168" s="5" t="s">
-        <v>161</v>
+      <c r="B168" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>3</v>
@@ -3630,8 +3627,8 @@
       <c r="A169" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>162</v>
+      <c r="B169" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>3</v>
@@ -3642,7 +3639,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>3</v>
@@ -3653,7 +3650,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>3</v>
@@ -3664,7 +3661,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>3</v>
@@ -3675,7 +3672,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>3</v>
@@ -3686,7 +3683,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>3</v>
@@ -3697,7 +3694,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>3</v>
@@ -3708,44 +3705,44 @@
         <v>133</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="21">
+      <c r="A177" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="21">
+      <c r="A178" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
-      <c r="B178" s="6"/>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="1:3" ht="21">
-      <c r="A179" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C179" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
-      <c r="A180" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>3</v>
@@ -3756,7 +3753,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>3</v>
@@ -3767,7 +3764,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>3</v>
@@ -3778,7 +3775,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>3</v>
@@ -3789,7 +3786,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>3</v>
@@ -3800,7 +3797,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>3</v>
@@ -3811,7 +3808,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>3</v>
@@ -3822,7 +3819,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>3</v>
@@ -3833,7 +3830,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>3</v>
@@ -3844,7 +3841,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>3</v>
@@ -3855,7 +3852,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>3</v>
@@ -3866,7 +3863,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3877,7 +3874,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3888,7 +3885,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3899,7 +3896,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3910,7 +3907,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3921,7 +3918,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3932,7 +3929,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3943,7 +3940,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3954,7 +3951,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3965,7 +3962,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -3976,7 +3973,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -3987,7 +3984,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -3998,7 +3995,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -4009,7 +4006,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -4020,7 +4017,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -4031,7 +4028,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -4042,7 +4039,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -4053,7 +4050,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>3</v>
@@ -4064,7 +4061,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>3</v>
@@ -4075,7 +4072,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>3</v>
@@ -4086,7 +4083,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>3</v>
@@ -4097,50 +4094,50 @@
         <v>170</v>
       </c>
       <c r="B213" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="21">
+      <c r="A214" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="21">
+      <c r="A215" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="7"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="3"/>
-    </row>
-    <row r="215" spans="1:3" ht="21">
-      <c r="A215" s="7"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="216" spans="1:3" ht="21">
-      <c r="A216" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A216" s="7"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3" ht="21">
-      <c r="A217" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A217" s="7"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>3</v>
@@ -4151,7 +4148,7 @@
         <v>206</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>3</v>
@@ -4162,7 +4159,7 @@
         <v>206</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>3</v>
@@ -4173,7 +4170,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>3</v>
@@ -4183,8 +4180,8 @@
       <c r="A222" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B222" s="8" t="s">
-        <v>213</v>
+      <c r="B222" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4195,7 +4192,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
@@ -4205,8 +4202,8 @@
       <c r="A224" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B224" s="5" t="s">
-        <v>215</v>
+      <c r="B224" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>3</v>
@@ -4217,7 +4214,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>3</v>
@@ -4228,7 +4225,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
@@ -4239,7 +4236,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>3</v>
@@ -4250,7 +4247,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>3</v>
@@ -4261,7 +4258,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4272,7 +4269,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4283,7 +4280,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4294,7 +4291,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4305,7 +4302,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>3</v>
@@ -4316,7 +4313,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3</v>
@@ -4327,7 +4324,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>3</v>
@@ -4338,7 +4335,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>3</v>
@@ -4349,48 +4346,48 @@
         <v>206</v>
       </c>
       <c r="B237" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="21">
+      <c r="A238" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="21">
+      <c r="A239" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C237" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="21">
-      <c r="B238" s="6"/>
-      <c r="C238" s="3"/>
-    </row>
-    <row r="239" spans="1:3" ht="21">
-      <c r="B239" s="6"/>
-      <c r="C239" s="3"/>
+      <c r="C239" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="240" spans="1:3" ht="21">
-      <c r="A240" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B240" s="6"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" ht="21">
-      <c r="A241" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B241" s="6"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>3</v>
@@ -4401,7 +4398,7 @@
         <v>229</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>3</v>
@@ -4412,7 +4409,7 @@
         <v>229</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>3</v>
@@ -4423,7 +4420,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>3</v>
@@ -4434,7 +4431,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4445,7 +4442,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
@@ -4456,7 +4453,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>3</v>
@@ -4467,7 +4464,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>3</v>
@@ -4478,7 +4475,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
@@ -4489,7 +4486,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>3</v>
@@ -4500,7 +4497,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>3</v>
@@ -4511,7 +4508,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4522,7 +4519,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4533,7 +4530,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4544,7 +4541,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4555,7 +4552,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4566,7 +4563,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4577,7 +4574,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4588,7 +4585,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4599,7 +4596,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4610,7 +4607,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4621,7 +4618,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4632,7 +4629,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4643,7 +4640,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4654,7 +4651,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4665,7 +4662,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4676,7 +4673,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>3</v>
@@ -4687,7 +4684,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4698,7 +4695,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>3</v>
@@ -4709,7 +4706,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>3</v>
@@ -4720,7 +4717,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>3</v>
@@ -4731,7 +4728,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>3</v>
@@ -4742,48 +4739,48 @@
         <v>229</v>
       </c>
       <c r="B274" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="21">
+      <c r="A275" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="21">
+      <c r="A276" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B276" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="21">
-      <c r="B275" s="6"/>
-      <c r="C275" s="3"/>
-    </row>
-    <row r="276" spans="1:3" ht="21">
-      <c r="B276" s="6"/>
-      <c r="C276" s="3"/>
+      <c r="C276" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="277" spans="1:3" ht="21">
-      <c r="A277" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B277" s="6"/>
+      <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" ht="21">
-      <c r="A278" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B278" s="6"/>
+      <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>3</v>
@@ -4794,7 +4791,7 @@
         <v>264</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>3</v>
@@ -4805,7 +4802,7 @@
         <v>264</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>3</v>
@@ -4816,7 +4813,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>3</v>
@@ -4827,7 +4824,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4838,7 +4835,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
@@ -4849,7 +4846,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>3</v>
@@ -4860,7 +4857,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>3</v>
@@ -4871,7 +4868,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
@@ -4882,7 +4879,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>3</v>
@@ -4893,7 +4890,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>3</v>
@@ -4904,7 +4901,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4915,7 +4912,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>3</v>
@@ -4926,7 +4923,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>3</v>
@@ -4937,7 +4934,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>3</v>
@@ -4948,7 +4945,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>3</v>
@@ -4959,48 +4956,48 @@
         <v>264</v>
       </c>
       <c r="B295" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="21">
+      <c r="A296" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="21">
+      <c r="A297" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B297" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C295" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="21">
-      <c r="B296" s="6"/>
-      <c r="C296" s="3"/>
-    </row>
-    <row r="297" spans="1:3" ht="21">
-      <c r="B297" s="6"/>
-      <c r="C297" s="3"/>
+      <c r="C297" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="298" spans="1:3" ht="21">
-      <c r="A298" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B298" s="6"/>
+      <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3" ht="21">
-      <c r="A299" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B299" s="6"/>
+      <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>3</v>
@@ -5011,7 +5008,7 @@
         <v>284</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>3</v>
@@ -5022,7 +5019,7 @@
         <v>284</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>3</v>
@@ -5033,7 +5030,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>3</v>
@@ -5044,7 +5041,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>3</v>
@@ -5055,7 +5052,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>3</v>
@@ -5066,7 +5063,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>3</v>
@@ -5077,7 +5074,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>3</v>
@@ -5088,7 +5085,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -5099,7 +5096,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -5110,7 +5107,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -5120,8 +5117,8 @@
       <c r="A311" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B311" s="8" t="s">
-        <v>298</v>
+      <c r="B311" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -5132,7 +5129,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -5142,8 +5139,8 @@
       <c r="A313" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B313" s="5" t="s">
-        <v>300</v>
+      <c r="B313" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -5154,7 +5151,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -5165,7 +5162,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -5176,7 +5173,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>3</v>
@@ -5187,7 +5184,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>3</v>
@@ -5198,7 +5195,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5209,7 +5206,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>3</v>
@@ -5220,7 +5217,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5231,7 +5228,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5242,7 +5239,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5253,7 +5250,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5264,7 +5261,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5275,7 +5272,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5286,7 +5283,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5297,7 +5294,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5308,7 +5305,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5319,7 +5316,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5330,7 +5327,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5341,7 +5338,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>3</v>
@@ -5352,7 +5349,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>3</v>
@@ -5363,7 +5360,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5374,7 +5371,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5385,48 +5382,48 @@
         <v>284</v>
       </c>
       <c r="B335" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="21">
+      <c r="A336" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="21">
+      <c r="A337" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B337" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C335" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="21">
-      <c r="B336" s="6"/>
-      <c r="C336" s="3"/>
-    </row>
-    <row r="337" spans="1:3" ht="21">
-      <c r="B337" s="6"/>
-      <c r="C337" s="3"/>
+      <c r="C337" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="338" spans="1:3" ht="21">
-      <c r="A338" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B338" s="6"/>
+      <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:3" ht="21">
-      <c r="A339" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B339" s="6"/>
+      <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>3</v>
@@ -5437,7 +5434,7 @@
         <v>323</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>3</v>
@@ -5448,7 +5445,7 @@
         <v>323</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>3</v>
@@ -5459,7 +5456,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>3</v>
@@ -5470,7 +5467,7 @@
         <v>323</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5481,7 +5478,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
@@ -5491,8 +5488,8 @@
       <c r="A346" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B346" s="8" t="s">
-        <v>332</v>
+      <c r="B346" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>3</v>
@@ -5503,7 +5500,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>3</v>
@@ -5513,8 +5510,8 @@
       <c r="A348" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B348" s="5" t="s">
-        <v>334</v>
+      <c r="B348" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5525,7 +5522,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5536,7 +5533,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5547,7 +5544,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>3</v>
@@ -5558,7 +5555,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>3</v>
@@ -5569,7 +5566,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>3</v>
@@ -5580,7 +5577,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>3</v>
@@ -5591,48 +5588,48 @@
         <v>323</v>
       </c>
       <c r="B355" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="21">
+      <c r="A356" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="21">
+      <c r="A357" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B357" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C355" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="21">
-      <c r="B356" s="6"/>
-      <c r="C356" s="3"/>
-    </row>
-    <row r="357" spans="1:3" ht="21">
-      <c r="B357" s="6"/>
-      <c r="C357" s="3"/>
+      <c r="C357" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="358" spans="1:3" ht="21">
-      <c r="A358" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B358" s="6"/>
+      <c r="C358" s="3"/>
     </row>
     <row r="359" spans="1:3" ht="21">
-      <c r="A359" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B359" s="6"/>
+      <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>3</v>
@@ -5643,7 +5640,7 @@
         <v>342</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>3</v>
@@ -5654,7 +5651,7 @@
         <v>342</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>3</v>
@@ -5665,7 +5662,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>3</v>
@@ -5676,7 +5673,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>3</v>
@@ -5687,7 +5684,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
@@ -5698,7 +5695,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>3</v>
@@ -5709,7 +5706,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>3</v>
@@ -5720,7 +5717,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5731,7 +5728,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5742,7 +5739,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5753,7 +5750,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5764,7 +5761,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5775,7 +5772,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5786,7 +5783,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5797,7 +5794,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5808,7 +5805,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5819,7 +5816,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5830,7 +5827,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5841,7 +5838,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5852,7 +5849,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5863,7 +5860,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5874,7 +5871,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5885,7 +5882,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5896,7 +5893,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5907,7 +5904,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5918,7 +5915,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5929,7 +5926,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5940,7 +5937,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5951,7 +5948,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5962,7 +5959,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5973,7 +5970,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -5984,7 +5981,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -5995,7 +5992,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -6006,7 +6003,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -6017,7 +6014,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -6028,7 +6025,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -6039,7 +6036,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>3</v>
@@ -6050,7 +6047,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>3</v>
@@ -6061,7 +6058,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>3</v>
@@ -6072,7 +6069,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>3</v>
@@ -6083,48 +6080,48 @@
         <v>342</v>
       </c>
       <c r="B401" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="21">
+      <c r="A402" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="21">
+      <c r="A403" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B403" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C401" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="21">
-      <c r="B402" s="6"/>
-      <c r="C402" s="3"/>
-    </row>
-    <row r="403" spans="1:3" ht="21">
-      <c r="B403" s="6"/>
-      <c r="C403" s="3"/>
+      <c r="C403" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="404" spans="1:3" ht="21">
-      <c r="A404" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B404" s="6"/>
+      <c r="C404" s="3"/>
     </row>
     <row r="405" spans="1:3" ht="21">
-      <c r="A405" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B405" s="6"/>
+      <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>3</v>
@@ -6135,7 +6132,7 @@
         <v>386</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>3</v>
@@ -6146,7 +6143,7 @@
         <v>386</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>3</v>
@@ -6157,48 +6154,48 @@
         <v>386</v>
       </c>
       <c r="B409" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="21">
+      <c r="A410" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="21">
+      <c r="A411" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B411" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C409" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="21">
-      <c r="B410" s="6"/>
-      <c r="C410" s="3"/>
-    </row>
-    <row r="411" spans="1:3" ht="21">
-      <c r="B411" s="6"/>
-      <c r="C411" s="3"/>
+      <c r="C411" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="412" spans="1:3" ht="21">
-      <c r="A412" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B412" s="6"/>
+      <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" ht="21">
-      <c r="A413" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B413" s="6"/>
+      <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>3</v>
@@ -6209,7 +6206,7 @@
         <v>392</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>3</v>
@@ -6220,7 +6217,7 @@
         <v>392</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>3</v>
@@ -6231,7 +6228,7 @@
         <v>392</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>3</v>
@@ -6242,7 +6239,7 @@
         <v>392</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6253,7 +6250,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
@@ -6264,7 +6261,7 @@
         <v>392</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>3</v>
@@ -6275,7 +6272,7 @@
         <v>392</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>3</v>
@@ -6286,7 +6283,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6297,7 +6294,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6308,7 +6305,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6319,7 +6316,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6330,7 +6327,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6341,7 +6338,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6352,7 +6349,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6363,7 +6360,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6374,7 +6371,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6385,7 +6382,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6396,7 +6393,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6407,7 +6404,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6418,7 +6415,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6429,7 +6426,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6440,7 +6437,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6451,7 +6448,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6462,7 +6459,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6473,7 +6470,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6484,7 +6481,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6495,7 +6492,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6506,7 +6503,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6517,7 +6514,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6528,7 +6525,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6539,7 +6536,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6550,7 +6547,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6561,7 +6558,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6572,7 +6569,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6583,7 +6580,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6594,7 +6591,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6605,7 +6602,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6616,7 +6613,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6627,7 +6624,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6638,7 +6635,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6649,7 +6646,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6660,7 +6657,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6671,7 +6668,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6682,7 +6679,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6693,7 +6690,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6704,7 +6701,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6715,7 +6712,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6726,7 +6723,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6737,7 +6734,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6748,7 +6745,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6759,7 +6756,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6770,7 +6767,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6781,7 +6778,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>3</v>
@@ -6792,7 +6789,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>3</v>
@@ -6803,7 +6800,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>3</v>
@@ -6814,7 +6811,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>3</v>
@@ -6825,49 +6822,49 @@
         <v>392</v>
       </c>
       <c r="B471" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="21">
+      <c r="A472" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="21">
+      <c r="A473" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B473" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C471" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="21">
-      <c r="B472" s="6"/>
-      <c r="C472" s="3"/>
-    </row>
-    <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="7"/>
-      <c r="B473" s="6"/>
-      <c r="C473" s="3"/>
+      <c r="C473" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="474" spans="1:3" ht="21">
-      <c r="A474" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B474" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B474" s="6"/>
+      <c r="C474" s="3"/>
     </row>
     <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B475" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A475" s="7"/>
+      <c r="B475" s="6"/>
+      <c r="C475" s="3"/>
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>3</v>
@@ -6878,7 +6875,7 @@
         <v>452</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>3</v>
@@ -6889,7 +6886,7 @@
         <v>452</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>3</v>
@@ -6900,7 +6897,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>3</v>
@@ -6911,7 +6908,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>3</v>
@@ -6922,7 +6919,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>3</v>
@@ -6933,7 +6930,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>3</v>
@@ -6944,9 +6941,31 @@
         <v>452</v>
       </c>
       <c r="B483" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="21">
+      <c r="A484" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="21">
+      <c r="A485" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B485" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C483" s="3" t="s">
+      <c r="C485" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6988,415 +7007,415 @@
     <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B46" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B47" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B48" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B49" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B50" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B51" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B52" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B53" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B54" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B55" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B58" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B59" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B60" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B62" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B63" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B64" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B65" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B66" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B67" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B68" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B69" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B70" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B71" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B73" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B74" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B75" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B76" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B77" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B78" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B79" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B80" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B81" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B82" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B83" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B84" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B85" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B86" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B87" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B88" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B89" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B90" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B91" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B92" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B93" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B94" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B95" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B96" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B97" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B98" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B99" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B100" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B103" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B104" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B105" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B106" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B108" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B109" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B110" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B111" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B112" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B113" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B115" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B116" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B117" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B118" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B119" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B120" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B122" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B123" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B124" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B125" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B126" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B127" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B128" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B129" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B130" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B131" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B132" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B133" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B134" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B135" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B136" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B137" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B138" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B107" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B114" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B141" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B142" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B143" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B144" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B145" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B146" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B147" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B148" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B149" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B150" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B151" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B152" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B153" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B154" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B155" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B156" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B157" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B158" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B159" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B160" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B161" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B162" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B163" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B164" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B165" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B168" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B169" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B170" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B171" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B172" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B173" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B174" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B175" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B176" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B179" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B180" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B181" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B182" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B183" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B184" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B185" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B186" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B187" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B188" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B189" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B190" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B191" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B192" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B193" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B194" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B195" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B196" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B197" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B198" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B199" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B200" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B201" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B202" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B203" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B204" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B205" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B206" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B207" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B208" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B209" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B210" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B211" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B212" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B213" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B216" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B217" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B218" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B219" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B220" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B221" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B222" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B223" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B224" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B225" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B226" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B227" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B228" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B229" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B230" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B231" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B232" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B233" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B234" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B235" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B236" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B237" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B240" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B241" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B242" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B243" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B244" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B245" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B246" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B247" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B248" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B249" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B250" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B251" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B252" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B253" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B254" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B255" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B256" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B257" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B258" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B259" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B260" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B261" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B262" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B263" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B264" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B265" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B266" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B267" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B268" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B269" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B270" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B271" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B272" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B273" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B274" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B277" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B278" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B279" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B280" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B281" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B282" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B283" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B284" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B285" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B286" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B287" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B288" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B289" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B290" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B291" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B292" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B293" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B294" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B295" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B298" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B299" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B300" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B301" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B302" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B303" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B304" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B305" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B306" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B307" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B308" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B309" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B310" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B311" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B312" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B313" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B314" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B315" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B316" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B317" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B318" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B319" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B320" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B321" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B322" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B323" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B324" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B325" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B326" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B327" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B328" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B329" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B330" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B331" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B332" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B333" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B334" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B335" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B359" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B360" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B361" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B362" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B363" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B364" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B365" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B366" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B367" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B368" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B369" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B370" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B371" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B372" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B373" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B374" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B375" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B376" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B377" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B378" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B379" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B380" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B381" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B382" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B383" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B384" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B385" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B386" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B387" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B388" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B389" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B390" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B391" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B392" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B393" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B394" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B395" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B396" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B398" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B397" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B399" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B400" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B401" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B404" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B405" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B406" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B407" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B408" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B409" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B412" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B413" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B414" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B415" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B416" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B417" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B418" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B419" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B420" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B421" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B422" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B423" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B424" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B425" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B426" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B427" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B428" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B429" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B430" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B431" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B432" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B433" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B434" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B435" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B436" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B437" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B438" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B439" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B440" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B441" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B442" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B443" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B444" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B445" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B446" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B447" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B448" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B449" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B450" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B451" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B453" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B452" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B454" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B455" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B456" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B457" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B458" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B459" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B460" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B461" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B462" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B463" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B464" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B471" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B470" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B469" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B468" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B467" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B466" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B465" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B474" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B475" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B476" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B477" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B478" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B479" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B480" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B483" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B481" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B482" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B358" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B48" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B49" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B50" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B51" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B52" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B53" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B54" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B55" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B56" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B57" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B60" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B61" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B62" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B64" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B65" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B66" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B67" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B68" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B69" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B70" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B71" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B72" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B74" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B75" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B76" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B77" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B78" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B79" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B80" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B81" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B82" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B83" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B84" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B85" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B86" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B87" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B88" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B89" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B90" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B91" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B92" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B93" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B94" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B95" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B96" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B97" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B98" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B99" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B100" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B101" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B102" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B105" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B106" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B107" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B108" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B110" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B111" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B112" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B113" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B114" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B115" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B117" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B118" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B119" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B120" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B121" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B123" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B124" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B125" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B126" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B127" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B128" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B129" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B130" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B131" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B132" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B133" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B134" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B135" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B136" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B137" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B138" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B139" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B140" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B109" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B116" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B143" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B144" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B145" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B146" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B147" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B148" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B149" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B150" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B151" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B152" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B153" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B154" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B155" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B156" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B157" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B158" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B159" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B160" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B161" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B162" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B163" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B164" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B165" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B166" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B167" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B170" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B171" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B172" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B173" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B174" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B175" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B176" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B177" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B178" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B181" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B182" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B183" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B184" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B185" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B186" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B187" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B188" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B189" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B190" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B191" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B192" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B193" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B194" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B195" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B196" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B197" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B198" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B199" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B200" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B201" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B202" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B203" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B204" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B205" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B206" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B207" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B208" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B209" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B210" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B211" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B212" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B213" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B214" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B215" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B218" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B219" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B220" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B221" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B222" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B223" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B224" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B225" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B226" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B227" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B228" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B229" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B230" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B231" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B232" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B233" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B234" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B235" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B236" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B237" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B238" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B239" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B242" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B243" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B244" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B245" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B246" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B247" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B248" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B249" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B250" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B251" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B252" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B253" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B256" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B257" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B258" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B259" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B260" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B261" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B262" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B263" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B264" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B265" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B266" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B267" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B268" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B269" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B270" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B271" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B272" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B273" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B274" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B275" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B276" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B279" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B280" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B281" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B282" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B283" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B284" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B285" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B286" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B287" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B288" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B289" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B290" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B291" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B292" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B293" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B294" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B295" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B296" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B297" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B304" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B305" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B310" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B340" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B341" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B342" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B343" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B344" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B345" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B346" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B347" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B348" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B349" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B350" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B351" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B352" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B353" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B354" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B355" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B356" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B357" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B361" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B362" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B363" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B364" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B365" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B366" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B367" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B368" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B369" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B370" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B371" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B372" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B373" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B374" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B375" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B376" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B377" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B378" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B379" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B380" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B381" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B382" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B383" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B384" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B385" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B386" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B387" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B388" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B389" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B390" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B391" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B392" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B393" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B394" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B395" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B396" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B397" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B398" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B400" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B399" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B401" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B402" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B403" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B406" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B407" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B408" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B409" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B410" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B411" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B414" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B415" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B416" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B417" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B418" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B419" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B420" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B421" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B422" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B423" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B424" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B425" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B426" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B427" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B428" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B429" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B430" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B431" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B432" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B433" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B434" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B435" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B436" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B437" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B438" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B439" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B440" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B441" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B442" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B443" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B444" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B445" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B446" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B447" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B448" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B449" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B450" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B451" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B452" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B453" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B455" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B454" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B456" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B457" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B458" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B459" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B460" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B461" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B462" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B463" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B464" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B465" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B466" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B473" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B472" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B471" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B470" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B469" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B468" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B467" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B476" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B477" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B478" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B479" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B480" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B481" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B482" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B485" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B483" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B484" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B360" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\450 DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE49C92-B36D-4663-B937-B698BA7D35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D5887-7DD0-48B1-9069-6F376B2ECE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>4 Sum from Striver</t>
+  </si>
+  <si>
+    <t>Largest Subarray with zero Sum from Striver</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -2330,9 +2333,15 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="4"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\450 DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D5887-7DD0-48B1-9069-6F376B2ECE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81996DE3-28AD-4394-A24F-9C913153939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,13 +1438,16 @@
   </si>
   <si>
     <t>Largest Subarray with zero Sum from Striver</t>
+  </si>
+  <si>
+    <t>Count the number of subarrays having a given XOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1506,6 +1509,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1528,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,6 +1560,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1866,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C485"/>
+  <dimension ref="A1:C486"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2344,9 +2356,15 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="4"/>
@@ -2354,25 +2372,19 @@
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
@@ -2380,10 +2392,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
@@ -2391,7 +2403,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>3</v>
@@ -2402,7 +2414,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>3</v>
@@ -2413,7 +2425,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>3</v>
@@ -2424,7 +2436,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>3</v>
@@ -2435,10 +2447,10 @@
         <v>41</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>464</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
@@ -2446,10 +2458,10 @@
         <v>41</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>3</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2457,34 +2469,34 @@
         <v>41</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="21">
+      <c r="A58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
-      <c r="A59" s="4"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="21">
-      <c r="A60" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>3</v>
@@ -2495,7 +2507,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>3</v>
@@ -2505,8 +2517,8 @@
       <c r="A63" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>56</v>
+      <c r="B63" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>3</v>
@@ -2516,8 +2528,8 @@
       <c r="A64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>57</v>
+      <c r="B64" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>3</v>
@@ -2528,7 +2540,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>3</v>
@@ -2539,7 +2551,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>3</v>
@@ -2550,7 +2562,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>3</v>
@@ -2561,7 +2573,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>3</v>
@@ -2572,7 +2584,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>3</v>
@@ -2583,7 +2595,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>3</v>
@@ -2594,7 +2606,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>3</v>
@@ -2605,7 +2617,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>3</v>
@@ -2616,7 +2628,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>3</v>
@@ -2627,7 +2639,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>3</v>
@@ -2638,7 +2650,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>3</v>
@@ -2649,7 +2661,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>3</v>
@@ -2660,7 +2672,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>3</v>
@@ -2671,7 +2683,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>3</v>
@@ -2682,7 +2694,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>3</v>
@@ -2693,7 +2705,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>3</v>
@@ -2704,7 +2716,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>3</v>
@@ -2715,7 +2727,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>3</v>
@@ -2726,7 +2738,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -2737,7 +2749,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>3</v>
@@ -2748,7 +2760,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>3</v>
@@ -2759,7 +2771,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>3</v>
@@ -2770,7 +2782,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>3</v>
@@ -2781,7 +2793,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>3</v>
@@ -2792,7 +2804,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>3</v>
@@ -2803,7 +2815,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -2814,7 +2826,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>3</v>
@@ -2825,7 +2837,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -2836,7 +2848,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -2847,7 +2859,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>3</v>
@@ -2858,7 +2870,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>3</v>
@@ -2869,7 +2881,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>3</v>
@@ -2880,7 +2892,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>3</v>
@@ -2891,7 +2903,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>3</v>
@@ -2902,7 +2914,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>3</v>
@@ -2913,7 +2925,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>3</v>
@@ -2924,7 +2936,7 @@
         <v>52</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>3</v>
@@ -2935,34 +2947,34 @@
         <v>52</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="21">
+      <c r="A103" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
-      <c r="A104" s="7"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="21">
-      <c r="A105" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A105" s="7"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>3</v>
@@ -2973,7 +2985,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>3</v>
@@ -2984,7 +2996,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>3</v>
@@ -2995,7 +3007,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>3</v>
@@ -3006,7 +3018,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>3</v>
@@ -3017,7 +3029,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>3</v>
@@ -3028,7 +3040,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>3</v>
@@ -3039,7 +3051,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>3</v>
@@ -3050,7 +3062,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>3</v>
@@ -3061,7 +3073,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>3</v>
@@ -3072,7 +3084,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>3</v>
@@ -3083,7 +3095,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>3</v>
@@ -3094,7 +3106,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>3</v>
@@ -3105,7 +3117,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>3</v>
@@ -3116,7 +3128,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>3</v>
@@ -3127,7 +3139,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>3</v>
@@ -3138,7 +3150,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>3</v>
@@ -3149,7 +3161,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>3</v>
@@ -3160,7 +3172,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>3</v>
@@ -3171,7 +3183,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>3</v>
@@ -3182,7 +3194,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>3</v>
@@ -3193,7 +3205,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>3</v>
@@ -3204,7 +3216,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>3</v>
@@ -3215,7 +3227,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>3</v>
@@ -3226,7 +3238,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>3</v>
@@ -3237,7 +3249,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>3</v>
@@ -3248,7 +3260,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>3</v>
@@ -3259,7 +3271,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>3</v>
@@ -3270,7 +3282,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>3</v>
@@ -3281,7 +3293,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>3</v>
@@ -3292,7 +3304,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>3</v>
@@ -3303,7 +3315,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>3</v>
@@ -3314,7 +3326,7 @@
         <v>96</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>3</v>
@@ -3325,7 +3337,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>3</v>
@@ -3336,33 +3348,33 @@
         <v>96</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="21">
+      <c r="A141" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="21">
-      <c r="B142" s="6"/>
-      <c r="C142" s="3"/>
+      <c r="C141" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="21">
-      <c r="A143" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>3</v>
@@ -3373,7 +3385,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>3</v>
@@ -3384,7 +3396,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>3</v>
@@ -3395,7 +3407,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>3</v>
@@ -3406,7 +3418,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>3</v>
@@ -3417,7 +3429,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>3</v>
@@ -3428,7 +3440,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>3</v>
@@ -3439,7 +3451,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>3</v>
@@ -3450,7 +3462,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>3</v>
@@ -3461,7 +3473,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>3</v>
@@ -3472,7 +3484,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>3</v>
@@ -3483,7 +3495,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>3</v>
@@ -3494,7 +3506,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>3</v>
@@ -3505,7 +3517,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>3</v>
@@ -3516,7 +3528,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>3</v>
@@ -3527,7 +3539,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>3</v>
@@ -3538,7 +3550,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>3</v>
@@ -3549,7 +3561,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>3</v>
@@ -3560,7 +3572,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>3</v>
@@ -3571,7 +3583,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>3</v>
@@ -3582,7 +3594,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>3</v>
@@ -3593,7 +3605,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>3</v>
@@ -3604,7 +3616,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>3</v>
@@ -3615,7 +3627,7 @@
         <v>133</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>3</v>
@@ -3625,8 +3637,8 @@
       <c r="A168" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>159</v>
+      <c r="B168" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>3</v>
@@ -3637,7 +3649,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>3</v>
@@ -3647,8 +3659,8 @@
       <c r="A170" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>161</v>
+      <c r="B170" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>3</v>
@@ -3659,7 +3671,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>3</v>
@@ -3670,7 +3682,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>3</v>
@@ -3681,7 +3693,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>3</v>
@@ -3692,7 +3704,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>3</v>
@@ -3703,7 +3715,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>3</v>
@@ -3714,7 +3726,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>3</v>
@@ -3725,7 +3737,7 @@
         <v>133</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>3</v>
@@ -3736,33 +3748,33 @@
         <v>133</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="21">
+      <c r="A179" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
-      <c r="B180" s="6"/>
-      <c r="C180" s="3"/>
+      <c r="C179" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="181" spans="1:3" ht="21">
-      <c r="A181" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>3</v>
@@ -3773,7 +3785,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>3</v>
@@ -3784,7 +3796,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>3</v>
@@ -3795,7 +3807,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>3</v>
@@ -3806,7 +3818,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>3</v>
@@ -3817,7 +3829,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>3</v>
@@ -3828,7 +3840,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>3</v>
@@ -3839,7 +3851,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>3</v>
@@ -3850,7 +3862,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>3</v>
@@ -3861,7 +3873,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>3</v>
@@ -3872,7 +3884,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3883,7 +3895,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3894,7 +3906,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3905,7 +3917,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3916,7 +3928,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3927,7 +3939,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3938,7 +3950,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3949,7 +3961,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3960,7 +3972,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3971,7 +3983,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -3982,7 +3994,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -3993,7 +4005,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -4004,7 +4016,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -4015,7 +4027,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -4026,7 +4038,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -4037,7 +4049,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -4048,7 +4060,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -4059,7 +4071,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>3</v>
@@ -4070,7 +4082,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>3</v>
@@ -4081,7 +4093,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>3</v>
@@ -4092,7 +4104,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>3</v>
@@ -4103,7 +4115,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>3</v>
@@ -4114,7 +4126,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>3</v>
@@ -4125,16 +4137,22 @@
         <v>170</v>
       </c>
       <c r="B215" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="21">
+      <c r="A216" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="21">
-      <c r="A216" s="7"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="3"/>
+      <c r="C216" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="7"/>
@@ -4142,22 +4160,16 @@
       <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3" ht="21">
-      <c r="A218" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A218" s="7"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>3</v>
@@ -4168,7 +4180,7 @@
         <v>206</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>3</v>
@@ -4179,7 +4191,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>3</v>
@@ -4190,7 +4202,7 @@
         <v>206</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4201,7 +4213,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
@@ -4211,8 +4223,8 @@
       <c r="A224" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B224" s="8" t="s">
-        <v>213</v>
+      <c r="B224" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>3</v>
@@ -4222,8 +4234,8 @@
       <c r="A225" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>214</v>
+      <c r="B225" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>3</v>
@@ -4234,7 +4246,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
@@ -4245,7 +4257,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>3</v>
@@ -4256,7 +4268,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>3</v>
@@ -4267,7 +4279,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4278,7 +4290,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4289,7 +4301,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4300,7 +4312,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4311,7 +4323,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>3</v>
@@ -4322,7 +4334,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3</v>
@@ -4333,7 +4345,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>3</v>
@@ -4344,7 +4356,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>3</v>
@@ -4355,7 +4367,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>3</v>
@@ -4366,7 +4378,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>3</v>
@@ -4377,37 +4389,37 @@
         <v>206</v>
       </c>
       <c r="B239" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="21">
+      <c r="A240" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C239" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="21">
-      <c r="B240" s="6"/>
-      <c r="C240" s="3"/>
+      <c r="C240" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="B241" s="6"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" ht="21">
-      <c r="A242" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B242" s="6"/>
+      <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>3</v>
@@ -4418,7 +4430,7 @@
         <v>229</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>3</v>
@@ -4429,7 +4441,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>3</v>
@@ -4440,7 +4452,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4451,7 +4463,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
@@ -4462,7 +4474,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>3</v>
@@ -4473,7 +4485,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>3</v>
@@ -4484,7 +4496,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
@@ -4495,7 +4507,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>3</v>
@@ -4506,7 +4518,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>3</v>
@@ -4517,7 +4529,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4528,7 +4540,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4539,7 +4551,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4550,7 +4562,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4561,7 +4573,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4572,7 +4584,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4583,7 +4595,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4594,7 +4606,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4605,7 +4617,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4616,7 +4628,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4627,7 +4639,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4638,7 +4650,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4649,7 +4661,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4660,7 +4672,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4671,7 +4683,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4682,7 +4694,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>3</v>
@@ -4693,7 +4705,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4704,7 +4716,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>3</v>
@@ -4715,7 +4727,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>3</v>
@@ -4726,7 +4738,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>3</v>
@@ -4737,7 +4749,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>3</v>
@@ -4748,7 +4760,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>3</v>
@@ -4759,7 +4771,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>3</v>
@@ -4770,37 +4782,37 @@
         <v>229</v>
       </c>
       <c r="B276" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="21">
+      <c r="A277" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C276" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="21">
-      <c r="B277" s="6"/>
-      <c r="C277" s="3"/>
+      <c r="C277" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="B278" s="6"/>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" ht="21">
-      <c r="A279" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B279" s="6"/>
+      <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>3</v>
@@ -4811,7 +4823,7 @@
         <v>264</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>3</v>
@@ -4822,7 +4834,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>3</v>
@@ -4833,7 +4845,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4844,7 +4856,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
@@ -4855,7 +4867,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>3</v>
@@ -4866,7 +4878,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>3</v>
@@ -4877,7 +4889,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
@@ -4888,7 +4900,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>3</v>
@@ -4899,7 +4911,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>3</v>
@@ -4910,7 +4922,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4921,7 +4933,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>3</v>
@@ -4932,7 +4944,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>3</v>
@@ -4943,7 +4955,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>3</v>
@@ -4954,7 +4966,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>3</v>
@@ -4965,7 +4977,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>3</v>
@@ -4976,7 +4988,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>3</v>
@@ -4987,37 +4999,37 @@
         <v>264</v>
       </c>
       <c r="B297" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="21">
+      <c r="A298" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B298" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C297" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="21">
-      <c r="B298" s="6"/>
-      <c r="C298" s="3"/>
+      <c r="C298" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="B299" s="6"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" ht="21">
-      <c r="A300" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B300" s="6"/>
+      <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>3</v>
@@ -5028,7 +5040,7 @@
         <v>284</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>3</v>
@@ -5039,7 +5051,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>3</v>
@@ -5050,7 +5062,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>3</v>
@@ -5061,7 +5073,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>3</v>
@@ -5072,7 +5084,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>3</v>
@@ -5083,7 +5095,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>3</v>
@@ -5094,7 +5106,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -5105,7 +5117,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -5116,7 +5128,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -5127,7 +5139,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -5138,7 +5150,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -5148,8 +5160,8 @@
       <c r="A313" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B313" s="8" t="s">
-        <v>298</v>
+      <c r="B313" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -5159,8 +5171,8 @@
       <c r="A314" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B314" s="5" t="s">
-        <v>299</v>
+      <c r="B314" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -5171,7 +5183,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -5182,7 +5194,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>3</v>
@@ -5193,7 +5205,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>3</v>
@@ -5204,7 +5216,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5215,7 +5227,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>3</v>
@@ -5226,7 +5238,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5237,7 +5249,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5248,7 +5260,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5259,7 +5271,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5270,7 +5282,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5281,7 +5293,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5292,7 +5304,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5303,7 +5315,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5314,7 +5326,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5325,7 +5337,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5336,7 +5348,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5347,7 +5359,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>3</v>
@@ -5358,7 +5370,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>3</v>
@@ -5369,7 +5381,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5380,7 +5392,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5391,7 +5403,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>3</v>
@@ -5402,7 +5414,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>3</v>
@@ -5413,37 +5425,37 @@
         <v>284</v>
       </c>
       <c r="B337" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="21">
+      <c r="A338" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B338" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C337" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="21">
-      <c r="B338" s="6"/>
-      <c r="C338" s="3"/>
+      <c r="C338" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="B339" s="6"/>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" ht="21">
-      <c r="A340" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B340" s="6"/>
+      <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>3</v>
@@ -5454,7 +5466,7 @@
         <v>323</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>3</v>
@@ -5465,7 +5477,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>3</v>
@@ -5476,7 +5488,7 @@
         <v>323</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5487,7 +5499,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
@@ -5498,7 +5510,7 @@
         <v>323</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>3</v>
@@ -5509,7 +5521,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>3</v>
@@ -5519,8 +5531,8 @@
       <c r="A348" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B348" s="8" t="s">
-        <v>332</v>
+      <c r="B348" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5530,8 +5542,8 @@
       <c r="A349" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B349" s="5" t="s">
-        <v>333</v>
+      <c r="B349" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5542,7 +5554,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5553,7 +5565,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>3</v>
@@ -5564,7 +5576,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>3</v>
@@ -5575,7 +5587,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>3</v>
@@ -5586,7 +5598,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>3</v>
@@ -5597,7 +5609,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>3</v>
@@ -5608,7 +5620,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>3</v>
@@ -5619,37 +5631,37 @@
         <v>323</v>
       </c>
       <c r="B357" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="21">
+      <c r="A358" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C357" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="21">
-      <c r="B358" s="6"/>
-      <c r="C358" s="3"/>
+      <c r="C358" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="B359" s="6"/>
       <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3" ht="21">
-      <c r="A360" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B360" s="6"/>
+      <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>3</v>
@@ -5660,7 +5672,7 @@
         <v>342</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>3</v>
@@ -5671,7 +5683,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>3</v>
@@ -5682,7 +5694,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>3</v>
@@ -5693,7 +5705,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
@@ -5704,7 +5716,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>3</v>
@@ -5715,7 +5727,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>3</v>
@@ -5726,7 +5738,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5737,7 +5749,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5748,7 +5760,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5759,7 +5771,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5770,7 +5782,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5781,7 +5793,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5792,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5803,7 +5815,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5814,7 +5826,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5825,7 +5837,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5836,7 +5848,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5847,7 +5859,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5858,7 +5870,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5869,7 +5881,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5880,7 +5892,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5891,7 +5903,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5902,7 +5914,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5913,7 +5925,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5924,7 +5936,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5935,7 +5947,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5946,7 +5958,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5957,7 +5969,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5968,7 +5980,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5979,7 +5991,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -5990,7 +6002,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -6001,7 +6013,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -6023,7 +6035,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -6034,7 +6046,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -6045,7 +6057,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>3</v>
@@ -6056,7 +6068,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>3</v>
@@ -6067,7 +6079,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>3</v>
@@ -6078,7 +6090,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>3</v>
@@ -6089,7 +6101,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>3</v>
@@ -6100,7 +6112,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>3</v>
@@ -6111,37 +6123,37 @@
         <v>342</v>
       </c>
       <c r="B403" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="21">
+      <c r="A404" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B404" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C403" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" ht="21">
-      <c r="B404" s="6"/>
-      <c r="C404" s="3"/>
+      <c r="C404" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="B405" s="6"/>
       <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" ht="21">
-      <c r="A406" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B406" s="6"/>
+      <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>3</v>
@@ -6152,7 +6164,7 @@
         <v>386</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>3</v>
@@ -6163,7 +6175,7 @@
         <v>386</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>3</v>
@@ -6174,7 +6186,7 @@
         <v>386</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>3</v>
@@ -6185,37 +6197,37 @@
         <v>386</v>
       </c>
       <c r="B411" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="21">
+      <c r="A412" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B412" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C411" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="21">
-      <c r="B412" s="6"/>
-      <c r="C412" s="3"/>
+      <c r="C412" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="B413" s="6"/>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" ht="21">
-      <c r="A414" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B414" s="6"/>
+      <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>3</v>
@@ -6226,7 +6238,7 @@
         <v>392</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>3</v>
@@ -6237,7 +6249,7 @@
         <v>392</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>3</v>
@@ -6248,7 +6260,7 @@
         <v>392</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6259,7 +6271,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
@@ -6270,7 +6282,7 @@
         <v>392</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>3</v>
@@ -6281,7 +6293,7 @@
         <v>392</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>3</v>
@@ -6292,7 +6304,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6303,7 +6315,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6314,7 +6326,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6325,7 +6337,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6336,7 +6348,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6347,7 +6359,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6358,7 +6370,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6369,7 +6381,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6380,7 +6392,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6391,7 +6403,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6402,7 +6414,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6413,7 +6425,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6424,7 +6436,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6435,7 +6447,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6446,7 +6458,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6457,7 +6469,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6468,7 +6480,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6479,7 +6491,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6490,7 +6502,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6501,7 +6513,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6512,7 +6524,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6523,7 +6535,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6534,7 +6546,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6545,7 +6557,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6556,7 +6568,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6567,7 +6579,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6578,7 +6590,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6589,7 +6601,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6600,7 +6612,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6611,7 +6623,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6622,7 +6634,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6633,7 +6645,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6644,7 +6656,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6655,7 +6667,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6666,7 +6678,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6677,7 +6689,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6688,7 +6700,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6699,7 +6711,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6710,7 +6722,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6721,7 +6733,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6732,7 +6744,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6743,7 +6755,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6754,7 +6766,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6765,7 +6777,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6776,7 +6788,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6787,7 +6799,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>3</v>
@@ -6798,7 +6810,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>3</v>
@@ -6809,7 +6821,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>3</v>
@@ -6820,7 +6832,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>3</v>
@@ -6831,7 +6843,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>3</v>
@@ -6842,7 +6854,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>3</v>
@@ -6853,38 +6865,38 @@
         <v>392</v>
       </c>
       <c r="B473" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="21">
+      <c r="A474" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B474" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C473" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="21">
-      <c r="B474" s="6"/>
-      <c r="C474" s="3"/>
+      <c r="C474" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="7"/>
       <c r="B475" s="6"/>
       <c r="C475" s="3"/>
     </row>
     <row r="476" spans="1:3" ht="21">
-      <c r="A476" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B476" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A476" s="7"/>
+      <c r="B476" s="6"/>
+      <c r="C476" s="3"/>
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>3</v>
@@ -6895,7 +6907,7 @@
         <v>452</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>3</v>
@@ -6906,7 +6918,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>3</v>
@@ -6917,7 +6929,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>3</v>
@@ -6928,7 +6940,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>3</v>
@@ -6939,7 +6951,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>3</v>
@@ -6950,7 +6962,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>3</v>
@@ -6961,7 +6973,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>3</v>
@@ -6972,9 +6984,20 @@
         <v>452</v>
       </c>
       <c r="B485" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="21">
+      <c r="A486" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B486" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C486" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7016,417 +7039,418 @@
     <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B48" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B49" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B50" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B51" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B52" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B53" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B54" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B55" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B56" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B57" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B60" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B61" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B62" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B64" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B65" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B66" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B67" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B68" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B69" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B70" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B71" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B72" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B74" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B75" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B76" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B77" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B78" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B79" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B80" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B81" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B82" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B83" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B84" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B85" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B86" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B87" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B88" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B89" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B90" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B91" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B92" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B93" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B94" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B95" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B96" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B97" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B98" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B99" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B100" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B101" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B102" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B105" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B106" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B107" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B108" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B110" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B111" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B112" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B113" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B114" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B115" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B117" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B118" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B119" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B120" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B121" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B123" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B124" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B125" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B126" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B127" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B128" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B129" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B130" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B131" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B132" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B133" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B134" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B135" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B136" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B137" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B138" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B139" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B140" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B109" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B116" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B143" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B144" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B145" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B146" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B147" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B148" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B149" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B150" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B151" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B152" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B153" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B154" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B155" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B156" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B157" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B158" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B159" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B160" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B161" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B162" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B163" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B164" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B165" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B166" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B167" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B170" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B171" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B172" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B173" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B174" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B175" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B176" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B177" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B178" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B181" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B182" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B183" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B184" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B185" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B186" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B187" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B188" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B189" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B190" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B191" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B192" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B193" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B194" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B195" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B196" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B197" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B198" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B199" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B200" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B201" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B202" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B203" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B204" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B205" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B206" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B207" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B208" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B209" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B210" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B211" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B212" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B213" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B214" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B215" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B218" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B219" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B220" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B221" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B222" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B223" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B224" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B225" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B226" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B227" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B228" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B229" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B230" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B231" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B232" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B233" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B234" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B235" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B236" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B237" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B238" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B239" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B242" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B243" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B244" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B245" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B246" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B247" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B248" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B249" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B250" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B251" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B252" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B253" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B256" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B257" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B258" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B259" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B260" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B261" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B262" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B263" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B264" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B265" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B266" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B267" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B268" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B269" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B270" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B271" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B272" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B273" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B274" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B275" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B276" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B279" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B280" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B281" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B282" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B283" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B284" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B285" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B286" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B287" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B288" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B289" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B290" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B291" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B292" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B293" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B294" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B295" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B296" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B297" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B304" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B305" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B310" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B340" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B341" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B342" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B343" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B344" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B345" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B346" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B347" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B348" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B349" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B350" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B351" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B352" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B353" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B354" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B355" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B356" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B357" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B361" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B362" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B363" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B364" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B365" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B366" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B367" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B368" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B369" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B370" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B371" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B372" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B373" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B374" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B375" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B376" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B377" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B378" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B379" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B380" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B381" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B382" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B383" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B384" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B385" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B386" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B387" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B388" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B389" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B390" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B391" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B392" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B393" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B394" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B395" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B396" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B397" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B398" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B400" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B399" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B401" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B402" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B403" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B406" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B407" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B408" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B409" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B410" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B411" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B414" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B415" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B416" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B417" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B418" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B419" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B420" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B421" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B422" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B423" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B424" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B425" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B426" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B427" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B428" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B429" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B430" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B431" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B432" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B433" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B434" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B435" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B436" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B437" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B438" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B439" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B440" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B441" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B442" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B443" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B444" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B445" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B446" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B447" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B448" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B449" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B450" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B451" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B452" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B453" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B455" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B454" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B456" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B457" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B458" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B459" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B460" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B461" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B462" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B463" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B464" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B465" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B466" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B473" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B472" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B471" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B470" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B469" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B468" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B467" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B476" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B477" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B478" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B479" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B480" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B481" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B482" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B485" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B483" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B484" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B360" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B49" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B50" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B51" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B52" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B53" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B54" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B55" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B56" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B57" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B58" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B61" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B62" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B63" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B65" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B66" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B67" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B68" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B69" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B70" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B71" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B72" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B73" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B74" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B75" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B76" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B77" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B78" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B79" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B80" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B81" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B82" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B83" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B84" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B85" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B86" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B87" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B88" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B89" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B90" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B91" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B92" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B93" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B95" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B96" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B97" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B98" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B99" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B100" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B101" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B102" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B103" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B106" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B107" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B108" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B109" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B111" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B112" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B113" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B114" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B115" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B116" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B118" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B119" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B120" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B121" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B122" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B123" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B124" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B125" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B126" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B127" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B128" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B129" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B130" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B131" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B132" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B133" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B134" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B135" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B136" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B137" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B138" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B139" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B140" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B141" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B110" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B117" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B145" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B146" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B147" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B148" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B149" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B150" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B151" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B152" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B153" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B154" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B155" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B156" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B157" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B158" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B159" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B160" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B161" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B162" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B163" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B164" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B165" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B166" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B167" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B168" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B171" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B172" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B173" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B174" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B175" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B176" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B177" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B178" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B179" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B182" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B183" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B184" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B185" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B186" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B187" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B188" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B189" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B190" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B191" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B192" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B193" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B194" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B195" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B196" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B197" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B198" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B199" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B200" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B201" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B202" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B203" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B204" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B205" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B206" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B207" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B208" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B209" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B210" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B211" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B212" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B213" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B214" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B215" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B216" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B219" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B220" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B221" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B222" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B223" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B224" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B225" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B226" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B227" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B228" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B229" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B230" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B231" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B232" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B233" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B234" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B235" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B236" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B237" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B238" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B239" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B240" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B243" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B244" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B245" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B246" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B247" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B248" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B249" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B250" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B251" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B252" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B253" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B254" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B255" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B256" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B257" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B258" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B259" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B260" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B261" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B262" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B263" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B264" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B265" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B266" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B267" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B268" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B270" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B271" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B272" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B273" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B274" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B275" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B276" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B277" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B280" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B281" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B282" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B283" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B284" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B285" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B286" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B287" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B288" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B289" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B290" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B291" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B292" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B293" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B294" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B295" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B296" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B297" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B298" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B301" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B302" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B303" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B304" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B306" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B307" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B308" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B309" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B310" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B311" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B312" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B313" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B314" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B315" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B316" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B317" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B318" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B319" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B320" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B321" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B322" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B323" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B324" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B325" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B326" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B327" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B328" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B329" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B330" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B331" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B332" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B333" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B334" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B335" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B336" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B337" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B338" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B341" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B342" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B343" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B344" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B345" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B346" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B347" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B348" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B349" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B350" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B351" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B352" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B353" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B354" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B355" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B356" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B357" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B358" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B362" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B363" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B364" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B365" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B366" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B367" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B368" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B369" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B370" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B371" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B372" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B373" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B374" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B375" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B376" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B377" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B378" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B379" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B380" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B381" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B382" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B383" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B384" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B385" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B386" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B387" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B388" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B389" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B390" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B391" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B392" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B393" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B394" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B395" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B396" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B397" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B398" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B399" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B401" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B400" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B402" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B403" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B404" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B407" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B408" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B409" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B410" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B411" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B412" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B415" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B416" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B417" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B418" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B419" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B420" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B421" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B422" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B423" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B424" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B425" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B426" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B427" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B428" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B429" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B430" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B431" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B432" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B433" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B434" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B435" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B436" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B437" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B438" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B439" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B440" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B441" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B442" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B443" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B444" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B445" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B446" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B447" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B448" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B449" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B450" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B451" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B452" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B453" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B454" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B456" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B455" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B457" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B458" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B459" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B460" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B461" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B462" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B463" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B464" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B465" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B466" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B467" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B474" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B473" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B472" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B471" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B470" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B469" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B468" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B477" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B478" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B479" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B480" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B481" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B482" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B483" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B486" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B484" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B485" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B361" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\450 DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81996DE3-28AD-4394-A24F-9C913153939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5C3B9-E04D-4E93-B185-0D23137F5DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1440,7 +1440,10 @@
     <t>Largest Subarray with zero Sum from Striver</t>
   </si>
   <si>
-    <t>Count the number of subarrays having a given XOR</t>
+    <t>Longest Substring without repeating character from Striver</t>
+  </si>
+  <si>
+    <t>Count the number of subarrays having a given XOR from Striver</t>
   </si>
 </sst>
 </file>
@@ -1878,10 +1881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C486"/>
+  <dimension ref="A1:C487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2360,16 +2363,22 @@
         <v>4</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="4"/>
@@ -2377,25 +2386,19 @@
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="21">
-      <c r="A49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
@@ -2403,10 +2406,10 @@
         <v>41</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2414,7 +2417,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>3</v>
@@ -2425,7 +2428,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>3</v>
@@ -2436,7 +2439,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>3</v>
@@ -2447,7 +2450,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>3</v>
@@ -2458,10 +2461,10 @@
         <v>41</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>464</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2469,10 +2472,10 @@
         <v>41</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2480,34 +2483,34 @@
         <v>41</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="21">
+      <c r="A59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="21">
-      <c r="A60" s="4"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="21">
-      <c r="A61" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>3</v>
@@ -2518,7 +2521,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2531,8 @@
       <c r="A64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>56</v>
+      <c r="B64" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>3</v>
@@ -2539,8 +2542,8 @@
       <c r="A65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>57</v>
+      <c r="B65" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>3</v>
@@ -2551,7 +2554,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>3</v>
@@ -2562,7 +2565,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>3</v>
@@ -2573,7 +2576,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>3</v>
@@ -2584,7 +2587,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>3</v>
@@ -2595,7 +2598,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>3</v>
@@ -2606,7 +2609,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>3</v>
@@ -2617,7 +2620,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>3</v>
@@ -2628,7 +2631,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>3</v>
@@ -2639,7 +2642,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>3</v>
@@ -2650,7 +2653,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>3</v>
@@ -2661,7 +2664,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>3</v>
@@ -2672,7 +2675,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>3</v>
@@ -2683,7 +2686,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>3</v>
@@ -2694,7 +2697,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>3</v>
@@ -2705,7 +2708,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>3</v>
@@ -2716,7 +2719,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>3</v>
@@ -2727,7 +2730,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>3</v>
@@ -2738,7 +2741,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -2749,7 +2752,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>3</v>
@@ -2760,7 +2763,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>3</v>
@@ -2771,7 +2774,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>3</v>
@@ -2782,7 +2785,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>3</v>
@@ -2793,7 +2796,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>3</v>
@@ -2804,7 +2807,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>3</v>
@@ -2815,7 +2818,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -2826,7 +2829,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>3</v>
@@ -2837,7 +2840,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -2848,7 +2851,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -2859,7 +2862,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>3</v>
@@ -2870,7 +2873,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>3</v>
@@ -2881,7 +2884,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>3</v>
@@ -2892,7 +2895,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>3</v>
@@ -2903,7 +2906,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>3</v>
@@ -2914,7 +2917,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>3</v>
@@ -2925,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>3</v>
@@ -2936,7 +2939,7 @@
         <v>52</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>3</v>
@@ -2947,7 +2950,7 @@
         <v>52</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>3</v>
@@ -2958,34 +2961,34 @@
         <v>52</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="21">
+      <c r="A104" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
-      <c r="A105" s="7"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="21">
-      <c r="A106" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A106" s="7"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>3</v>
@@ -2996,7 +2999,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>3</v>
@@ -3007,7 +3010,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>3</v>
@@ -3018,7 +3021,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>3</v>
@@ -3029,7 +3032,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>3</v>
@@ -3040,7 +3043,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>3</v>
@@ -3051,7 +3054,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>3</v>
@@ -3062,7 +3065,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>3</v>
@@ -3073,7 +3076,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>3</v>
@@ -3084,7 +3087,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>3</v>
@@ -3095,7 +3098,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>3</v>
@@ -3106,7 +3109,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>3</v>
@@ -3117,7 +3120,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>3</v>
@@ -3128,7 +3131,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>3</v>
@@ -3139,7 +3142,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>3</v>
@@ -3150,7 +3153,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>3</v>
@@ -3161,7 +3164,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>3</v>
@@ -3172,7 +3175,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>3</v>
@@ -3183,7 +3186,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>3</v>
@@ -3194,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>3</v>
@@ -3205,7 +3208,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3219,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>3</v>
@@ -3227,7 +3230,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>3</v>
@@ -3238,7 +3241,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>3</v>
@@ -3249,7 +3252,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>3</v>
@@ -3260,7 +3263,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>3</v>
@@ -3271,7 +3274,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>3</v>
@@ -3282,7 +3285,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>3</v>
@@ -3293,7 +3296,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>3</v>
@@ -3304,7 +3307,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>3</v>
@@ -3315,7 +3318,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>3</v>
@@ -3326,7 +3329,7 @@
         <v>96</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>3</v>
@@ -3337,7 +3340,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>3</v>
@@ -3348,7 +3351,7 @@
         <v>96</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>3</v>
@@ -3359,33 +3362,33 @@
         <v>96</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="21">
+      <c r="A142" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="21">
-      <c r="B143" s="6"/>
-      <c r="C143" s="3"/>
+      <c r="C142" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="21">
-      <c r="A144" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>3</v>
@@ -3396,7 +3399,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>3</v>
@@ -3407,7 +3410,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>3</v>
@@ -3418,7 +3421,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>3</v>
@@ -3429,7 +3432,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>3</v>
@@ -3440,7 +3443,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>3</v>
@@ -3451,7 +3454,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>3</v>
@@ -3462,7 +3465,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>3</v>
@@ -3473,7 +3476,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>3</v>
@@ -3484,7 +3487,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>3</v>
@@ -3495,7 +3498,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>3</v>
@@ -3506,7 +3509,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>3</v>
@@ -3517,7 +3520,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>3</v>
@@ -3528,7 +3531,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>3</v>
@@ -3539,7 +3542,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>3</v>
@@ -3550,7 +3553,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>3</v>
@@ -3561,7 +3564,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>3</v>
@@ -3572,7 +3575,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>3</v>
@@ -3583,7 +3586,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>3</v>
@@ -3594,7 +3597,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>3</v>
@@ -3605,7 +3608,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>3</v>
@@ -3616,7 +3619,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>3</v>
@@ -3627,7 +3630,7 @@
         <v>133</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>3</v>
@@ -3638,7 +3641,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3651,8 @@
       <c r="A169" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>159</v>
+      <c r="B169" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>3</v>
@@ -3660,7 +3663,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>3</v>
@@ -3670,8 +3673,8 @@
       <c r="A171" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="5" t="s">
-        <v>161</v>
+      <c r="B171" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>3</v>
@@ -3682,7 +3685,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>3</v>
@@ -3693,7 +3696,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>3</v>
@@ -3704,7 +3707,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>3</v>
@@ -3715,7 +3718,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>3</v>
@@ -3726,7 +3729,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>3</v>
@@ -3737,7 +3740,7 @@
         <v>133</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>3</v>
@@ -3748,7 +3751,7 @@
         <v>133</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>3</v>
@@ -3759,33 +3762,33 @@
         <v>133</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="21">
+      <c r="A180" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
-      <c r="B181" s="6"/>
-      <c r="C181" s="3"/>
+      <c r="C180" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="21">
-      <c r="A182" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>3</v>
@@ -3796,7 +3799,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>3</v>
@@ -3807,7 +3810,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>3</v>
@@ -3818,7 +3821,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>3</v>
@@ -3829,7 +3832,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>3</v>
@@ -3840,7 +3843,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>3</v>
@@ -3851,7 +3854,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>3</v>
@@ -3862,7 +3865,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>3</v>
@@ -3873,7 +3876,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>3</v>
@@ -3884,7 +3887,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3895,7 +3898,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3906,7 +3909,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3917,7 +3920,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3928,7 +3931,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3939,7 +3942,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3950,7 +3953,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3961,7 +3964,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3972,7 +3975,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3983,7 +3986,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -3994,7 +3997,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -4005,7 +4008,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -4016,7 +4019,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -4027,7 +4030,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -4038,7 +4041,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -4049,7 +4052,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -4060,7 +4063,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -4071,7 +4074,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>3</v>
@@ -4082,7 +4085,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>3</v>
@@ -4093,7 +4096,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>3</v>
@@ -4104,7 +4107,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>3</v>
@@ -4115,7 +4118,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>3</v>
@@ -4126,7 +4129,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>3</v>
@@ -4137,7 +4140,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>3</v>
@@ -4148,16 +4151,22 @@
         <v>170</v>
       </c>
       <c r="B216" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="21">
+      <c r="A217" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="21">
-      <c r="A217" s="7"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="7"/>
@@ -4165,22 +4174,16 @@
       <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3" ht="21">
-      <c r="A219" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A219" s="7"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>3</v>
@@ -4191,7 +4194,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>3</v>
@@ -4202,7 +4205,7 @@
         <v>206</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4213,7 +4216,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
@@ -4224,7 +4227,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>3</v>
@@ -4234,8 +4237,8 @@
       <c r="A225" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B225" s="8" t="s">
-        <v>213</v>
+      <c r="B225" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>3</v>
@@ -4245,8 +4248,8 @@
       <c r="A226" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B226" s="5" t="s">
-        <v>214</v>
+      <c r="B226" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
@@ -4257,7 +4260,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>3</v>
@@ -4268,7 +4271,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>3</v>
@@ -4279,7 +4282,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4290,7 +4293,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4301,7 +4304,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4312,7 +4315,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4323,7 +4326,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>3</v>
@@ -4334,7 +4337,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3</v>
@@ -4345,7 +4348,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>3</v>
@@ -4356,7 +4359,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>3</v>
@@ -4367,7 +4370,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>3</v>
@@ -4378,7 +4381,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>3</v>
@@ -4389,7 +4392,7 @@
         <v>206</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>3</v>
@@ -4400,37 +4403,37 @@
         <v>206</v>
       </c>
       <c r="B240" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="21">
+      <c r="A241" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C240" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="21">
-      <c r="B241" s="6"/>
-      <c r="C241" s="3"/>
+      <c r="C241" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="B242" s="6"/>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" ht="21">
-      <c r="A243" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B243" s="6"/>
+      <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>3</v>
@@ -4441,7 +4444,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>3</v>
@@ -4452,7 +4455,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4463,7 +4466,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
@@ -4474,7 +4477,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>3</v>
@@ -4485,7 +4488,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>3</v>
@@ -4496,7 +4499,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
@@ -4507,7 +4510,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>3</v>
@@ -4518,7 +4521,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>3</v>
@@ -4529,7 +4532,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4540,7 +4543,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4551,7 +4554,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4562,7 +4565,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4573,7 +4576,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4584,7 +4587,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4595,7 +4598,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4606,7 +4609,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4617,7 +4620,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4628,7 +4631,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4639,7 +4642,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4650,7 +4653,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4661,7 +4664,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4672,7 +4675,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4683,7 +4686,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4694,7 +4697,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>3</v>
@@ -4705,7 +4708,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4716,7 +4719,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>3</v>
@@ -4727,7 +4730,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>3</v>
@@ -4738,7 +4741,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>3</v>
@@ -4749,7 +4752,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>3</v>
@@ -4760,7 +4763,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>3</v>
@@ -4771,7 +4774,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>3</v>
@@ -4782,7 +4785,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>3</v>
@@ -4793,37 +4796,37 @@
         <v>229</v>
       </c>
       <c r="B277" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="21">
+      <c r="A278" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C277" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="21">
-      <c r="B278" s="6"/>
-      <c r="C278" s="3"/>
+      <c r="C278" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="B279" s="6"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" ht="21">
-      <c r="A280" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B280" s="6"/>
+      <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>3</v>
@@ -4834,7 +4837,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>3</v>
@@ -4845,7 +4848,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4856,7 +4859,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
@@ -4867,7 +4870,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>3</v>
@@ -4878,7 +4881,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>3</v>
@@ -4889,7 +4892,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
@@ -4900,7 +4903,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>3</v>
@@ -4911,7 +4914,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>3</v>
@@ -4922,7 +4925,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4933,7 +4936,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>3</v>
@@ -4944,7 +4947,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>3</v>
@@ -4955,7 +4958,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>3</v>
@@ -4966,7 +4969,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>3</v>
@@ -4977,7 +4980,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>3</v>
@@ -4988,7 +4991,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>3</v>
@@ -4999,7 +5002,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>3</v>
@@ -5010,37 +5013,37 @@
         <v>264</v>
       </c>
       <c r="B298" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="21">
+      <c r="A299" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B299" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C298" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="21">
-      <c r="B299" s="6"/>
-      <c r="C299" s="3"/>
+      <c r="C299" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="B300" s="6"/>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" ht="21">
-      <c r="A301" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B301" s="6"/>
+      <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>3</v>
@@ -5051,7 +5054,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>3</v>
@@ -5062,7 +5065,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>3</v>
@@ -5073,7 +5076,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>3</v>
@@ -5084,7 +5087,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>3</v>
@@ -5095,7 +5098,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>3</v>
@@ -5106,7 +5109,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -5117,7 +5120,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -5128,7 +5131,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -5139,7 +5142,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -5150,7 +5153,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -5161,7 +5164,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -5171,8 +5174,8 @@
       <c r="A314" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B314" s="8" t="s">
-        <v>298</v>
+      <c r="B314" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -5182,8 +5185,8 @@
       <c r="A315" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B315" s="5" t="s">
-        <v>299</v>
+      <c r="B315" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -5194,7 +5197,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>3</v>
@@ -5205,7 +5208,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>3</v>
@@ -5216,7 +5219,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5227,7 +5230,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>3</v>
@@ -5238,7 +5241,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5249,7 +5252,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5260,7 +5263,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5271,7 +5274,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5282,7 +5285,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5293,7 +5296,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5304,7 +5307,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5315,7 +5318,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5326,7 +5329,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5337,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5348,7 +5351,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5359,7 +5362,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>3</v>
@@ -5370,7 +5373,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>3</v>
@@ -5381,7 +5384,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5392,7 +5395,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5403,7 +5406,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>3</v>
@@ -5414,7 +5417,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>3</v>
@@ -5425,7 +5428,7 @@
         <v>284</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>3</v>
@@ -5436,37 +5439,37 @@
         <v>284</v>
       </c>
       <c r="B338" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="21">
+      <c r="A339" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B339" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="21">
-      <c r="B339" s="6"/>
-      <c r="C339" s="3"/>
+      <c r="C339" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="B340" s="6"/>
       <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" ht="21">
-      <c r="A341" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B341" s="6"/>
+      <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>3</v>
@@ -5477,7 +5480,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>3</v>
@@ -5488,7 +5491,7 @@
         <v>323</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5499,7 +5502,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
@@ -5510,7 +5513,7 @@
         <v>323</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>3</v>
@@ -5521,7 +5524,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>3</v>
@@ -5532,7 +5535,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5542,8 +5545,8 @@
       <c r="A349" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B349" s="8" t="s">
-        <v>332</v>
+      <c r="B349" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5553,8 +5556,8 @@
       <c r="A350" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>333</v>
+      <c r="B350" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5565,7 +5568,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>3</v>
@@ -5576,7 +5579,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>3</v>
@@ -5587,7 +5590,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>3</v>
@@ -5598,7 +5601,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>3</v>
@@ -5609,7 +5612,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>3</v>
@@ -5620,7 +5623,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>3</v>
@@ -5631,7 +5634,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>3</v>
@@ -5642,37 +5645,37 @@
         <v>323</v>
       </c>
       <c r="B358" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="21">
+      <c r="A359" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B359" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C358" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="21">
-      <c r="B359" s="6"/>
-      <c r="C359" s="3"/>
+      <c r="C359" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="B360" s="6"/>
       <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" ht="21">
-      <c r="A361" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B361" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B361" s="6"/>
+      <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>3</v>
@@ -5683,7 +5686,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>3</v>
@@ -5694,7 +5697,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>3</v>
@@ -5705,7 +5708,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
@@ -5716,7 +5719,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>3</v>
@@ -5727,7 +5730,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>3</v>
@@ -5738,7 +5741,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5749,7 +5752,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5760,7 +5763,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5771,7 +5774,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5782,7 +5785,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5793,7 +5796,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5804,7 +5807,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5815,7 +5818,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5826,7 +5829,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5837,7 +5840,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5848,7 +5851,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5859,7 +5862,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5870,7 +5873,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5881,7 +5884,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5892,7 +5895,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5903,7 +5906,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5914,7 +5917,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5925,7 +5928,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5936,7 +5939,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5947,7 +5950,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5958,7 +5961,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5969,7 +5972,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5980,7 +5983,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5991,7 +5994,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -6002,7 +6005,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -6013,7 +6016,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -6024,7 +6027,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -6046,7 +6049,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -6057,7 +6060,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>3</v>
@@ -6068,7 +6071,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>3</v>
@@ -6079,7 +6082,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>3</v>
@@ -6090,7 +6093,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>3</v>
@@ -6101,7 +6104,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>3</v>
@@ -6112,7 +6115,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>3</v>
@@ -6123,7 +6126,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>3</v>
@@ -6134,37 +6137,37 @@
         <v>342</v>
       </c>
       <c r="B404" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="21">
+      <c r="A405" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B405" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C404" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="21">
-      <c r="B405" s="6"/>
-      <c r="C405" s="3"/>
+      <c r="C405" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="B406" s="6"/>
       <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B407" s="6"/>
+      <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>3</v>
@@ -6175,7 +6178,7 @@
         <v>386</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>3</v>
@@ -6186,7 +6189,7 @@
         <v>386</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>3</v>
@@ -6197,7 +6200,7 @@
         <v>386</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>3</v>
@@ -6208,37 +6211,37 @@
         <v>386</v>
       </c>
       <c r="B412" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="21">
+      <c r="A413" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B413" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C412" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="21">
-      <c r="B413" s="6"/>
-      <c r="C413" s="3"/>
+      <c r="C413" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="B414" s="6"/>
       <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B415" s="6"/>
+      <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>3</v>
@@ -6249,7 +6252,7 @@
         <v>392</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>3</v>
@@ -6260,7 +6263,7 @@
         <v>392</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6271,7 +6274,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
@@ -6282,7 +6285,7 @@
         <v>392</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>3</v>
@@ -6293,7 +6296,7 @@
         <v>392</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>3</v>
@@ -6304,7 +6307,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6315,7 +6318,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6326,7 +6329,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6337,7 +6340,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6348,7 +6351,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6359,7 +6362,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6370,7 +6373,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6381,7 +6384,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6392,7 +6395,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6403,7 +6406,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6414,7 +6417,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6425,7 +6428,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6436,7 +6439,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6447,7 +6450,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6458,7 +6461,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6469,7 +6472,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6480,7 +6483,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6491,7 +6494,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6502,7 +6505,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6513,7 +6516,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6524,7 +6527,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6535,7 +6538,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6546,7 +6549,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6557,7 +6560,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6568,7 +6571,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6579,7 +6582,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6590,7 +6593,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6601,7 +6604,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6612,7 +6615,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6623,7 +6626,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6634,7 +6637,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6645,7 +6648,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6656,7 +6659,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6667,7 +6670,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6678,7 +6681,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6689,7 +6692,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6700,7 +6703,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6711,7 +6714,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6722,7 +6725,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6733,7 +6736,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6744,7 +6747,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6755,7 +6758,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6766,7 +6769,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6777,7 +6780,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6788,7 +6791,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6799,7 +6802,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>3</v>
@@ -6810,7 +6813,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>3</v>
@@ -6821,7 +6824,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>3</v>
@@ -6832,7 +6835,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>3</v>
@@ -6843,7 +6846,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>3</v>
@@ -6854,7 +6857,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>3</v>
@@ -6865,7 +6868,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>3</v>
@@ -6876,38 +6879,38 @@
         <v>392</v>
       </c>
       <c r="B474" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="21">
+      <c r="A475" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B475" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C474" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="21">
-      <c r="B475" s="6"/>
-      <c r="C475" s="3"/>
+      <c r="C475" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="476" spans="1:3" ht="21">
-      <c r="A476" s="7"/>
       <c r="B476" s="6"/>
       <c r="C476" s="3"/>
     </row>
     <row r="477" spans="1:3" ht="21">
-      <c r="A477" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B477" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A477" s="7"/>
+      <c r="B477" s="6"/>
+      <c r="C477" s="3"/>
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>3</v>
@@ -6918,7 +6921,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>3</v>
@@ -6929,7 +6932,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>3</v>
@@ -6940,7 +6943,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>3</v>
@@ -6951,7 +6954,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>3</v>
@@ -6962,7 +6965,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>3</v>
@@ -6973,7 +6976,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>3</v>
@@ -6984,7 +6987,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>3</v>
@@ -6995,9 +6998,20 @@
         <v>452</v>
       </c>
       <c r="B486" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="21">
+      <c r="A487" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B487" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C486" s="3" t="s">
+      <c r="C487" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7039,415 +7053,415 @@
     <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B49" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B50" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B51" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B52" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B53" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B54" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B55" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B56" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B57" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B58" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B61" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B62" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B63" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B65" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B66" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B67" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B68" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B69" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B70" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B71" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B72" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B73" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B74" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B75" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B76" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B77" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B78" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B79" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B80" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B81" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B82" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B83" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B84" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B85" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B86" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B87" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B88" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B89" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B90" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B91" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B92" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B93" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B95" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B96" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B97" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B98" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B99" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B100" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B101" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B102" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B103" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B106" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B107" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B108" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B109" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B111" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B112" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B113" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B114" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B115" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B116" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B118" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B119" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B120" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B121" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B122" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B123" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B124" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B125" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B126" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B127" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B128" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B129" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B130" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B131" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B132" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B133" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B134" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B135" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B136" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B137" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B138" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B139" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B140" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B141" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B110" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B117" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B145" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B146" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B147" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B148" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B149" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B150" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B151" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B152" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B153" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B154" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B155" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B156" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B157" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B158" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B159" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B160" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B161" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B162" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B163" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B164" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B165" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B166" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B167" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B168" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B171" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B172" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B173" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B174" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B175" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B176" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B177" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B178" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B179" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B182" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B183" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B184" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B185" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B186" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B187" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B188" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B189" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B190" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B191" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B192" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B193" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B194" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B195" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B196" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B197" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B198" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B199" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B200" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B201" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B202" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B203" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B204" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B205" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B206" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B207" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B208" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B209" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B210" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B211" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B212" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B213" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B214" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B215" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B216" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B219" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B220" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B221" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B222" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B223" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B224" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B225" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B226" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B227" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B228" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B229" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B230" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B231" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B232" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B233" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B234" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B235" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B236" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B237" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B238" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B239" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B240" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B243" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B244" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B245" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B246" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B247" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B248" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B249" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B250" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B251" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B252" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B253" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B254" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B255" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B256" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B257" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B258" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B259" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B260" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B261" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B262" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B263" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B264" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B265" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B266" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B267" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B268" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B270" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B271" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B272" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B273" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B274" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B275" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B276" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B277" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B280" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B281" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B282" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B283" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B284" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B285" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B286" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B287" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B288" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B289" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B290" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B291" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B292" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B293" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B294" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B295" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B296" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B297" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B298" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B301" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B302" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B303" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B304" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B306" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B307" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B308" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B309" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B310" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B311" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B312" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B313" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B314" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B315" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B316" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B317" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B318" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B319" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B320" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B321" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B322" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B323" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B324" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B325" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B326" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B327" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B328" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B329" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B330" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B331" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B332" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B333" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B334" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B335" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B336" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B337" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B338" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B341" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B342" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B343" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B344" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B345" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B346" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B347" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B348" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B349" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B350" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B351" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B352" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B353" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B354" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B355" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B356" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B357" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B358" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B362" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B363" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B364" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B365" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B366" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B367" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B368" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B369" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B370" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B371" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B372" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B373" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B374" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B375" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B376" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B377" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B378" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B379" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B380" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B381" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B382" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B383" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B384" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B385" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B386" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B387" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B388" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B389" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B390" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B391" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B392" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B393" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B394" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B395" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B396" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B397" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B398" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B399" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B401" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B400" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B402" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B403" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B404" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B407" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B408" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B409" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B410" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B411" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B412" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B415" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B416" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B417" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B418" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B419" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B420" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B421" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B422" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B423" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B424" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B425" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B426" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B427" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B428" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B429" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B430" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B431" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B432" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B433" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B434" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B435" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B436" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B437" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B438" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B439" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B440" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B441" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B442" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B443" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B444" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B445" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B446" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B447" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B448" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B449" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B450" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B451" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B452" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B453" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B454" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B456" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B455" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B457" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B458" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B459" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B460" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B461" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B462" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B463" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B464" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B465" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B466" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B467" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B474" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B473" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B472" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B471" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B470" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B469" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B468" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B477" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B478" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B479" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B480" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B481" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B482" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B483" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B486" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B484" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B485" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B361" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B50" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B51" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B52" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B53" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B54" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B55" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B56" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B57" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B58" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B59" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B62" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B63" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B64" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B66" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B67" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B68" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B69" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B70" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B71" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B72" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B73" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B75" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B76" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B77" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B78" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B79" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B80" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B81" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B82" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B83" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B84" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B85" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B86" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B87" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B88" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B89" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B90" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B91" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B92" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B93" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B94" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B95" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B96" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B97" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B98" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B99" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B100" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B101" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B102" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B103" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B104" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B107" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B108" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B109" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B110" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B112" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B113" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B114" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B115" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B116" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B117" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B119" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B120" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B121" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B122" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B124" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B125" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B126" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B127" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B128" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B129" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B130" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B131" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B132" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B133" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B134" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B135" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B136" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B137" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B138" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B139" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B140" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B141" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B142" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B111" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B118" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B145" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B146" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B147" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B148" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B149" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B150" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B151" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B152" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B153" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B154" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B155" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B156" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B157" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B158" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B159" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B160" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B161" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B162" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B163" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B164" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B165" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B166" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B167" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B168" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B169" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B172" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B173" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B174" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B175" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B176" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B177" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B178" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B179" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B180" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B183" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B184" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B185" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B186" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B187" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B188" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B189" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B190" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B191" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B192" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B193" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B194" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B195" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B196" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B197" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B198" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B199" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B200" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B201" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B202" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B203" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B204" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B205" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B206" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B207" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B208" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B209" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B210" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B211" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B212" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B213" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B214" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B215" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B216" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B217" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B220" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B221" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B222" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B223" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B224" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B225" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B226" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B227" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B228" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B229" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B230" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B231" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B232" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B233" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B234" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B235" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B236" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B237" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B238" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B239" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B240" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B241" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B244" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B245" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B246" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B247" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B248" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B249" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B250" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B251" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B252" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B253" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B254" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B255" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B256" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B257" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B258" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B259" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B260" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B261" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B262" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B263" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B264" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B265" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B266" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B267" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B268" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B269" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B270" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B271" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B272" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B273" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B274" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B275" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B276" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B277" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B278" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B302" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B303" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B304" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B305" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B306" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B307" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B308" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B309" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B310" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B311" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B312" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B313" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B314" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B315" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B316" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B317" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B318" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B319" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B320" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B321" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B322" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B323" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B324" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B325" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B326" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B327" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B328" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B329" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B330" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B331" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B332" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B333" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B334" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B335" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B336" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B337" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B338" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B339" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B342" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B343" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B344" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B345" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B346" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B347" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B348" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B349" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B350" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B351" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B352" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B353" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B354" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B355" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B356" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B357" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B358" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B359" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B363" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B364" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B365" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B366" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B367" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B368" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B369" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B370" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B371" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B372" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B373" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B374" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B375" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B376" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B377" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B378" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B379" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B380" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B381" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B382" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B383" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B384" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B385" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B386" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B387" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B388" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B389" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B390" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B391" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B392" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B393" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B394" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B395" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B396" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B397" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B398" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B399" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B400" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B402" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B401" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B403" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B404" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B405" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B408" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B409" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B410" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B411" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B412" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B413" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B416" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B417" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B418" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B419" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B420" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B421" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B422" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B423" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B424" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B425" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B426" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B427" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B428" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B429" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B430" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B431" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B432" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B433" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B434" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B435" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B436" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B437" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B438" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B439" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B440" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B441" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B442" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B443" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B444" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B445" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B446" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B447" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B448" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B449" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B450" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B451" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B452" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B453" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B454" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B455" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B457" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B456" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B458" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B459" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B460" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B461" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B462" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B463" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B464" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B465" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B466" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B467" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B468" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B475" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B474" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B473" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B472" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B471" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B470" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B469" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B478" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B479" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B480" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B481" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B482" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B483" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B484" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B487" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B485" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B486" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B362" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\450 DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5C3B9-E04D-4E93-B185-0D23137F5DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B942E4A6-CC2E-45D9-BD08-117F0B38A8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2513,7 +2513,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
@@ -2524,7 +2524,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
@@ -2535,7 +2535,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\Desktop\450 DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1316eb900441c6a3/Desktop/450 DSA and 30 Day Striver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B942E4A6-CC2E-45D9-BD08-117F0B38A8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B942E4A6-CC2E-45D9-BD08-117F0B38A8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDCBD13C-2C70-4830-8851-F19ECDD29B30}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1444,6 +1444,9 @@
   </si>
   <si>
     <t>Count the number of subarrays having a given XOR from Striver</t>
+  </si>
+  <si>
+    <t>Find Middle of the Linked List</t>
   </si>
 </sst>
 </file>
@@ -1881,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C487"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3391,7 +3394,7 @@
         <v>134</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3779,27 +3782,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
-      <c r="B182" s="6"/>
-      <c r="C182" s="3"/>
+    <row r="181" spans="1:3" ht="19.5">
+      <c r="A181" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B181" t="s">
+        <v>473</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="183" spans="1:3" ht="21">
-      <c r="A183" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B183" s="6"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>3</v>
@@ -3810,7 +3813,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>3</v>
@@ -3821,7 +3824,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>3</v>
@@ -3832,7 +3835,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>3</v>
@@ -3843,7 +3846,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>3</v>
@@ -3854,7 +3857,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>3</v>
@@ -3865,7 +3868,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>3</v>
@@ -3876,7 +3879,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>3</v>
@@ -3887,7 +3890,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3898,7 +3901,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3909,7 +3912,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3920,7 +3923,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3931,7 +3934,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3942,7 +3945,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3953,7 +3956,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3964,7 +3967,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3975,7 +3978,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3986,7 +3989,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -3997,7 +4000,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -4008,7 +4011,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -4019,7 +4022,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -4030,7 +4033,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -4041,7 +4044,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -4052,7 +4055,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -4063,7 +4066,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -4074,7 +4077,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>3</v>
@@ -4085,7 +4088,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>3</v>
@@ -4096,7 +4099,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>3</v>
@@ -4107,7 +4110,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>3</v>
@@ -4118,7 +4121,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>3</v>
@@ -4129,7 +4132,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>3</v>
@@ -4140,7 +4143,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>3</v>
@@ -4151,7 +4154,7 @@
         <v>170</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>3</v>
@@ -4162,16 +4165,22 @@
         <v>170</v>
       </c>
       <c r="B217" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="21">
+      <c r="A218" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="21">
-      <c r="A218" s="7"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="3"/>
+      <c r="C218" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="7"/>
@@ -4179,22 +4188,16 @@
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3" ht="21">
-      <c r="A220" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A220" s="7"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>3</v>
@@ -4205,7 +4208,7 @@
         <v>206</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4216,7 +4219,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
@@ -4227,7 +4230,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>3</v>
@@ -4238,7 +4241,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>3</v>
@@ -4248,8 +4251,8 @@
       <c r="A226" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B226" s="8" t="s">
-        <v>213</v>
+      <c r="B226" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
@@ -4259,8 +4262,8 @@
       <c r="A227" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>214</v>
+      <c r="B227" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>3</v>
@@ -4271,7 +4274,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>3</v>
@@ -4282,7 +4285,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4293,7 +4296,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4304,7 +4307,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4315,7 +4318,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4326,7 +4329,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>3</v>
@@ -4337,7 +4340,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3</v>
@@ -4348,7 +4351,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>3</v>
@@ -4359,7 +4362,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>3</v>
@@ -4370,7 +4373,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>3</v>
@@ -4381,7 +4384,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>3</v>
@@ -4392,7 +4395,7 @@
         <v>206</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>3</v>
@@ -4403,7 +4406,7 @@
         <v>206</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>3</v>
@@ -4414,37 +4417,37 @@
         <v>206</v>
       </c>
       <c r="B241" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="21">
+      <c r="A242" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C241" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="21">
-      <c r="B242" s="6"/>
-      <c r="C242" s="3"/>
+      <c r="C242" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="B243" s="6"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" ht="21">
-      <c r="A244" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B244" s="6"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>3</v>
@@ -4455,7 +4458,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4466,7 +4469,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
@@ -4477,7 +4480,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>3</v>
@@ -4488,7 +4491,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>3</v>
@@ -4499,7 +4502,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
@@ -4510,7 +4513,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>3</v>
@@ -4521,7 +4524,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>3</v>
@@ -4532,7 +4535,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4543,7 +4546,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4554,7 +4557,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4565,7 +4568,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4576,7 +4579,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4587,7 +4590,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4598,7 +4601,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4609,7 +4612,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4620,7 +4623,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4631,7 +4634,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4642,7 +4645,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4653,7 +4656,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4664,7 +4667,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4675,7 +4678,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4686,7 +4689,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4697,7 +4700,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>3</v>
@@ -4708,7 +4711,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4719,7 +4722,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>3</v>
@@ -4730,7 +4733,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>3</v>
@@ -4741,7 +4744,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>3</v>
@@ -4752,7 +4755,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>3</v>
@@ -4763,7 +4766,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>3</v>
@@ -4774,7 +4777,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>3</v>
@@ -4785,7 +4788,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>3</v>
@@ -4796,7 +4799,7 @@
         <v>229</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>3</v>
@@ -4807,37 +4810,37 @@
         <v>229</v>
       </c>
       <c r="B278" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="21">
+      <c r="A279" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B279" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="21">
-      <c r="B279" s="6"/>
-      <c r="C279" s="3"/>
+      <c r="C279" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="B280" s="6"/>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" ht="21">
-      <c r="A281" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B281" s="6"/>
+      <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>3</v>
@@ -4848,7 +4851,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4859,7 +4862,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
@@ -4870,7 +4873,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>3</v>
@@ -4881,7 +4884,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>3</v>
@@ -4892,7 +4895,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
@@ -4903,7 +4906,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>3</v>
@@ -4914,7 +4917,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>3</v>
@@ -4925,7 +4928,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4936,7 +4939,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>3</v>
@@ -4947,7 +4950,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>3</v>
@@ -4958,7 +4961,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>3</v>
@@ -4969,7 +4972,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>3</v>
@@ -4980,7 +4983,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>3</v>
@@ -4991,7 +4994,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>3</v>
@@ -5002,7 +5005,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>3</v>
@@ -5013,7 +5016,7 @@
         <v>264</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>3</v>
@@ -5024,37 +5027,37 @@
         <v>264</v>
       </c>
       <c r="B299" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="21">
+      <c r="A300" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C299" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="21">
-      <c r="B300" s="6"/>
-      <c r="C300" s="3"/>
+      <c r="C300" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="B301" s="6"/>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3" ht="21">
-      <c r="A302" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B302" s="6"/>
+      <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>3</v>
@@ -5065,7 +5068,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>3</v>
@@ -5076,7 +5079,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>3</v>
@@ -5087,7 +5090,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>3</v>
@@ -5098,7 +5101,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>3</v>
@@ -5109,7 +5112,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -5120,7 +5123,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -5131,7 +5134,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -5142,7 +5145,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -5153,7 +5156,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -5164,7 +5167,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -5175,7 +5178,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -5185,8 +5188,8 @@
       <c r="A315" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B315" s="8" t="s">
-        <v>298</v>
+      <c r="B315" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -5196,8 +5199,8 @@
       <c r="A316" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B316" s="5" t="s">
-        <v>299</v>
+      <c r="B316" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>3</v>
@@ -5208,7 +5211,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>3</v>
@@ -5219,7 +5222,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5230,7 +5233,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>3</v>
@@ -5241,7 +5244,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5252,7 +5255,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5263,7 +5266,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5274,7 +5277,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5285,7 +5288,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5296,7 +5299,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5307,7 +5310,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5318,7 +5321,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5329,7 +5332,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5340,7 +5343,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5351,7 +5354,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5362,7 +5365,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>3</v>
@@ -5373,7 +5376,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>3</v>
@@ -5384,7 +5387,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5395,7 +5398,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5406,7 +5409,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>3</v>
@@ -5417,7 +5420,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>3</v>
@@ -5428,7 +5431,7 @@
         <v>284</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>3</v>
@@ -5439,7 +5442,7 @@
         <v>284</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>3</v>
@@ -5450,37 +5453,37 @@
         <v>284</v>
       </c>
       <c r="B339" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="21">
+      <c r="A340" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B340" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C339" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="21">
-      <c r="B340" s="6"/>
-      <c r="C340" s="3"/>
+      <c r="C340" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="B341" s="6"/>
       <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:3" ht="21">
-      <c r="A342" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B342" s="6"/>
+      <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>3</v>
@@ -5491,7 +5494,7 @@
         <v>323</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5502,7 +5505,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
@@ -5513,7 +5516,7 @@
         <v>323</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>3</v>
@@ -5524,7 +5527,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>3</v>
@@ -5535,7 +5538,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5546,7 +5549,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5556,8 +5559,8 @@
       <c r="A350" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B350" s="8" t="s">
-        <v>332</v>
+      <c r="B350" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5567,8 +5570,8 @@
       <c r="A351" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B351" s="5" t="s">
-        <v>333</v>
+      <c r="B351" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>3</v>
@@ -5579,7 +5582,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>3</v>
@@ -5590,7 +5593,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>3</v>
@@ -5601,7 +5604,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>3</v>
@@ -5612,7 +5615,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>3</v>
@@ -5623,7 +5626,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>3</v>
@@ -5634,7 +5637,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>3</v>
@@ -5645,7 +5648,7 @@
         <v>323</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>3</v>
@@ -5656,37 +5659,37 @@
         <v>323</v>
       </c>
       <c r="B359" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="21">
+      <c r="A360" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B360" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C359" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="21">
-      <c r="B360" s="6"/>
-      <c r="C360" s="3"/>
+      <c r="C360" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="B361" s="6"/>
       <c r="C361" s="3"/>
     </row>
     <row r="362" spans="1:3" ht="21">
-      <c r="A362" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B362" s="6"/>
+      <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>3</v>
@@ -5697,7 +5700,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>3</v>
@@ -5708,7 +5711,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
@@ -5719,7 +5722,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>3</v>
@@ -5730,7 +5733,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>3</v>
@@ -5741,7 +5744,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5752,7 +5755,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5763,7 +5766,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5774,7 +5777,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5785,7 +5788,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5796,7 +5799,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5807,7 +5810,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5818,7 +5821,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5829,7 +5832,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5840,7 +5843,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5851,7 +5854,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5862,7 +5865,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5873,7 +5876,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5884,7 +5887,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5895,7 +5898,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5906,7 +5909,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5917,7 +5920,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5928,7 +5931,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5939,7 +5942,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5950,7 +5953,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5961,7 +5964,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5972,7 +5975,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5983,7 +5986,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5994,7 +5997,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -6005,7 +6008,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -6016,7 +6019,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -6027,7 +6030,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -6038,7 +6041,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -6060,7 +6063,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>3</v>
@@ -6071,7 +6074,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>3</v>
@@ -6082,7 +6085,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>3</v>
@@ -6093,7 +6096,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>3</v>
@@ -6104,7 +6107,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>3</v>
@@ -6115,7 +6118,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>3</v>
@@ -6126,7 +6129,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>3</v>
@@ -6137,7 +6140,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>3</v>
@@ -6148,37 +6151,37 @@
         <v>342</v>
       </c>
       <c r="B405" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="21">
+      <c r="A406" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B406" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C405" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="21">
-      <c r="B406" s="6"/>
-      <c r="C406" s="3"/>
+      <c r="C406" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="B407" s="6"/>
       <c r="C407" s="3"/>
     </row>
     <row r="408" spans="1:3" ht="21">
-      <c r="A408" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B408" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B408" s="6"/>
+      <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>3</v>
@@ -6189,7 +6192,7 @@
         <v>386</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>3</v>
@@ -6200,7 +6203,7 @@
         <v>386</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>3</v>
@@ -6211,7 +6214,7 @@
         <v>386</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>3</v>
@@ -6222,37 +6225,37 @@
         <v>386</v>
       </c>
       <c r="B413" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="21">
+      <c r="A414" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B414" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C413" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="21">
-      <c r="B414" s="6"/>
-      <c r="C414" s="3"/>
+      <c r="C414" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="B415" s="6"/>
       <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B416" s="6"/>
+      <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>3</v>
@@ -6263,7 +6266,7 @@
         <v>392</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6274,7 +6277,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
@@ -6285,7 +6288,7 @@
         <v>392</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>3</v>
@@ -6296,7 +6299,7 @@
         <v>392</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>3</v>
@@ -6307,7 +6310,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6318,7 +6321,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6329,7 +6332,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6340,7 +6343,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6351,7 +6354,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6362,7 +6365,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6373,7 +6376,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6384,7 +6387,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6395,7 +6398,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6406,7 +6409,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6417,7 +6420,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6428,7 +6431,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6439,7 +6442,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6450,7 +6453,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6461,7 +6464,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6472,7 +6475,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6483,7 +6486,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6494,7 +6497,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6505,7 +6508,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6516,7 +6519,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6527,7 +6530,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6538,7 +6541,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6549,7 +6552,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6560,7 +6563,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6571,7 +6574,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6582,7 +6585,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6593,7 +6596,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6604,7 +6607,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6615,7 +6618,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6626,7 +6629,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6637,7 +6640,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6648,7 +6651,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6659,7 +6662,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6670,7 +6673,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6681,7 +6684,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6692,7 +6695,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6703,7 +6706,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6714,7 +6717,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6725,7 +6728,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6736,7 +6739,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6747,7 +6750,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6758,7 +6761,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6769,7 +6772,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6780,7 +6783,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6791,7 +6794,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6802,7 +6805,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>3</v>
@@ -6813,7 +6816,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>3</v>
@@ -6824,7 +6827,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>3</v>
@@ -6835,7 +6838,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>3</v>
@@ -6846,7 +6849,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>3</v>
@@ -6857,7 +6860,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>3</v>
@@ -6868,7 +6871,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>3</v>
@@ -6879,7 +6882,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>3</v>
@@ -6890,38 +6893,38 @@
         <v>392</v>
       </c>
       <c r="B475" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="21">
+      <c r="A476" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B476" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C475" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="21">
-      <c r="B476" s="6"/>
-      <c r="C476" s="3"/>
+      <c r="C476" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="477" spans="1:3" ht="21">
-      <c r="A477" s="7"/>
       <c r="B477" s="6"/>
       <c r="C477" s="3"/>
     </row>
     <row r="478" spans="1:3" ht="21">
-      <c r="A478" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B478" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A478" s="7"/>
+      <c r="B478" s="6"/>
+      <c r="C478" s="3"/>
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>3</v>
@@ -6932,7 +6935,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>3</v>
@@ -6943,7 +6946,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>3</v>
@@ -6954,7 +6957,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>3</v>
@@ -6965,7 +6968,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>3</v>
@@ -6976,7 +6979,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>3</v>
@@ -6987,7 +6990,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>3</v>
@@ -6998,7 +7001,7 @@
         <v>452</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>3</v>
@@ -7009,9 +7012,20 @@
         <v>452</v>
       </c>
       <c r="B487" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="21">
+      <c r="A488" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B488" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C487" s="3" t="s">
+      <c r="C488" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7175,293 +7189,293 @@
     <hyperlink ref="B178" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
     <hyperlink ref="B179" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
     <hyperlink ref="B180" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B183" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B184" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B185" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B186" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B187" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B188" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B189" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B190" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B191" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B192" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B193" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B194" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B195" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B196" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B197" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B198" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B199" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B200" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B201" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B202" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B203" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B204" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B205" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B206" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B207" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B208" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B209" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B210" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B211" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B212" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B213" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B214" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B215" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B216" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B217" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B220" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B221" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B222" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B223" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B224" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B225" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B226" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B227" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B228" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B229" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B230" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B231" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B232" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B233" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B234" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B235" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B236" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B237" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B238" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B239" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B240" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B241" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B244" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B245" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B246" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B247" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B248" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B249" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B250" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B251" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B252" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B253" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B254" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B255" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B256" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B257" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B258" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B259" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B260" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B261" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B262" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B263" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B264" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B265" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B266" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B267" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B268" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B269" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B270" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B271" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B272" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B273" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B274" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B275" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B276" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B277" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B278" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B302" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B303" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B304" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B305" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B306" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B307" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B308" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B309" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B310" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B311" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B312" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B313" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B314" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B315" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B316" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B317" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B318" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B319" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B320" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B321" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B322" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B323" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B324" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B325" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B326" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B327" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B328" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B329" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B330" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B331" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B332" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B333" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B334" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B335" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B336" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B337" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B338" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B339" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B342" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B343" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B344" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B345" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B346" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B347" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B348" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B349" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B350" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B351" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B352" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B353" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B354" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B355" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B356" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B357" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B358" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B359" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B363" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B364" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B365" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B366" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B367" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B368" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B369" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B370" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B371" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B372" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B373" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B374" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B375" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B376" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B377" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B378" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B379" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B380" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B381" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B382" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B383" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B384" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B385" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B386" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B387" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B388" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B389" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B390" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B391" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B392" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B393" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B394" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B395" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B396" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B397" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B398" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B399" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B400" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B402" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B401" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B403" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B404" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B405" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B408" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B409" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B410" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B411" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B412" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B413" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B416" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B417" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B418" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B419" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B420" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B421" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B422" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B423" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B424" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B425" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B426" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B427" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B428" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B429" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B430" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B431" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B432" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B433" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B434" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B435" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B436" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B437" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B438" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B439" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B440" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B441" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B442" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B443" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B444" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B445" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B446" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B447" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B448" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B449" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B450" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B451" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B452" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B453" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B454" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B455" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B457" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B456" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B458" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B459" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B460" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B461" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B462" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B463" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B464" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B465" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B466" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B467" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B468" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B475" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B474" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B473" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B472" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B471" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B470" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B469" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B478" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B479" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B480" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B481" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B482" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B483" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B484" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B487" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B485" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B486" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B362" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B184" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B185" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B186" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B187" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B188" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B189" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B190" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B191" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B192" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B193" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B194" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B195" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B196" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B197" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B198" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B199" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B200" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B201" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B202" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B203" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B204" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B205" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B206" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B207" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B208" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B209" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B210" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B211" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B212" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B213" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B214" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B215" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B216" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B217" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B218" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B221" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B222" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B223" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B224" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B225" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B226" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B227" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B228" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B229" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B230" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B231" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B232" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B233" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B234" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B235" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B236" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B237" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B238" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B239" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B240" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B241" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B242" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B245" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B246" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B247" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B248" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B249" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B250" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B251" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B252" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B253" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B254" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B255" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B256" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B257" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B258" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B259" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B260" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B261" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B262" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B263" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B264" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B265" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B266" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B267" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B268" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B269" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B270" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B271" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B272" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B273" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B274" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B275" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B276" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B277" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B278" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B279" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B282" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B283" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B284" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B285" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B286" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B287" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B288" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B289" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B290" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B291" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B292" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B293" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B294" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B295" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B296" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B297" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B298" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B299" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B300" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B303" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B304" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B305" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B306" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B307" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B308" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B309" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B310" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B311" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B312" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B313" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B314" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B315" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B316" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B317" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B318" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B319" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B320" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B321" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B322" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B323" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B324" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B325" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B326" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B327" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B328" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B329" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B330" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B331" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B332" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B333" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B334" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B335" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B336" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B337" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B338" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B339" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B340" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B343" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B344" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B345" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B346" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B347" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B348" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B349" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B350" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B351" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B352" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B353" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B354" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B355" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B356" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B357" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B358" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B359" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B360" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B364" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B365" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B366" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B367" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B368" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B369" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B370" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B371" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B372" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B373" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B374" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B375" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B376" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B377" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B378" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B379" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B380" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B381" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B382" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B383" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B384" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B385" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B386" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B387" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B388" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B389" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B390" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B391" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B392" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B393" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B394" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B395" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B396" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B397" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B398" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B399" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B400" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B401" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B403" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B402" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B404" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B405" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B406" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B409" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B410" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B411" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B412" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B413" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B414" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B417" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B418" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B419" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B420" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B421" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B422" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B423" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B424" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B425" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B426" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B427" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B428" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B429" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B430" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B431" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B432" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B433" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B434" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B435" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B436" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B437" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B438" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B439" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B440" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B441" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B442" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B443" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B444" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B445" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B446" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B447" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B448" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B449" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B450" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B451" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B452" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B453" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B454" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B455" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B456" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B458" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B457" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B459" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B460" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B461" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B462" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B463" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B464" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B465" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B466" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B467" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B468" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B469" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B476" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B475" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B474" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B473" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B472" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B471" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B470" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B479" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B480" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B481" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B482" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B483" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B484" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B485" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B488" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B486" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B487" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B363" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1316eb900441c6a3/Desktop/450 DSA and 30 Day Striver/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B942E4A6-CC2E-45D9-BD08-117F0B38A8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDCBD13C-2C70-4830-8851-F19ECDD29B30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A54E19-0773-4C25-8DF1-C83D88878193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="475">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1447,6 +1447,9 @@
   </si>
   <si>
     <t>Find Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Linked List</t>
   </si>
 </sst>
 </file>
@@ -1884,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:C489"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3793,27 +3796,27 @@
         <v>465</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
-      <c r="B183" s="6"/>
-      <c r="C183" s="3"/>
+    <row r="182" spans="1:3" ht="19.5">
+      <c r="A182" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B182" t="s">
+        <v>474</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="184" spans="1:3" ht="21">
-      <c r="A184" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B184" s="6"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>3</v>
@@ -3824,7 +3827,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>3</v>
@@ -3835,7 +3838,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>3</v>
@@ -3846,7 +3849,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>3</v>
@@ -3857,7 +3860,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>3</v>
@@ -3868,7 +3871,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>3</v>
@@ -3879,7 +3882,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>3</v>
@@ -3890,7 +3893,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3901,7 +3904,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3912,7 +3915,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3923,7 +3926,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3934,7 +3937,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3945,7 +3948,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3956,7 +3959,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3967,7 +3970,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3978,7 +3981,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3989,7 +3992,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -4000,7 +4003,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -4011,7 +4014,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -4022,7 +4025,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -4033,7 +4036,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -4044,7 +4047,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -4055,7 +4058,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -4066,7 +4069,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -4077,7 +4080,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>3</v>
@@ -4088,7 +4091,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>3</v>
@@ -4099,7 +4102,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>3</v>
@@ -4110,7 +4113,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>3</v>
@@ -4121,7 +4124,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>3</v>
@@ -4132,7 +4135,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>3</v>
@@ -4143,7 +4146,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>3</v>
@@ -4154,7 +4157,7 @@
         <v>170</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>3</v>
@@ -4165,7 +4168,7 @@
         <v>170</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>3</v>
@@ -4176,16 +4179,22 @@
         <v>170</v>
       </c>
       <c r="B218" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="21">
+      <c r="A219" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="21">
-      <c r="A219" s="7"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="3"/>
+      <c r="C219" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="7"/>
@@ -4193,22 +4202,16 @@
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3" ht="21">
-      <c r="A221" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A221" s="7"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4219,7 +4222,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
@@ -4230,7 +4233,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>3</v>
@@ -4241,7 +4244,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>3</v>
@@ -4252,7 +4255,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
@@ -4262,8 +4265,8 @@
       <c r="A227" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B227" s="8" t="s">
-        <v>213</v>
+      <c r="B227" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>3</v>
@@ -4273,8 +4276,8 @@
       <c r="A228" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>214</v>
+      <c r="B228" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>3</v>
@@ -4285,7 +4288,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4296,7 +4299,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4307,7 +4310,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4318,7 +4321,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4329,7 +4332,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>3</v>
@@ -4340,7 +4343,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3</v>
@@ -4351,7 +4354,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>3</v>
@@ -4362,7 +4365,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>3</v>
@@ -4373,7 +4376,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>3</v>
@@ -4384,7 +4387,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>3</v>
@@ -4395,7 +4398,7 @@
         <v>206</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>3</v>
@@ -4406,7 +4409,7 @@
         <v>206</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>3</v>
@@ -4417,7 +4420,7 @@
         <v>206</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>3</v>
@@ -4428,37 +4431,37 @@
         <v>206</v>
       </c>
       <c r="B242" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="21">
+      <c r="A243" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="21">
-      <c r="B243" s="6"/>
-      <c r="C243" s="3"/>
+      <c r="C243" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="B244" s="6"/>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" ht="21">
-      <c r="A245" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B245" s="6"/>
+      <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4469,7 +4472,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
@@ -4480,7 +4483,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>3</v>
@@ -4491,7 +4494,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>3</v>
@@ -4502,7 +4505,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
@@ -4513,7 +4516,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>3</v>
@@ -4524,7 +4527,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>3</v>
@@ -4535,7 +4538,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4546,7 +4549,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4557,7 +4560,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4568,7 +4571,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4579,7 +4582,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4590,7 +4593,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4601,7 +4604,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4612,7 +4615,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4623,7 +4626,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4634,7 +4637,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4645,7 +4648,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4656,7 +4659,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4667,7 +4670,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4678,7 +4681,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4689,7 +4692,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4700,7 +4703,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>3</v>
@@ -4711,7 +4714,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4722,7 +4725,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>3</v>
@@ -4733,7 +4736,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>3</v>
@@ -4744,7 +4747,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>3</v>
@@ -4755,7 +4758,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>3</v>
@@ -4766,7 +4769,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>3</v>
@@ -4777,7 +4780,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>3</v>
@@ -4788,7 +4791,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>3</v>
@@ -4799,7 +4802,7 @@
         <v>229</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>3</v>
@@ -4810,7 +4813,7 @@
         <v>229</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>3</v>
@@ -4821,37 +4824,37 @@
         <v>229</v>
       </c>
       <c r="B279" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="21">
+      <c r="A280" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="21">
-      <c r="B280" s="6"/>
-      <c r="C280" s="3"/>
+      <c r="C280" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="B281" s="6"/>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" ht="21">
-      <c r="A282" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B282" s="6"/>
+      <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4862,7 +4865,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
@@ -4873,7 +4876,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>3</v>
@@ -4884,7 +4887,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>3</v>
@@ -4895,7 +4898,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
@@ -4906,7 +4909,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>3</v>
@@ -4917,7 +4920,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>3</v>
@@ -4928,7 +4931,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4939,7 +4942,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>3</v>
@@ -4950,7 +4953,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>3</v>
@@ -4961,7 +4964,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>3</v>
@@ -4972,7 +4975,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>3</v>
@@ -4983,7 +4986,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>3</v>
@@ -4994,7 +4997,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>3</v>
@@ -5005,7 +5008,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>3</v>
@@ -5016,7 +5019,7 @@
         <v>264</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>3</v>
@@ -5027,7 +5030,7 @@
         <v>264</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>3</v>
@@ -5038,37 +5041,37 @@
         <v>264</v>
       </c>
       <c r="B300" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="21">
+      <c r="A301" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B301" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C300" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="21">
-      <c r="B301" s="6"/>
-      <c r="C301" s="3"/>
+      <c r="C301" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="B302" s="6"/>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3" ht="21">
-      <c r="A303" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B303" s="6"/>
+      <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>3</v>
@@ -5079,7 +5082,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>3</v>
@@ -5090,7 +5093,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>3</v>
@@ -5101,7 +5104,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>3</v>
@@ -5112,7 +5115,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -5123,7 +5126,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -5134,7 +5137,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -5145,7 +5148,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -5156,7 +5159,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -5167,7 +5170,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -5178,7 +5181,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -5189,7 +5192,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -5199,8 +5202,8 @@
       <c r="A316" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B316" s="8" t="s">
-        <v>298</v>
+      <c r="B316" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>3</v>
@@ -5210,8 +5213,8 @@
       <c r="A317" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B317" s="5" t="s">
-        <v>299</v>
+      <c r="B317" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>3</v>
@@ -5222,7 +5225,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5233,7 +5236,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>3</v>
@@ -5244,7 +5247,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5255,7 +5258,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5266,7 +5269,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5277,7 +5280,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5288,7 +5291,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5299,7 +5302,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5310,7 +5313,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5321,7 +5324,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5332,7 +5335,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5343,7 +5346,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5354,7 +5357,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5365,7 +5368,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>3</v>
@@ -5376,7 +5379,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>3</v>
@@ -5387,7 +5390,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5398,7 +5401,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5409,7 +5412,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>3</v>
@@ -5420,7 +5423,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>3</v>
@@ -5431,7 +5434,7 @@
         <v>284</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>3</v>
@@ -5442,7 +5445,7 @@
         <v>284</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>3</v>
@@ -5453,7 +5456,7 @@
         <v>284</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>3</v>
@@ -5464,37 +5467,37 @@
         <v>284</v>
       </c>
       <c r="B340" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="21">
+      <c r="A341" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B341" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C340" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="21">
-      <c r="B341" s="6"/>
-      <c r="C341" s="3"/>
+      <c r="C341" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="B342" s="6"/>
       <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:3" ht="21">
-      <c r="A343" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B343" s="6"/>
+      <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5505,7 +5508,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
@@ -5516,7 +5519,7 @@
         <v>323</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>3</v>
@@ -5527,7 +5530,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>3</v>
@@ -5538,7 +5541,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5549,7 +5552,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5560,7 +5563,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5570,8 +5573,8 @@
       <c r="A351" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B351" s="8" t="s">
-        <v>332</v>
+      <c r="B351" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>3</v>
@@ -5581,8 +5584,8 @@
       <c r="A352" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B352" s="5" t="s">
-        <v>333</v>
+      <c r="B352" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>3</v>
@@ -5593,7 +5596,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>3</v>
@@ -5604,7 +5607,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>3</v>
@@ -5615,7 +5618,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>3</v>
@@ -5626,7 +5629,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>3</v>
@@ -5637,7 +5640,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>3</v>
@@ -5648,7 +5651,7 @@
         <v>323</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>3</v>
@@ -5659,7 +5662,7 @@
         <v>323</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>3</v>
@@ -5670,37 +5673,37 @@
         <v>323</v>
       </c>
       <c r="B360" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="21">
+      <c r="A361" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B361" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C360" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="21">
-      <c r="B361" s="6"/>
-      <c r="C361" s="3"/>
+      <c r="C361" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="B362" s="6"/>
       <c r="C362" s="3"/>
     </row>
     <row r="363" spans="1:3" ht="21">
-      <c r="A363" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B363" s="6"/>
+      <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>3</v>
@@ -5711,7 +5714,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
@@ -5722,7 +5725,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>3</v>
@@ -5733,7 +5736,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>3</v>
@@ -5744,7 +5747,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5755,7 +5758,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5766,7 +5769,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5777,7 +5780,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5788,7 +5791,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5799,7 +5802,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5810,7 +5813,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5821,7 +5824,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5832,7 +5835,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5843,7 +5846,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5854,7 +5857,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5865,7 +5868,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5876,7 +5879,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5887,7 +5890,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5898,7 +5901,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5909,7 +5912,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5920,7 +5923,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5931,7 +5934,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5942,7 +5945,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5953,7 +5956,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5964,7 +5967,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5975,7 +5978,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5986,7 +5989,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5997,7 +6000,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -6008,7 +6011,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -6019,7 +6022,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -6030,7 +6033,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -6041,7 +6044,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -6052,7 +6055,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -6074,7 +6077,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>3</v>
@@ -6085,7 +6088,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>3</v>
@@ -6096,7 +6099,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>3</v>
@@ -6107,7 +6110,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>3</v>
@@ -6118,7 +6121,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>3</v>
@@ -6129,7 +6132,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>3</v>
@@ -6140,7 +6143,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>3</v>
@@ -6151,7 +6154,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>3</v>
@@ -6162,37 +6165,37 @@
         <v>342</v>
       </c>
       <c r="B406" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="21">
+      <c r="A407" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B407" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C406" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="21">
-      <c r="B407" s="6"/>
-      <c r="C407" s="3"/>
+      <c r="C407" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="B408" s="6"/>
       <c r="C408" s="3"/>
     </row>
     <row r="409" spans="1:3" ht="21">
-      <c r="A409" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B409" s="6"/>
+      <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>3</v>
@@ -6203,7 +6206,7 @@
         <v>386</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>3</v>
@@ -6214,7 +6217,7 @@
         <v>386</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>3</v>
@@ -6225,7 +6228,7 @@
         <v>386</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>3</v>
@@ -6236,37 +6239,37 @@
         <v>386</v>
       </c>
       <c r="B414" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="21">
+      <c r="A415" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B415" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C414" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="21">
-      <c r="B415" s="6"/>
-      <c r="C415" s="3"/>
+      <c r="C415" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="B416" s="6"/>
       <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B417" s="6"/>
+      <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6277,7 +6280,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
@@ -6288,7 +6291,7 @@
         <v>392</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>3</v>
@@ -6299,7 +6302,7 @@
         <v>392</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>3</v>
@@ -6310,7 +6313,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6321,7 +6324,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6332,7 +6335,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6343,7 +6346,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6354,7 +6357,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6365,7 +6368,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6376,7 +6379,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6387,7 +6390,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6398,7 +6401,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6409,7 +6412,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6420,7 +6423,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6431,7 +6434,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6442,7 +6445,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6453,7 +6456,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6464,7 +6467,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6475,7 +6478,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6486,7 +6489,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6497,7 +6500,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6508,7 +6511,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6519,7 +6522,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6530,7 +6533,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6541,7 +6544,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6552,7 +6555,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6563,7 +6566,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6574,7 +6577,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6585,7 +6588,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6596,7 +6599,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6607,7 +6610,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6618,7 +6621,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6629,7 +6632,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6640,7 +6643,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6651,7 +6654,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6662,7 +6665,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6673,7 +6676,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6684,7 +6687,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6695,7 +6698,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6706,7 +6709,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6717,7 +6720,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6728,7 +6731,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6739,7 +6742,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6750,7 +6753,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6761,7 +6764,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6772,7 +6775,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6783,7 +6786,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6794,7 +6797,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6805,7 +6808,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>3</v>
@@ -6816,7 +6819,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>3</v>
@@ -6827,7 +6830,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>3</v>
@@ -6838,7 +6841,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>3</v>
@@ -6849,7 +6852,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>3</v>
@@ -6860,7 +6863,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>3</v>
@@ -6871,7 +6874,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>3</v>
@@ -6882,7 +6885,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>3</v>
@@ -6893,7 +6896,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>3</v>
@@ -6904,38 +6907,38 @@
         <v>392</v>
       </c>
       <c r="B476" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="21">
+      <c r="A477" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B477" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C476" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="21">
-      <c r="B477" s="6"/>
-      <c r="C477" s="3"/>
+      <c r="C477" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="478" spans="1:3" ht="21">
-      <c r="A478" s="7"/>
       <c r="B478" s="6"/>
       <c r="C478" s="3"/>
     </row>
     <row r="479" spans="1:3" ht="21">
-      <c r="A479" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B479" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A479" s="7"/>
+      <c r="B479" s="6"/>
+      <c r="C479" s="3"/>
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>3</v>
@@ -6946,7 +6949,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>3</v>
@@ -6957,7 +6960,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>3</v>
@@ -6968,7 +6971,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>3</v>
@@ -6979,7 +6982,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>3</v>
@@ -6990,7 +6993,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>3</v>
@@ -7001,7 +7004,7 @@
         <v>452</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>3</v>
@@ -7012,7 +7015,7 @@
         <v>452</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>3</v>
@@ -7023,9 +7026,20 @@
         <v>452</v>
       </c>
       <c r="B488" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="21">
+      <c r="A489" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B489" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C488" s="3" t="s">
+      <c r="C489" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7189,293 +7203,293 @@
     <hyperlink ref="B178" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
     <hyperlink ref="B179" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
     <hyperlink ref="B180" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B184" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B185" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B186" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B187" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B188" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B189" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B190" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B191" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B192" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B193" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B194" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B195" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B196" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B197" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B198" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B199" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B200" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B201" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B202" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B203" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B204" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B205" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B206" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B207" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B208" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B209" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B210" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B211" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B212" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B213" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B214" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B215" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B216" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B217" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B218" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B221" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B222" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B223" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B224" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B225" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B226" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B227" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B228" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B229" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B230" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B231" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B232" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B233" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B234" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B235" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B236" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B237" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B238" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B239" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B240" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B241" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B242" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B245" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B246" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B247" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B248" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B249" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B250" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B251" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B252" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B253" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B254" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B255" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B256" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B257" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B258" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B259" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B260" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B261" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B262" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B263" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B264" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B265" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B266" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B267" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B268" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B269" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B270" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B271" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B272" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B273" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B274" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B275" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B276" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B277" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B278" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B279" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B282" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B283" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B284" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B285" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B286" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B287" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B288" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B289" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B290" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B291" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B292" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B293" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B294" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B295" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B296" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B297" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B298" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B299" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B300" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B303" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B304" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B305" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B306" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B307" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B308" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B309" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B310" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B311" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B312" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B313" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B314" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B315" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B316" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B317" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B318" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B319" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B320" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B321" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B322" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B323" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B324" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B325" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B326" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B327" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B328" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B329" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B330" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B331" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B332" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B333" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B334" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B335" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B336" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B337" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B338" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B339" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B340" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B343" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B344" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B345" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B346" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B347" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B348" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B349" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B350" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B351" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B352" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B353" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B354" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B355" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B356" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B357" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B358" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B359" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B360" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B364" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B365" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B366" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B367" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B368" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B369" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B370" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B371" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B372" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B373" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B374" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B375" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B376" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B377" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B378" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B379" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B380" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B381" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B382" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B383" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B384" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B385" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B386" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B387" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B388" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B389" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B390" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B391" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B392" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B393" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B394" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B395" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B396" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B397" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B398" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B399" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B400" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B401" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B403" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B402" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B404" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B405" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B406" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B409" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B410" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B411" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B412" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B413" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B414" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B417" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B418" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B419" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B420" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B421" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B422" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B423" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B424" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B425" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B426" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B427" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B428" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B429" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B430" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B431" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B432" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B433" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B434" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B435" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B436" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B437" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B438" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B439" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B440" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B441" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B442" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B443" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B444" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B445" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B446" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B447" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B448" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B449" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B450" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B451" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B452" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B453" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B454" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B455" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B456" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B458" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B457" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B459" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B460" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B461" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B462" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B463" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B464" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B465" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B466" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B467" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B468" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B469" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B476" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B475" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B474" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B473" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B472" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B471" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B470" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B479" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B480" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B481" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B482" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B483" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B484" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B485" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B488" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B486" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B487" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B363" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B185" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B186" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B187" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B188" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B189" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B190" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B191" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B192" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B193" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B194" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B195" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B196" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B197" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B198" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B199" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B200" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B201" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B202" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B203" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B204" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B205" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B206" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B207" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B208" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B209" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B210" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B211" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B212" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B213" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B214" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B215" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B216" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B217" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B218" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B219" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B222" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B223" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B224" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B225" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B226" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B227" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B228" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B229" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B230" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B231" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B232" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B233" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B234" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B235" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B236" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B237" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B238" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B239" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B240" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B241" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B242" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B243" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B246" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B247" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B248" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B249" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B250" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B251" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B252" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B253" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B254" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B255" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B256" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B257" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B258" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B259" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B260" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B261" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B262" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B263" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B264" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B265" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B266" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B267" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B268" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B269" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B270" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B271" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B272" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B273" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B274" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B275" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B276" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B277" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B278" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B279" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B280" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B283" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B284" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B285" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B286" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B287" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B288" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B289" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B290" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B291" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B292" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B293" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B294" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B295" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B296" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B297" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B298" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B299" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B300" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B301" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B304" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B305" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B306" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B307" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B308" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B309" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B310" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B311" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B312" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B313" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B314" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B315" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B316" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B317" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B318" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B319" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B320" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B321" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B322" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B323" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B324" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B325" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B326" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B327" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B328" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B329" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B330" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B331" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B332" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B333" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B334" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B335" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B336" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B337" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B338" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B339" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B340" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B341" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B344" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B345" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B346" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B347" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B348" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B349" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B350" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B351" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B352" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B353" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B354" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B355" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B356" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B357" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B358" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B359" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B360" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B361" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B365" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B366" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B367" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B368" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B369" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B370" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B371" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B372" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B373" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B374" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B375" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B376" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B377" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B378" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B379" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B380" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B381" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B382" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B383" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B384" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B385" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B386" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B387" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B388" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B389" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B390" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B391" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B392" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B393" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B394" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B395" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B396" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B397" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B398" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B399" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B400" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B401" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B402" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B404" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B403" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B405" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B406" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B407" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B410" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B411" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B412" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B413" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B414" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B415" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B418" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B419" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B420" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B421" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B422" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B423" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B424" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B425" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B426" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B427" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B428" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B429" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B430" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B431" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B432" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B433" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B434" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B435" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B436" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B437" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B438" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B439" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B440" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B441" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B442" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B443" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B444" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B445" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B446" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B447" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B448" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B449" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B450" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B451" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B452" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B453" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B454" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B455" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B456" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B457" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B459" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B458" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B460" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B461" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B462" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B463" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B464" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B465" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B466" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B467" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B468" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B469" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B470" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B477" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B476" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B475" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B474" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B473" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B472" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B471" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B480" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B481" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B482" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B483" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B484" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B485" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B486" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B489" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B487" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B488" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B364" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A54E19-0773-4C25-8DF1-C83D88878193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E35771-B4DF-4165-8A66-C5BE44CD304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3771,7 +3771,7 @@
         <v>168</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E35771-B4DF-4165-8A66-C5BE44CD304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9D793F-2571-42B4-B16F-6DC22103661B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="476">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1446,10 +1446,13 @@
     <t>Count the number of subarrays having a given XOR from Striver</t>
   </si>
   <si>
-    <t>Find Middle of the Linked List</t>
-  </si>
-  <si>
-    <t>Merge Two Sorted Linked List</t>
+    <t>Delete a Node, when the node is given in O(1) time from Striver</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Linked List from Striver</t>
+  </si>
+  <si>
+    <t>Find Middle of the Linked List from Striver</t>
   </si>
 </sst>
 </file>
@@ -1887,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C489"/>
+  <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3496,7 +3499,7 @@
         <v>143</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
@@ -3790,7 +3793,7 @@
         <v>133</v>
       </c>
       <c r="B181" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>465</v>
@@ -3807,60 +3810,41 @@
         <v>465</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
-      <c r="B184" s="6"/>
+    <row r="183" spans="1:3" ht="19.5">
+      <c r="A183" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B183" t="s">
+        <v>473</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="19.5">
+      <c r="A184" s="7"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" ht="21">
-      <c r="A185" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
-      <c r="A186" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
-      <c r="A187" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="185" spans="1:3" ht="19.5">
+      <c r="A185" s="7"/>
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" ht="21">
-      <c r="A188" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B188" s="6"/>
+      <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>3</v>
@@ -3871,7 +3855,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>3</v>
@@ -3882,7 +3866,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>3</v>
@@ -3893,7 +3877,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3904,7 +3888,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3915,7 +3899,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3926,7 +3910,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3937,7 +3921,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3948,7 +3932,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3959,7 +3943,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3970,7 +3954,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3981,7 +3965,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3992,7 +3976,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -4003,7 +3987,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -4014,7 +3998,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -4025,7 +4009,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -4036,7 +4020,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -4047,7 +4031,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -4058,7 +4042,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -4069,7 +4053,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -4080,7 +4064,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>3</v>
@@ -4091,7 +4075,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>3</v>
@@ -4102,7 +4086,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>3</v>
@@ -4113,7 +4097,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>3</v>
@@ -4124,7 +4108,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>3</v>
@@ -4135,7 +4119,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>3</v>
@@ -4146,7 +4130,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>3</v>
@@ -4157,7 +4141,7 @@
         <v>170</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>3</v>
@@ -4168,7 +4152,7 @@
         <v>170</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>3</v>
@@ -4179,7 +4163,7 @@
         <v>170</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>3</v>
@@ -4190,28 +4174,40 @@
         <v>170</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
-      <c r="A220" s="7"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="3"/>
+      <c r="A220" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="221" spans="1:3" ht="21">
-      <c r="A221" s="7"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="3"/>
+      <c r="A221" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="4" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4219,43 +4215,31 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="4" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
-      <c r="A224" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A224" s="7"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3" ht="21">
-      <c r="A225" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A225" s="7"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
@@ -4266,7 +4250,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>3</v>
@@ -4276,8 +4260,8 @@
       <c r="A228" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B228" s="8" t="s">
-        <v>213</v>
+      <c r="B228" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>3</v>
@@ -4288,7 +4272,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4299,7 +4283,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4310,7 +4294,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4320,8 +4304,8 @@
       <c r="A232" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B232" s="5" t="s">
-        <v>217</v>
+      <c r="B232" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4332,7 +4316,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>3</v>
@@ -4343,7 +4327,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3</v>
@@ -4354,7 +4338,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>3</v>
@@ -4365,7 +4349,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>3</v>
@@ -4376,7 +4360,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>3</v>
@@ -4387,7 +4371,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>3</v>
@@ -4398,7 +4382,7 @@
         <v>206</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>3</v>
@@ -4409,7 +4393,7 @@
         <v>206</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>3</v>
@@ -4420,7 +4404,7 @@
         <v>206</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>3</v>
@@ -4431,7 +4415,7 @@
         <v>206</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>3</v>
@@ -4442,26 +4426,40 @@
         <v>206</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
-      <c r="B244" s="6"/>
-      <c r="C244" s="3"/>
+      <c r="A244" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="245" spans="1:3" ht="21">
-      <c r="B245" s="6"/>
-      <c r="C245" s="3"/>
+      <c r="A245" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="4" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4469,43 +4467,29 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="4" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
-      <c r="A248" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B248" s="6"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" ht="21">
-      <c r="A249" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B249" s="6"/>
+      <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
@@ -4516,7 +4500,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>3</v>
@@ -4527,7 +4511,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>3</v>
@@ -4538,7 +4522,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4549,7 +4533,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4560,7 +4544,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4571,7 +4555,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4582,7 +4566,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4593,7 +4577,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4604,7 +4588,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4615,7 +4599,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4626,7 +4610,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4637,7 +4621,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4648,7 +4632,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4659,7 +4643,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4670,7 +4654,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4681,7 +4665,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4692,7 +4676,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4703,7 +4687,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>3</v>
@@ -4714,7 +4698,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4725,7 +4709,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>3</v>
@@ -4736,7 +4720,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>3</v>
@@ -4747,7 +4731,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>3</v>
@@ -4758,7 +4742,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>3</v>
@@ -4769,7 +4753,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>3</v>
@@ -4780,7 +4764,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>3</v>
@@ -4791,7 +4775,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>3</v>
@@ -4802,7 +4786,7 @@
         <v>229</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>3</v>
@@ -4813,7 +4797,7 @@
         <v>229</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>3</v>
@@ -4824,7 +4808,7 @@
         <v>229</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>3</v>
@@ -4835,26 +4819,40 @@
         <v>229</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
-      <c r="B281" s="6"/>
-      <c r="C281" s="3"/>
+      <c r="A281" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="282" spans="1:3" ht="21">
-      <c r="B282" s="6"/>
-      <c r="C282" s="3"/>
+      <c r="A282" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="4" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4862,43 +4860,29 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="4" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
-      <c r="A285" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B285" s="6"/>
+      <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" ht="21">
-      <c r="A286" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B286" s="6"/>
+      <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
@@ -4909,7 +4893,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>3</v>
@@ -4920,7 +4904,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>3</v>
@@ -4931,7 +4915,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4942,7 +4926,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>3</v>
@@ -4953,7 +4937,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>3</v>
@@ -4964,7 +4948,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>3</v>
@@ -4975,7 +4959,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>3</v>
@@ -4986,7 +4970,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>3</v>
@@ -4997,7 +4981,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>3</v>
@@ -5008,7 +4992,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>3</v>
@@ -5019,7 +5003,7 @@
         <v>264</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>3</v>
@@ -5030,7 +5014,7 @@
         <v>264</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>3</v>
@@ -5041,7 +5025,7 @@
         <v>264</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>3</v>
@@ -5052,26 +5036,40 @@
         <v>264</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
-      <c r="B302" s="6"/>
-      <c r="C302" s="3"/>
+      <c r="A302" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="303" spans="1:3" ht="21">
-      <c r="B303" s="6"/>
-      <c r="C303" s="3"/>
+      <c r="A303" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>3</v>
@@ -5079,43 +5077,29 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
-      <c r="A306" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B306" s="6"/>
+      <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" ht="21">
-      <c r="A307" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B307" s="6"/>
+      <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -5126,7 +5110,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -5137,7 +5121,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -5148,7 +5132,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -5159,7 +5143,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -5170,7 +5154,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -5181,7 +5165,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -5192,7 +5176,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -5203,7 +5187,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>3</v>
@@ -5213,8 +5197,8 @@
       <c r="A317" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B317" s="8" t="s">
-        <v>298</v>
+      <c r="B317" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>3</v>
@@ -5225,7 +5209,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5236,7 +5220,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>3</v>
@@ -5247,7 +5231,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5257,8 +5241,8 @@
       <c r="A321" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B321" s="5" t="s">
-        <v>302</v>
+      <c r="B321" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5269,7 +5253,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5280,7 +5264,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5291,7 +5275,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5302,7 +5286,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5313,7 +5297,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5324,7 +5308,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5335,7 +5319,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5346,7 +5330,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5357,7 +5341,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5368,7 +5352,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>3</v>
@@ -5379,7 +5363,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>3</v>
@@ -5390,7 +5374,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5401,7 +5385,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5412,7 +5396,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>3</v>
@@ -5423,7 +5407,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>3</v>
@@ -5434,7 +5418,7 @@
         <v>284</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>3</v>
@@ -5445,7 +5429,7 @@
         <v>284</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>3</v>
@@ -5456,7 +5440,7 @@
         <v>284</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>3</v>
@@ -5467,7 +5451,7 @@
         <v>284</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>3</v>
@@ -5478,70 +5462,70 @@
         <v>284</v>
       </c>
       <c r="B341" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="21">
+      <c r="A342" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="21">
+      <c r="A343" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="21">
+      <c r="A344" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="21">
+      <c r="A345" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B345" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C341" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="21">
-      <c r="B342" s="6"/>
-      <c r="C342" s="3"/>
-    </row>
-    <row r="343" spans="1:3" ht="21">
-      <c r="B343" s="6"/>
-      <c r="C343" s="3"/>
-    </row>
-    <row r="344" spans="1:3" ht="21">
-      <c r="A344" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="21">
-      <c r="A345" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="21">
-      <c r="A346" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B346" s="6"/>
+      <c r="C346" s="3"/>
     </row>
     <row r="347" spans="1:3" ht="21">
-      <c r="A347" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B347" s="6"/>
+      <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5552,7 +5536,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5563,7 +5547,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5574,7 +5558,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>3</v>
@@ -5584,8 +5568,8 @@
       <c r="A352" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B352" s="8" t="s">
-        <v>332</v>
+      <c r="B352" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>3</v>
@@ -5596,7 +5580,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>3</v>
@@ -5607,7 +5591,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>3</v>
@@ -5618,7 +5602,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>3</v>
@@ -5628,8 +5612,8 @@
       <c r="A356" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B356" s="5" t="s">
-        <v>336</v>
+      <c r="B356" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>3</v>
@@ -5640,7 +5624,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>3</v>
@@ -5651,7 +5635,7 @@
         <v>323</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>3</v>
@@ -5662,7 +5646,7 @@
         <v>323</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>3</v>
@@ -5673,7 +5657,7 @@
         <v>323</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>3</v>
@@ -5684,26 +5668,40 @@
         <v>323</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
-      <c r="B362" s="6"/>
-      <c r="C362" s="3"/>
+      <c r="A362" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="363" spans="1:3" ht="21">
-      <c r="B363" s="6"/>
-      <c r="C363" s="3"/>
+      <c r="A363" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>3</v>
@@ -5711,43 +5709,29 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
-      <c r="A366" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B366" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B366" s="6"/>
+      <c r="C366" s="3"/>
     </row>
     <row r="367" spans="1:3" ht="21">
-      <c r="A367" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B367" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B367" s="6"/>
+      <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5758,7 +5742,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5769,7 +5753,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5780,7 +5764,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5791,7 +5775,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5802,7 +5786,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5813,7 +5797,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5824,7 +5808,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5835,7 +5819,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5846,7 +5830,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5857,7 +5841,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5868,7 +5852,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5879,7 +5863,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5890,7 +5874,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5901,7 +5885,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5912,7 +5896,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5923,7 +5907,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5934,7 +5918,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5945,7 +5929,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5956,7 +5940,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5967,7 +5951,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5978,7 +5962,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5989,7 +5973,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -6000,7 +5984,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -6011,7 +5995,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -6022,7 +6006,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -6033,7 +6017,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -6044,7 +6028,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -6055,7 +6039,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -6066,7 +6050,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>3</v>
@@ -6077,7 +6061,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>3</v>
@@ -6088,7 +6072,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>3</v>
@@ -6099,7 +6083,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>3</v>
@@ -6110,7 +6094,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>3</v>
@@ -6121,7 +6105,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>3</v>
@@ -6132,7 +6116,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>3</v>
@@ -6143,7 +6127,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>3</v>
@@ -6154,7 +6138,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>3</v>
@@ -6165,7 +6149,7 @@
         <v>342</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>3</v>
@@ -6176,26 +6160,40 @@
         <v>342</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
-      <c r="B408" s="6"/>
-      <c r="C408" s="3"/>
+      <c r="A408" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="409" spans="1:3" ht="21">
-      <c r="B409" s="6"/>
-      <c r="C409" s="3"/>
+      <c r="A409" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>3</v>
@@ -6203,43 +6201,29 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
-      <c r="A412" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B412" s="6"/>
+      <c r="C412" s="3"/>
     </row>
     <row r="413" spans="1:3" ht="21">
-      <c r="A413" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B413" s="6"/>
+      <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>3</v>
@@ -6250,70 +6234,70 @@
         <v>386</v>
       </c>
       <c r="B415" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="21">
+      <c r="A416" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="21">
+      <c r="A417" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="21">
+      <c r="A418" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="21">
+      <c r="A419" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B419" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C415" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="21">
-      <c r="B416" s="6"/>
-      <c r="C416" s="3"/>
-    </row>
-    <row r="417" spans="1:3" ht="21">
-      <c r="B417" s="6"/>
-      <c r="C417" s="3"/>
-    </row>
-    <row r="418" spans="1:3" ht="21">
-      <c r="A418" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="21">
-      <c r="A419" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>394</v>
-      </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
-      <c r="A420" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B420" s="6"/>
+      <c r="C420" s="3"/>
     </row>
     <row r="421" spans="1:3" ht="21">
-      <c r="A421" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B421" s="6"/>
+      <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6324,7 +6308,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6335,7 +6319,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6346,7 +6330,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6357,7 +6341,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6368,7 +6352,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6379,7 +6363,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6390,7 +6374,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>403</v>
+        <v>272</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6401,7 +6385,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6412,7 +6396,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6423,7 +6407,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6434,7 +6418,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6445,7 +6429,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6456,7 +6440,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6467,7 +6451,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6478,7 +6462,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6489,7 +6473,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6500,7 +6484,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6511,7 +6495,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6522,7 +6506,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6533,7 +6517,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6544,7 +6528,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6555,7 +6539,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6566,7 +6550,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6577,7 +6561,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6588,7 +6572,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6599,7 +6583,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6610,7 +6594,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6621,7 +6605,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6632,7 +6616,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6643,7 +6627,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6654,7 +6638,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6665,7 +6649,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6676,7 +6660,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6687,7 +6671,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6698,7 +6682,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6709,7 +6693,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6720,7 +6704,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6731,7 +6715,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6742,7 +6726,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6753,7 +6737,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6764,7 +6748,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6775,7 +6759,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6786,7 +6770,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6797,7 +6781,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6808,7 +6792,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>3</v>
@@ -6819,7 +6803,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>3</v>
@@ -6830,7 +6814,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>3</v>
@@ -6841,7 +6825,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>3</v>
@@ -6852,7 +6836,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>3</v>
@@ -6863,7 +6847,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>3</v>
@@ -6874,7 +6858,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>3</v>
@@ -6885,7 +6869,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>3</v>
@@ -6896,7 +6880,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>3</v>
@@ -6907,7 +6891,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>3</v>
@@ -6918,27 +6902,40 @@
         <v>392</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
-      <c r="B478" s="6"/>
-      <c r="C478" s="3"/>
+      <c r="A478" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="479" spans="1:3" ht="21">
-      <c r="A479" s="7"/>
-      <c r="B479" s="6"/>
-      <c r="C479" s="3"/>
+      <c r="A479" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="4" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>3</v>
@@ -6946,43 +6943,30 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="4" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="21">
-      <c r="A482" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B482" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B482" s="6"/>
+      <c r="C482" s="3"/>
     </row>
     <row r="483" spans="1:3" ht="21">
-      <c r="A483" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B483" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A483" s="7"/>
+      <c r="B483" s="6"/>
+      <c r="C483" s="3"/>
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>3</v>
@@ -6993,7 +6977,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>3</v>
@@ -7004,7 +6988,7 @@
         <v>452</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>3</v>
@@ -7015,7 +6999,7 @@
         <v>452</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>3</v>
@@ -7026,7 +7010,7 @@
         <v>452</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>3</v>
@@ -7037,9 +7021,53 @@
         <v>452</v>
       </c>
       <c r="B489" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="21">
+      <c r="A490" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="21">
+      <c r="A491" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="21">
+      <c r="A492" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="21">
+      <c r="A493" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B493" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C489" s="3" t="s">
+      <c r="C493" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7203,293 +7231,293 @@
     <hyperlink ref="B178" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
     <hyperlink ref="B179" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
     <hyperlink ref="B180" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B185" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B186" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B187" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B188" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B189" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B190" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B191" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B192" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B193" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B194" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B195" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B196" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B197" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B198" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B199" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B200" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B201" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B202" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B203" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B204" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B205" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B206" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B207" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B208" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B209" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B210" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B211" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B212" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B213" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B214" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B215" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B216" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B217" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B218" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B219" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B222" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B223" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B224" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B225" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B226" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B227" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B228" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B229" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B230" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B231" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B232" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B233" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B234" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B235" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B236" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B237" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B238" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B239" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B240" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B241" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B242" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B243" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B246" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B247" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B248" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B249" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B250" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B251" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B252" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B253" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B254" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B255" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B256" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B257" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B258" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B259" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B260" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B261" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B262" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B263" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B264" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B265" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B266" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B267" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B268" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B269" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B270" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B271" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B272" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B273" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B274" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B275" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B276" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B277" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B278" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B279" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B280" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B283" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B284" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B285" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B286" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B287" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B288" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B289" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B290" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B291" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B292" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B293" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B294" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B295" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B296" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B297" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B298" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B299" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B300" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B301" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B304" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B305" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B306" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B307" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B308" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B309" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B310" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B311" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B312" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B313" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B314" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B315" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B316" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B317" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B318" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B319" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B320" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B321" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B322" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B323" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B324" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B325" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B326" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B327" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B328" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B329" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B330" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B331" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B332" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B333" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B334" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B335" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B336" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B337" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B338" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B339" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B340" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B341" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B344" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B345" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B346" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B347" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B348" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B349" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B350" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B351" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B352" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B353" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B354" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B355" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B356" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B357" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B358" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B359" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B360" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B361" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B365" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B366" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B367" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B368" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B369" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B370" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B371" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B372" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B373" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B374" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B375" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B376" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B377" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B378" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B379" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B380" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B381" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B382" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B383" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B384" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B385" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B386" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B387" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B388" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B389" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B390" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B391" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B392" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B393" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B394" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B395" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B396" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B397" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B398" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B399" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B400" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B401" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B402" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B404" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B403" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B405" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B406" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B407" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B410" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B411" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B412" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B413" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B414" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B415" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B418" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B419" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B420" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B421" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B422" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B423" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B424" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B425" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B426" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B427" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B428" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B429" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B430" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B431" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B432" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B433" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B434" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B435" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B436" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B437" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B438" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B439" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B440" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B441" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B442" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B443" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B444" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B445" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B446" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B447" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B448" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B449" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B450" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B451" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B452" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B453" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B454" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B455" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B456" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B457" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B459" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B458" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B460" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B461" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B462" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B463" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B464" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B465" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B466" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B467" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B468" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B469" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B470" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B477" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B476" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B475" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B474" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B473" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B472" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B471" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B480" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B481" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B482" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B483" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B484" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B485" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B486" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B489" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B487" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B488" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B364" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B189" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B190" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B191" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B192" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B193" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B194" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B195" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B196" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B197" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B198" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B199" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B200" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B201" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B202" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B203" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B204" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B205" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B206" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B207" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B208" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B209" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B210" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B211" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B212" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B213" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B214" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B215" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B216" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B217" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B218" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B219" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B220" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B221" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B222" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B223" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B226" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B227" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B228" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B229" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B230" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B231" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B232" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B233" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B234" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B235" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B236" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B237" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B238" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B239" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B240" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B241" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B242" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B243" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B244" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B245" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B246" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B247" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B250" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B251" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B252" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B253" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B254" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B255" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B256" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B257" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B258" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B259" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B260" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B261" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B262" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B263" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B264" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B265" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B266" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B267" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B268" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B269" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B270" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B271" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B272" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B273" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B274" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B275" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B276" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B277" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B278" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B279" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B280" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B281" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B282" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B283" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B284" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B287" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B288" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B289" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B290" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B291" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B292" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B293" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B294" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B295" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B296" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B297" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B298" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B299" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B300" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B301" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B302" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B303" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B304" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B305" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B308" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B309" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B310" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B311" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B312" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B313" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B314" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B315" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B316" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B317" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B318" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B319" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B320" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B321" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B322" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B323" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B324" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B325" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B326" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B327" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B328" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B329" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B330" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B331" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B332" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B333" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B334" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B335" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B336" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B337" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B338" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B339" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B340" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B341" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B342" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B343" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B344" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B345" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B348" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B349" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B350" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B351" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B352" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B353" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B354" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B355" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B356" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B357" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B358" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B359" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B360" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B361" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B362" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B363" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B364" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B365" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B369" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B370" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B371" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B372" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B373" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B374" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B375" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B376" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B377" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B378" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B379" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B380" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B381" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B382" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B383" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B384" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B385" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B386" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B387" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B388" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B389" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B390" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B391" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B392" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B393" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B394" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B395" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B396" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B397" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B398" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B399" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B400" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B401" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B402" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B403" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B404" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B405" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B406" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B408" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B407" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B409" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B410" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B411" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B414" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B415" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B416" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B417" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B418" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B419" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B422" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B423" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B424" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B425" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B426" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B427" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B428" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B429" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B430" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B431" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B432" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B433" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B434" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B435" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B436" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B437" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B438" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B439" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B440" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B441" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B442" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B443" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B444" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B445" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B446" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B447" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B448" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B449" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B450" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B451" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B452" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B453" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B454" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B455" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B456" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B457" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B458" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B459" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B460" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B461" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B463" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B462" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B464" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B465" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B466" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B467" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B468" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B469" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B470" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B471" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B472" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B473" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B474" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B481" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B480" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B479" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B478" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B477" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B476" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B475" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B484" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B485" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B486" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B487" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B488" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B489" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B490" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B493" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B491" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B492" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B368" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9D793F-2571-42B4-B16F-6DC22103661B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D52C02-0627-4171-A5BD-8156BC1566A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:C493"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3521,7 +3521,7 @@
         <v>145</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D52C02-0627-4171-A5BD-8156BC1566A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104323DE-6BEB-45AD-BBF6-83CA7532BEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3411,7 +3411,7 @@
         <v>135</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104323DE-6BEB-45AD-BBF6-83CA7532BEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C324A-8CE1-4FAC-A01A-16A1F218D397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="476">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3554,7 +3554,7 @@
         <v>148</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
@@ -3719,7 +3719,7 @@
         <v>163</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="21">
@@ -3822,7 +3822,9 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="19.5">
-      <c r="A184" s="7"/>
+      <c r="A184" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" ht="19.5">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C324A-8CE1-4FAC-A01A-16A1F218D397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F79FCB-8F83-497B-9724-7CE60F5E7037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3422,7 +3422,7 @@
         <v>136</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3444,7 +3444,7 @@
         <v>138</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F79FCB-8F83-497B-9724-7CE60F5E7037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDFD7C1-CCA5-4042-937B-8BAF4184BF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1453,6 +1453,9 @@
   </si>
   <si>
     <t>Find Middle of the Linked List from Striver</t>
+  </si>
+  <si>
+    <t>Rotate a Linked list from Striver</t>
   </si>
 </sst>
 </file>
@@ -1892,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3587,7 +3590,7 @@
         <v>151</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
@@ -3697,7 +3700,7 @@
         <v>161</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
@@ -3825,7 +3828,12 @@
       <c r="A184" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="B184" t="s">
+        <v>476</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="185" spans="1:3" ht="19.5">
       <c r="A185" s="7"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDFD7C1-CCA5-4042-937B-8BAF4184BF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96BCD4-8B1F-49E9-930D-3031BFEB096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1455,7 +1455,7 @@
     <t>Find Middle of the Linked List from Striver</t>
   </si>
   <si>
-    <t>Rotate a Linked list from Striver</t>
+    <t>3 Sum from Striver</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C493"/>
+  <dimension ref="A1:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2393,9 +2393,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="4"/>
@@ -2403,44 +2409,26 @@
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" ht="21">
-      <c r="A50" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="21">
-      <c r="A51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>465</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="21">
-      <c r="A52" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>3</v>
@@ -2451,10 +2439,10 @@
         <v>41</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">
@@ -2462,7 +2450,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>3</v>
@@ -2473,7 +2461,7 @@
         <v>41</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>3</v>
@@ -2484,10 +2472,10 @@
         <v>41</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>464</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2495,7 +2483,7 @@
         <v>41</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>3</v>
@@ -2506,59 +2494,59 @@
         <v>41</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="21">
+      <c r="A60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="21">
+      <c r="A61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="21">
+      <c r="A62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
-      <c r="A61" s="4"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" ht="21">
-      <c r="A62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="21">
-      <c r="A63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
-      <c r="A64" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>465</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>56</v>
+      <c r="B65" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
@@ -2566,10 +2554,10 @@
         <v>52</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
@@ -2577,18 +2565,18 @@
         <v>52</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>59</v>
+      <c r="B68" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>3</v>
@@ -2599,7 +2587,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>3</v>
@@ -2610,7 +2598,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>3</v>
@@ -2621,7 +2609,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>3</v>
@@ -2632,7 +2620,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>3</v>
@@ -2643,7 +2631,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>3</v>
@@ -2654,7 +2642,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>3</v>
@@ -2665,7 +2653,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>3</v>
@@ -2676,7 +2664,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>3</v>
@@ -2687,7 +2675,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>3</v>
@@ -2698,7 +2686,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>3</v>
@@ -2709,7 +2697,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>3</v>
@@ -2720,7 +2708,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>3</v>
@@ -2731,7 +2719,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>3</v>
@@ -2742,7 +2730,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>3</v>
@@ -2753,7 +2741,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -2764,7 +2752,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>3</v>
@@ -2775,7 +2763,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>3</v>
@@ -2786,7 +2774,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>3</v>
@@ -2797,7 +2785,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>3</v>
@@ -2808,7 +2796,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>3</v>
@@ -2819,7 +2807,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>3</v>
@@ -2830,7 +2818,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -2841,7 +2829,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>3</v>
@@ -2852,7 +2840,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -2863,7 +2851,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -2874,7 +2862,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>3</v>
@@ -2885,7 +2873,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>3</v>
@@ -2896,7 +2884,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>3</v>
@@ -2907,7 +2895,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>3</v>
@@ -2918,7 +2906,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>3</v>
@@ -2929,7 +2917,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>3</v>
@@ -2940,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>3</v>
@@ -2951,7 +2939,7 @@
         <v>52</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>3</v>
@@ -2962,7 +2950,7 @@
         <v>52</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>3</v>
@@ -2973,7 +2961,7 @@
         <v>52</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>3</v>
@@ -2984,56 +2972,56 @@
         <v>52</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="105" spans="1:3" ht="21">
+      <c r="A105" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="106" spans="1:3" ht="21">
-      <c r="A106" s="7"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="4" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
-      <c r="A108" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="109" spans="1:3" ht="21">
-      <c r="A109" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A109" s="7"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>3</v>
@@ -3044,7 +3032,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>3</v>
@@ -3055,7 +3043,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>3</v>
@@ -3066,7 +3054,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>3</v>
@@ -3077,7 +3065,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>3</v>
@@ -3088,7 +3076,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>3</v>
@@ -3099,7 +3087,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>3</v>
@@ -3110,7 +3098,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>3</v>
@@ -3121,7 +3109,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>3</v>
@@ -3132,7 +3120,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>3</v>
@@ -3143,7 +3131,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>3</v>
@@ -3154,7 +3142,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>3</v>
@@ -3165,7 +3153,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>3</v>
@@ -3176,7 +3164,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>3</v>
@@ -3187,7 +3175,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>3</v>
@@ -3198,7 +3186,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>3</v>
@@ -3209,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>3</v>
@@ -3220,7 +3208,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>3</v>
@@ -3231,7 +3219,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>3</v>
@@ -3242,7 +3230,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>3</v>
@@ -3253,7 +3241,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>3</v>
@@ -3264,7 +3252,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>3</v>
@@ -3275,7 +3263,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>3</v>
@@ -3286,7 +3274,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>3</v>
@@ -3297,7 +3285,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>3</v>
@@ -3308,7 +3296,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>3</v>
@@ -3319,7 +3307,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>3</v>
@@ -3330,7 +3318,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>3</v>
@@ -3341,7 +3329,7 @@
         <v>96</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>3</v>
@@ -3352,7 +3340,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>3</v>
@@ -3363,7 +3351,7 @@
         <v>96</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>3</v>
@@ -3374,7 +3362,7 @@
         <v>96</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>3</v>
@@ -3385,58 +3373,58 @@
         <v>96</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="21">
+      <c r="A143" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="21">
+      <c r="A144" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="21">
+      <c r="A145" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="21">
-      <c r="B144" s="6"/>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:3" ht="21">
-      <c r="A145" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="C145" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="21">
-      <c r="A146" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
-      <c r="A147" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>465</v>
-      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3444,7 +3432,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>465</v>
@@ -3455,10 +3443,10 @@
         <v>133</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3466,7 +3454,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>3</v>
@@ -3477,10 +3465,10 @@
         <v>133</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
@@ -3488,7 +3476,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>3</v>
@@ -3499,10 +3487,10 @@
         <v>133</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
@@ -3510,7 +3498,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>3</v>
@@ -3521,10 +3509,10 @@
         <v>133</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3532,10 +3520,10 @@
         <v>133</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
@@ -3543,7 +3531,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>3</v>
@@ -3554,7 +3542,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>465</v>
@@ -3565,7 +3553,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>3</v>
@@ -3576,7 +3564,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>3</v>
@@ -3587,7 +3575,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>465</v>
@@ -3598,7 +3586,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>3</v>
@@ -3609,7 +3597,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>3</v>
@@ -3620,7 +3608,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>3</v>
@@ -3631,7 +3619,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>3</v>
@@ -3642,7 +3630,7 @@
         <v>133</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>3</v>
@@ -3653,7 +3641,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>3</v>
@@ -3664,7 +3652,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>3</v>
@@ -3674,8 +3662,8 @@
       <c r="A170" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>159</v>
+      <c r="B170" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>3</v>
@@ -3685,8 +3673,8 @@
       <c r="A171" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>160</v>
+      <c r="B171" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>3</v>
@@ -3697,18 +3685,18 @@
         <v>133</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>162</v>
+      <c r="B173" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>3</v>
@@ -3718,11 +3706,11 @@
       <c r="A174" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>163</v>
+      <c r="B174" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="21">
@@ -3730,7 +3718,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>3</v>
@@ -3741,7 +3729,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>3</v>
@@ -3752,10 +3740,10 @@
         <v>133</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3763,7 +3751,7 @@
         <v>133</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>3</v>
@@ -3774,10 +3762,10 @@
         <v>133</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3785,43 +3773,43 @@
         <v>133</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="19.5">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B181" t="s">
-        <v>475</v>
+      <c r="B181" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="19.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B182" t="s">
-        <v>474</v>
+      <c r="B182" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="19.5">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B183" t="s">
-        <v>473</v>
+      <c r="B183" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="19.5">
@@ -3829,65 +3817,60 @@
         <v>133</v>
       </c>
       <c r="B184" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="19.5">
-      <c r="A185" s="7"/>
-      <c r="C185" s="3"/>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="C186" s="3"/>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="A185" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B185" t="s">
+        <v>474</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="19.5">
+      <c r="A186" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B186" t="s">
+        <v>473</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="19.5">
+      <c r="A187" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" ht="21">
-      <c r="B188" s="6"/>
+    <row r="188" spans="1:3" ht="19.5">
+      <c r="A188" s="7"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" ht="21">
-      <c r="A189" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
-      <c r="A190" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="189" spans="1:3">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" ht="21">
-      <c r="A191" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3898,7 +3881,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3909,7 +3892,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3920,7 +3903,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3931,7 +3914,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3942,7 +3925,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3953,7 +3936,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3964,7 +3947,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3975,7 +3958,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3986,7 +3969,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -3997,7 +3980,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -4008,7 +3991,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -4019,7 +4002,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -4030,7 +4013,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -4041,7 +4024,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -4052,7 +4035,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -4063,7 +4046,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -4074,7 +4057,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>3</v>
@@ -4085,7 +4068,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>3</v>
@@ -4096,7 +4079,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>3</v>
@@ -4107,7 +4090,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>3</v>
@@ -4118,7 +4101,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>3</v>
@@ -4129,7 +4112,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>3</v>
@@ -4140,7 +4123,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>3</v>
@@ -4151,7 +4134,7 @@
         <v>170</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>3</v>
@@ -4162,7 +4145,7 @@
         <v>170</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>3</v>
@@ -4173,7 +4156,7 @@
         <v>170</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>3</v>
@@ -4184,7 +4167,7 @@
         <v>170</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>3</v>
@@ -4195,7 +4178,7 @@
         <v>170</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>3</v>
@@ -4206,7 +4189,7 @@
         <v>170</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>3</v>
@@ -4217,7 +4200,7 @@
         <v>170</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4228,61 +4211,61 @@
         <v>170</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
-      <c r="A224" s="7"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="3"/>
+      <c r="A224" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="225" spans="1:3" ht="21">
-      <c r="A225" s="7"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="3"/>
+      <c r="A225" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="4" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
-      <c r="A227" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A227" s="7"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" ht="21">
-      <c r="A228" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A228" s="7"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4293,7 +4276,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4304,7 +4287,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4314,8 +4297,8 @@
       <c r="A232" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B232" s="8" t="s">
-        <v>213</v>
+      <c r="B232" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4326,7 +4309,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>3</v>
@@ -4337,7 +4320,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>3</v>
@@ -4347,8 +4330,8 @@
       <c r="A235" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>216</v>
+      <c r="B235" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>3</v>
@@ -4359,7 +4342,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>3</v>
@@ -4370,7 +4353,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>3</v>
@@ -4381,7 +4364,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>3</v>
@@ -4392,7 +4375,7 @@
         <v>206</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>3</v>
@@ -4403,7 +4386,7 @@
         <v>206</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>3</v>
@@ -4414,7 +4397,7 @@
         <v>206</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>3</v>
@@ -4425,7 +4408,7 @@
         <v>206</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>3</v>
@@ -4436,7 +4419,7 @@
         <v>206</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>3</v>
@@ -4447,7 +4430,7 @@
         <v>206</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>3</v>
@@ -4458,7 +4441,7 @@
         <v>206</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>3</v>
@@ -4469,7 +4452,7 @@
         <v>206</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4480,59 +4463,59 @@
         <v>206</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
-      <c r="B248" s="6"/>
-      <c r="C248" s="3"/>
+      <c r="A248" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="249" spans="1:3" ht="21">
-      <c r="B249" s="6"/>
-      <c r="C249" s="3"/>
+      <c r="A249" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="4" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
-      <c r="A251" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B251" s="6"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" ht="21">
-      <c r="A252" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B252" s="6"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4543,7 +4526,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4554,7 +4537,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4565,7 +4548,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4576,7 +4559,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4587,7 +4570,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4598,7 +4581,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4609,7 +4592,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4620,7 +4603,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4631,7 +4614,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4642,7 +4625,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4653,7 +4636,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4664,7 +4647,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4675,7 +4658,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4686,7 +4669,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4697,7 +4680,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>3</v>
@@ -4708,7 +4691,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4719,7 +4702,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>3</v>
@@ -4730,7 +4713,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>3</v>
@@ -4741,7 +4724,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>3</v>
@@ -4752,7 +4735,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>3</v>
@@ -4763,7 +4746,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>3</v>
@@ -4774,7 +4757,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>3</v>
@@ -4785,7 +4768,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>3</v>
@@ -4796,7 +4779,7 @@
         <v>229</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>3</v>
@@ -4807,7 +4790,7 @@
         <v>229</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>3</v>
@@ -4818,7 +4801,7 @@
         <v>229</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>3</v>
@@ -4829,7 +4812,7 @@
         <v>229</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>3</v>
@@ -4840,7 +4823,7 @@
         <v>229</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>3</v>
@@ -4851,7 +4834,7 @@
         <v>229</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>3</v>
@@ -4862,7 +4845,7 @@
         <v>229</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4873,59 +4856,59 @@
         <v>229</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
-      <c r="B285" s="6"/>
-      <c r="C285" s="3"/>
+      <c r="A285" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="286" spans="1:3" ht="21">
-      <c r="B286" s="6"/>
-      <c r="C286" s="3"/>
+      <c r="A286" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="4" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
-      <c r="A288" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B288" s="6"/>
+      <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" ht="21">
-      <c r="A289" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B289" s="6"/>
+      <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4936,7 +4919,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>3</v>
@@ -4947,7 +4930,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>3</v>
@@ -4958,7 +4941,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>3</v>
@@ -4969,7 +4952,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>3</v>
@@ -4980,7 +4963,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>3</v>
@@ -4991,7 +4974,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>3</v>
@@ -5002,7 +4985,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>3</v>
@@ -5013,7 +4996,7 @@
         <v>264</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>3</v>
@@ -5024,7 +5007,7 @@
         <v>264</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>3</v>
@@ -5035,7 +5018,7 @@
         <v>264</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>3</v>
@@ -5046,7 +5029,7 @@
         <v>264</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>3</v>
@@ -5057,7 +5040,7 @@
         <v>264</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>3</v>
@@ -5068,7 +5051,7 @@
         <v>264</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>3</v>
@@ -5079,7 +5062,7 @@
         <v>264</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>3</v>
@@ -5090,59 +5073,59 @@
         <v>264</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
-      <c r="B306" s="6"/>
-      <c r="C306" s="3"/>
+      <c r="A306" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="307" spans="1:3" ht="21">
-      <c r="B307" s="6"/>
-      <c r="C307" s="3"/>
+      <c r="A307" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
-      <c r="A309" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B309" s="6"/>
+      <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" ht="21">
-      <c r="A310" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B310" s="6"/>
+      <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -5153,7 +5136,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -5164,7 +5147,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -5175,7 +5158,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -5186,7 +5169,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -5197,7 +5180,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>3</v>
@@ -5208,7 +5191,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>3</v>
@@ -5219,7 +5202,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5230,7 +5213,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>3</v>
@@ -5241,7 +5224,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5251,8 +5234,8 @@
       <c r="A321" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B321" s="8" t="s">
-        <v>298</v>
+      <c r="B321" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5263,7 +5246,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5274,7 +5257,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5284,8 +5267,8 @@
       <c r="A324" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B324" s="5" t="s">
-        <v>301</v>
+      <c r="B324" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5296,7 +5279,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5307,7 +5290,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5318,7 +5301,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5329,7 +5312,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5340,7 +5323,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5351,7 +5334,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5362,7 +5345,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>3</v>
@@ -5373,7 +5356,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>3</v>
@@ -5384,7 +5367,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5395,7 +5378,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5406,7 +5389,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>3</v>
@@ -5417,7 +5400,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>3</v>
@@ -5428,7 +5411,7 @@
         <v>284</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>3</v>
@@ -5439,7 +5422,7 @@
         <v>284</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>3</v>
@@ -5450,7 +5433,7 @@
         <v>284</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>3</v>
@@ -5461,7 +5444,7 @@
         <v>284</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>3</v>
@@ -5472,7 +5455,7 @@
         <v>284</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>3</v>
@@ -5483,7 +5466,7 @@
         <v>284</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>3</v>
@@ -5494,7 +5477,7 @@
         <v>284</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>3</v>
@@ -5505,7 +5488,7 @@
         <v>284</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5516,59 +5499,59 @@
         <v>284</v>
       </c>
       <c r="B345" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="21">
+      <c r="A346" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="21">
+      <c r="A347" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="21">
+      <c r="A348" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B348" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C345" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="21">
-      <c r="B346" s="6"/>
-      <c r="C346" s="3"/>
-    </row>
-    <row r="347" spans="1:3" ht="21">
-      <c r="B347" s="6"/>
-      <c r="C347" s="3"/>
-    </row>
-    <row r="348" spans="1:3" ht="21">
-      <c r="A348" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">
-      <c r="A349" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B349" s="6"/>
+      <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:3" ht="21">
-      <c r="A350" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B350" s="6"/>
+      <c r="C350" s="3"/>
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>3</v>
@@ -5579,7 +5562,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>3</v>
@@ -5590,7 +5573,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>3</v>
@@ -5601,7 +5584,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>3</v>
@@ -5612,7 +5595,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>3</v>
@@ -5622,8 +5605,8 @@
       <c r="A356" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B356" s="8" t="s">
-        <v>332</v>
+      <c r="B356" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>3</v>
@@ -5634,7 +5617,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>3</v>
@@ -5645,7 +5628,7 @@
         <v>323</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>3</v>
@@ -5655,8 +5638,8 @@
       <c r="A359" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B359" s="5" t="s">
-        <v>335</v>
+      <c r="B359" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>3</v>
@@ -5667,7 +5650,7 @@
         <v>323</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>3</v>
@@ -5678,7 +5661,7 @@
         <v>323</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>3</v>
@@ -5689,7 +5672,7 @@
         <v>323</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>3</v>
@@ -5700,7 +5683,7 @@
         <v>323</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>3</v>
@@ -5711,7 +5694,7 @@
         <v>323</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>3</v>
@@ -5722,59 +5705,59 @@
         <v>323</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
-      <c r="B366" s="6"/>
-      <c r="C366" s="3"/>
+      <c r="A366" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="367" spans="1:3" ht="21">
-      <c r="B367" s="6"/>
-      <c r="C367" s="3"/>
+      <c r="A367" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
-      <c r="A369" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B369" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B369" s="6"/>
+      <c r="C369" s="3"/>
     </row>
     <row r="370" spans="1:3" ht="21">
-      <c r="A370" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B370" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B370" s="6"/>
+      <c r="C370" s="3"/>
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5785,7 +5768,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5796,7 +5779,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5807,7 +5790,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5818,7 +5801,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5829,7 +5812,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5840,7 +5823,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5851,7 +5834,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5862,7 +5845,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5873,7 +5856,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5884,7 +5867,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5895,7 +5878,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5906,7 +5889,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5917,7 +5900,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5928,7 +5911,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5939,7 +5922,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5950,7 +5933,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5961,7 +5944,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5972,7 +5955,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5983,7 +5966,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5994,7 +5977,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -6005,7 +5988,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -6016,7 +5999,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -6027,7 +6010,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -6038,7 +6021,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -6049,7 +6032,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -6060,7 +6043,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>3</v>
@@ -6071,7 +6054,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>3</v>
@@ -6082,7 +6065,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>3</v>
@@ -6093,7 +6076,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>3</v>
@@ -6104,7 +6087,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>3</v>
@@ -6115,7 +6098,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>3</v>
@@ -6126,7 +6109,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>3</v>
@@ -6137,7 +6120,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>3</v>
@@ -6148,7 +6131,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>3</v>
@@ -6159,7 +6142,7 @@
         <v>342</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>3</v>
@@ -6170,7 +6153,7 @@
         <v>342</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>3</v>
@@ -6181,7 +6164,7 @@
         <v>342</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>3</v>
@@ -6192,7 +6175,7 @@
         <v>342</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>3</v>
@@ -6203,7 +6186,7 @@
         <v>342</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>3</v>
@@ -6214,59 +6197,59 @@
         <v>342</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
-      <c r="B412" s="6"/>
-      <c r="C412" s="3"/>
+      <c r="A412" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="413" spans="1:3" ht="21">
-      <c r="B413" s="6"/>
-      <c r="C413" s="3"/>
+      <c r="A413" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B415" s="6"/>
+      <c r="C415" s="3"/>
     </row>
     <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B416" s="6"/>
+      <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>3</v>
@@ -6277,7 +6260,7 @@
         <v>386</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6288,59 +6271,59 @@
         <v>386</v>
       </c>
       <c r="B419" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="21">
+      <c r="A420" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="21">
+      <c r="A421" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="21">
+      <c r="A422" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B422" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C419" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="21">
-      <c r="B420" s="6"/>
-      <c r="C420" s="3"/>
-    </row>
-    <row r="421" spans="1:3" ht="21">
-      <c r="B421" s="6"/>
-      <c r="C421" s="3"/>
-    </row>
-    <row r="422" spans="1:3" ht="21">
-      <c r="A422" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
-      <c r="A423" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B423" s="6"/>
+      <c r="C423" s="3"/>
     </row>
     <row r="424" spans="1:3" ht="21">
-      <c r="A424" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B424" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B424" s="6"/>
+      <c r="C424" s="3"/>
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6351,7 +6334,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6362,7 +6345,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6373,7 +6356,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6384,7 +6367,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>272</v>
+        <v>397</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6395,7 +6378,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6406,7 +6389,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6417,7 +6400,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6428,7 +6411,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6439,7 +6422,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6450,7 +6433,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6461,7 +6444,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6472,7 +6455,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6483,7 +6466,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6494,7 +6477,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6505,7 +6488,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6516,7 +6499,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6527,7 +6510,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6538,7 +6521,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6549,7 +6532,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6560,7 +6543,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6571,7 +6554,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6582,7 +6565,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6593,7 +6576,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6604,7 +6587,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6615,7 +6598,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6626,7 +6609,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6637,7 +6620,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6648,7 +6631,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6659,7 +6642,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6670,7 +6653,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6681,7 +6664,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6692,7 +6675,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6703,7 +6686,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6714,7 +6697,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6725,7 +6708,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6736,7 +6719,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6747,7 +6730,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6758,7 +6741,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6769,7 +6752,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6780,7 +6763,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6791,7 +6774,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6802,7 +6785,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>3</v>
@@ -6813,7 +6796,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>3</v>
@@ -6824,7 +6807,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>3</v>
@@ -6835,7 +6818,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>3</v>
@@ -6846,7 +6829,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>3</v>
@@ -6857,7 +6840,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>3</v>
@@ -6868,7 +6851,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>3</v>
@@ -6879,7 +6862,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>3</v>
@@ -6890,7 +6873,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>3</v>
@@ -6901,7 +6884,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>3</v>
@@ -6912,7 +6895,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>3</v>
@@ -6923,7 +6906,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>3</v>
@@ -6934,7 +6917,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>3</v>
@@ -6945,7 +6928,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>3</v>
@@ -6956,60 +6939,60 @@
         <v>392</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="21">
-      <c r="B482" s="6"/>
-      <c r="C482" s="3"/>
+      <c r="A482" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="483" spans="1:3" ht="21">
-      <c r="A483" s="7"/>
-      <c r="B483" s="6"/>
-      <c r="C483" s="3"/>
+      <c r="A483" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="4" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="21">
-      <c r="A485" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B485" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B485" s="6"/>
+      <c r="C485" s="3"/>
     </row>
     <row r="486" spans="1:3" ht="21">
-      <c r="A486" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B486" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A486" s="7"/>
+      <c r="B486" s="6"/>
+      <c r="C486" s="3"/>
     </row>
     <row r="487" spans="1:3" ht="21">
       <c r="A487" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>3</v>
@@ -7020,7 +7003,7 @@
         <v>452</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>3</v>
@@ -7031,7 +7014,7 @@
         <v>452</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>3</v>
@@ -7042,7 +7025,7 @@
         <v>452</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>3</v>
@@ -7053,7 +7036,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>3</v>
@@ -7064,7 +7047,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>3</v>
@@ -7075,9 +7058,42 @@
         <v>452</v>
       </c>
       <c r="B493" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="21">
+      <c r="A494" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="21">
+      <c r="A495" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="21">
+      <c r="A496" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B496" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C493" s="3" t="s">
+      <c r="C496" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7119,415 +7135,415 @@
     <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B50" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B51" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B52" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B53" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B54" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B55" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B56" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B57" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B59" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B62" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B63" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B64" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B66" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B67" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B68" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B69" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B70" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B71" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B72" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B73" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B75" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B76" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B77" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B78" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B79" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B80" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B81" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B82" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B83" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B84" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B85" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B86" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B87" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B88" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B89" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B90" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B91" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B92" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B93" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B94" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B95" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B96" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B97" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B98" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B99" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B100" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B101" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B102" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B103" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B104" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B107" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B108" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B109" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B110" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B112" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B113" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B114" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B115" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B116" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B117" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B119" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B120" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B121" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B122" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B124" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B125" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B126" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B127" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B128" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B129" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B130" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B131" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B132" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B133" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B134" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B135" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B136" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B137" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B138" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B139" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B140" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B141" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B142" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B111" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B118" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B145" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B146" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B147" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B148" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B149" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B150" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B151" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B152" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B153" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B154" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B155" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B156" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B157" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B158" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B159" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B160" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B161" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B162" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B163" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B164" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B165" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B166" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B167" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B168" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B169" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B172" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B173" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B174" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B175" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B176" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B177" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B178" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B179" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B180" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B189" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B190" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B191" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B192" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B193" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B194" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B195" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B196" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B197" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B198" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B199" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B200" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B201" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B202" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B203" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B204" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B205" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B206" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B207" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B208" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B209" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B210" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B211" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B212" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B213" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B214" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B215" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B216" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B217" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B218" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B219" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B220" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B221" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B222" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B223" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B226" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B227" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B228" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B229" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B230" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B231" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B232" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B233" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B234" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B235" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B236" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B237" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B238" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B239" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B240" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B241" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B242" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B243" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B244" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B245" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B246" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B247" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B250" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B251" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B252" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B253" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B254" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B255" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B256" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B257" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B258" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B259" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B260" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B261" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B262" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B263" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B264" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B265" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B266" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B267" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B268" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B269" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B270" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B271" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B272" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B273" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B274" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B275" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B276" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B277" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B278" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B279" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B280" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B281" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B282" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B283" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B284" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B287" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B288" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B289" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B290" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B291" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B292" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B293" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B294" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B295" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B296" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B297" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B298" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B299" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B300" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B301" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B302" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B303" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B304" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B305" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B308" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B309" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B310" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B311" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B312" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B313" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B314" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B315" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B316" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B317" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B318" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B319" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B320" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B321" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B322" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B323" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B324" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B325" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B326" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B327" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B328" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B329" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B330" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B331" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B332" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B333" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B334" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B335" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B336" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B337" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B338" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B339" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B340" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B341" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B342" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B343" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B344" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B345" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B348" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B349" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B350" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B351" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B352" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B353" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B354" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B355" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B356" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B357" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B358" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B359" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B360" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B361" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B362" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B363" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B364" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B365" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B369" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B370" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B371" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B372" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B373" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B374" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B375" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B376" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B377" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B378" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B379" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B380" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B381" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B382" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B383" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B384" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B385" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B386" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B387" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B388" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B389" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B390" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B391" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B392" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B393" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B394" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B395" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B396" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B397" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B398" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B399" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B400" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B401" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B402" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B403" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B404" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B405" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B406" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B408" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B407" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B409" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B410" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B411" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B414" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B415" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B416" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B417" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B418" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B419" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B422" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B423" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B424" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B425" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B426" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B427" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B428" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B429" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B430" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B431" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B432" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B433" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B434" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B435" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B436" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B437" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B438" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B439" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B440" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B441" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B442" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B443" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B444" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B445" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B446" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B447" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B448" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B449" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B450" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B451" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B452" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B453" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B454" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B455" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B456" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B457" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B458" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B459" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B460" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B461" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B463" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B462" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B464" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B465" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B466" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B467" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B468" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B469" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B470" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B471" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B472" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B473" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B474" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B481" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B480" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B479" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B478" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B477" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B476" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B475" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B484" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B485" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B486" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B487" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B488" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B489" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B490" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B493" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B491" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B492" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B368" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B53" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B54" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B55" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B56" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B57" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B59" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B60" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B61" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B62" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B65" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B66" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B67" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B69" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B70" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B71" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B72" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B73" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B74" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B75" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B76" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B77" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B78" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B79" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B80" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B81" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B82" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B83" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B84" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B85" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B86" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B87" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B88" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B89" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B90" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B91" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B92" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B93" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B94" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B95" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B97" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B98" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B99" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B100" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B101" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B102" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B103" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B104" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B105" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B106" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B107" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B110" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B111" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B112" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B113" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B115" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B116" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B117" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B118" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B119" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B120" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B122" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B123" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B124" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B125" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B126" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B127" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B128" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B129" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B130" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B131" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B132" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B133" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B134" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B135" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B136" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B137" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B138" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B139" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B140" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B141" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B142" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B143" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B144" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B145" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B114" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B121" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B148" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B149" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B150" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B151" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B152" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B153" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B154" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B155" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B156" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B157" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B158" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B159" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B160" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B161" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B162" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B163" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B164" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B165" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B166" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B167" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B168" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B169" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B170" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B171" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B172" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B175" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B176" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B177" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B178" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B179" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B180" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B181" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B182" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B183" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B192" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B193" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B194" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B195" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B196" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B197" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B198" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B199" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B200" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B201" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B202" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B203" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B204" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B205" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B206" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B207" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B208" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B209" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B210" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B211" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B212" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B213" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B214" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B215" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B216" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B217" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B218" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B219" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B220" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B221" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B222" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B223" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B224" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B225" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B226" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B229" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B230" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B231" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B232" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B233" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B234" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B235" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B236" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B237" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B238" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B239" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B240" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B241" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B242" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B243" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B244" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B245" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B246" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B247" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B248" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B249" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B250" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B253" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B254" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B255" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B256" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B257" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B258" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B259" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B260" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B261" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B262" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B263" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B264" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B265" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B266" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B267" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B268" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B269" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B270" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B271" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B272" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B273" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B274" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B275" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B276" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B277" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B278" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B279" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B280" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B281" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B282" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B283" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B284" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B285" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B286" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B287" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B290" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B291" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B292" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B293" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B294" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B295" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B296" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B297" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B298" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B299" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B300" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B301" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B302" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B303" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B304" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B305" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B306" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B307" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B308" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B311" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B312" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B313" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B314" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B315" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B316" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B317" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B318" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B319" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B320" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B321" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B322" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B323" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B324" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B325" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B326" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B327" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B328" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B329" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B330" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B331" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B332" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B333" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B334" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B335" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B336" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B337" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B338" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B339" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B340" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B341" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B342" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B343" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B344" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B345" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B346" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B347" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B348" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B351" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B352" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B353" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B354" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B355" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B356" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B357" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B358" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B359" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B360" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B361" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B362" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B363" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B364" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B365" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B366" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B367" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B368" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B372" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B373" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B374" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B375" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B376" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B377" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B378" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B379" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B380" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B381" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B382" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B383" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B384" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B385" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B386" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B387" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B388" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B389" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B390" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B391" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B392" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B393" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B394" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B395" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B396" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B397" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B398" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B399" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B400" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B401" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B402" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B403" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B404" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B405" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B406" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B407" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B408" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B409" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B411" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B410" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B412" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B413" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B414" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B417" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B418" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B419" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B420" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B421" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B422" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B425" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B426" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B427" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B428" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B429" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B430" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B431" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B432" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B433" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B434" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B435" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B436" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B437" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B438" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B439" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B440" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B441" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B442" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B443" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B444" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B445" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B446" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B447" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B448" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B449" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B450" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B451" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B452" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B453" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B454" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B455" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B456" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B457" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B458" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B459" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B460" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B461" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B462" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B463" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B464" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B466" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B465" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B467" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B468" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B469" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B470" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B471" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B472" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B473" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B474" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B475" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B476" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B477" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B484" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B483" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B482" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B481" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B480" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B479" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B478" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B487" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B488" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B489" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B490" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B491" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B492" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B493" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B496" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B494" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B495" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B371" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96BCD4-8B1F-49E9-930D-3031BFEB096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8062F5F-3A12-4E07-A323-DF42CE71E9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2246,7 +2246,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8062F5F-3A12-4E07-A323-DF42CE71E9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE29C87-6130-4FB8-9341-6991704D95CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -4595,7 +4595,7 @@
         <v>237</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE29C87-6130-4FB8-9341-6991704D95CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3934445C-C6AA-455F-921A-1058BBABC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -6337,7 +6337,7 @@
         <v>394</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishe\OneDrive\Desktop\450 DSA and 30 Day Striver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3934445C-C6AA-455F-921A-1058BBABC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA6B46-E760-493A-A7DA-6F437F9BF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C433" sqref="C433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -6403,7 +6403,7 @@
         <v>272</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>3</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
